--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -710,13 +710,13 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.44</v>
@@ -857,7 +857,7 @@
         <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
         <v>6.5</v>
@@ -869,10 +869,10 @@
         <v>3.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="T3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
         <v>1.2</v>
@@ -992,13 +992,13 @@
         <v>12</v>
       </c>
       <c r="M4" t="n">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>29</v>
       </c>
       <c r="O4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P4" t="n">
         <v>10</v>
@@ -1010,10 +1010,10 @@
         <v>4.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>1.14</v>
@@ -1073,7 +1073,7 @@
         <v>251</v>
       </c>
       <c r="AN4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AO4" t="n">
         <v>67</v>
@@ -1133,13 +1133,13 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
         <v>3.4</v>
@@ -1154,7 +1154,7 @@
         <v>3.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U5" t="n">
         <v>1.44</v>
@@ -1274,13 +1274,13 @@
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
         <v>3.4</v>
@@ -1295,7 +1295,7 @@
         <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U6" t="n">
         <v>1.44</v>
@@ -1403,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
@@ -1412,19 +1412,19 @@
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
         <v>2.7</v>
@@ -1436,7 +1436,7 @@
         <v>5.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1445,13 +1445,13 @@
         <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z7" t="n">
         <v>11</v>
@@ -1564,16 +1564,16 @@
         <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
         <v>2.7</v>
@@ -1585,7 +1585,7 @@
         <v>5.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="U8" t="n">
         <v>1.62</v>
@@ -1713,13 +1713,13 @@
         <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
         <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
         <v>2.25</v>
@@ -1734,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
@@ -1862,13 +1862,13 @@
         <v>3.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
         <v>6.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
         <v>2.25</v>
@@ -1883,7 +1883,7 @@
         <v>6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U10" t="n">
         <v>1.62</v>
@@ -1999,7 +1999,7 @@
         <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -2011,13 +2011,13 @@
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
         <v>5.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
         <v>2.1</v>
@@ -2032,13 +2032,13 @@
         <v>7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W11" t="n">
         <v>2.38</v>
@@ -2148,7 +2148,7 @@
         <v>2.63</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
@@ -2160,16 +2160,16 @@
         <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="N12" t="n">
         <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P12" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q12" t="n">
         <v>3.6</v>
@@ -2181,7 +2181,7 @@
         <v>8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="U12" t="n">
         <v>1.8</v>
@@ -2281,13 +2281,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
         <v>2.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
@@ -2299,13 +2299,13 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="N13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
         <v>2.1</v>
@@ -2320,7 +2320,7 @@
         <v>7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="U13" t="n">
         <v>1.75</v>
@@ -2329,10 +2329,10 @@
         <v>2.05</v>
       </c>
       <c r="W13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y13" t="n">
         <v>5</v>
@@ -2347,13 +2347,13 @@
         <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD13" t="n">
         <v>51</v>
       </c>
       <c r="AE13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF13" t="n">
         <v>6</v>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
         <v>2.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2438,16 +2438,16 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="N14" t="n">
         <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P14" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q14" t="n">
         <v>3.6</v>
@@ -2459,7 +2459,7 @@
         <v>9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="U14" t="n">
         <v>1.83</v>
@@ -2492,7 +2492,7 @@
         <v>51</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2511,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM14" t="n">
         <v>34</v>
@@ -2559,13 +2559,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
         <v>2.5</v>
@@ -2577,13 +2577,13 @@
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2595,10 +2595,10 @@
         <v>2.38</v>
       </c>
       <c r="S15" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="n">
         <v>1.29</v>
@@ -2625,7 +2625,7 @@
         <v>19</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
         <v>19</v>
@@ -2637,7 +2637,7 @@
         <v>7.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>34</v>
@@ -2652,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
@@ -2722,13 +2722,13 @@
         <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
         <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
         <v>4.33</v>
@@ -2740,10 +2740,10 @@
         <v>2.2</v>
       </c>
       <c r="S16" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U16" t="n">
         <v>1.3</v>
@@ -2863,13 +2863,13 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
         <v>3.75</v>
@@ -2884,7 +2884,7 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -3008,13 +3008,13 @@
         <v>3.25</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
         <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3029,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U18" t="n">
         <v>1.36</v>
@@ -3131,46 +3131,46 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T19" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U19" t="n">
         <v>1.33</v>
@@ -3188,19 +3188,19 @@
         <v>9.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
         <v>9</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3230,7 +3230,7 @@
         <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
         <v>26</v>
@@ -3290,28 +3290,28 @@
         <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
         <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
         <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U20" t="n">
         <v>1.5</v>
@@ -3435,13 +3435,13 @@
         <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
         <v>6.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
         <v>2.5</v>
@@ -3456,7 +3456,7 @@
         <v>5.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="U21" t="n">
         <v>1.57</v>
@@ -3584,13 +3584,13 @@
         <v>8.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3605,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U22" t="n">
         <v>1.44</v>
@@ -3715,46 +3715,46 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I23" t="n">
         <v>13</v>
       </c>
       <c r="J23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K23" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L23" t="n">
         <v>11</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
         <v>15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P23" t="n">
         <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S23" t="n">
         <v>2.25</v>
       </c>
       <c r="T23" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="U23" t="n">
         <v>1.25</v>
@@ -3784,7 +3784,7 @@
         <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -3822,10 +3822,10 @@
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -3860,16 +3860,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="J24" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="K24" t="n">
         <v>2.47</v>
@@ -3878,76 +3878,76 @@
         <v>1.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S24" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T24" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="U24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="V24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W24" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="X24" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Y24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB24" t="n">
         <v>300</v>
       </c>
       <c r="AC24" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH24" t="n">
         <v>100</v>
       </c>
-      <c r="AE24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>110</v>
-      </c>
       <c r="AI24" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
         <v>6.9</v>
@@ -3959,10 +3959,10 @@
         <v>8.75</v>
       </c>
       <c r="AN24" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -4142,106 +4142,106 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X26" t="n">
         <v>1.7</v>
       </c>
-      <c r="S26" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.75</v>
-      </c>
       <c r="Y26" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="Z26" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AA26" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AC26" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AG26" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI26" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AL26" t="n">
         <v>8.25</v>
       </c>
       <c r="AM26" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AN26" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
         <v>30</v>
@@ -4583,13 +4583,13 @@
         <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
         <v>11</v>
       </c>
       <c r="O29" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P29" t="n">
         <v>3.5</v>
@@ -4604,7 +4604,7 @@
         <v>3.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U29" t="n">
         <v>1.4</v>
@@ -4724,13 +4724,13 @@
         <v>3.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
         <v>3.4</v>
@@ -4745,7 +4745,7 @@
         <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4865,13 +4865,13 @@
         <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4886,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U31" t="n">
         <v>1.5</v>
@@ -4988,31 +4988,31 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="J32" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
         <v>3.5</v>
@@ -5027,7 +5027,7 @@
         <v>3.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U32" t="n">
         <v>1.4</v>
@@ -5036,10 +5036,10 @@
         <v>2.75</v>
       </c>
       <c r="W32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X32" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y32" t="n">
         <v>12</v>
@@ -5048,7 +5048,7 @@
         <v>21</v>
       </c>
       <c r="AA32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB32" t="n">
         <v>41</v>
@@ -5063,7 +5063,7 @@
         <v>10</v>
       </c>
       <c r="AF32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
@@ -5075,16 +5075,16 @@
         <v>251</v>
       </c>
       <c r="AJ32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL32" t="n">
         <v>8.5</v>
       </c>
       <c r="AM32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN32" t="n">
         <v>15</v>
@@ -5147,13 +5147,13 @@
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
         <v>11</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
         <v>3.5</v>
@@ -5168,7 +5168,7 @@
         <v>3.25</v>
       </c>
       <c r="T33" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U33" t="n">
         <v>1.4</v>
@@ -5270,31 +5270,31 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H34" t="n">
         <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
         <v>10</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P34" t="n">
         <v>3.4</v>
@@ -5309,7 +5309,7 @@
         <v>3.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U34" t="n">
         <v>1.4</v>
@@ -5327,13 +5327,13 @@
         <v>8.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
         <v>10</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
         <v>21</v>
@@ -5357,22 +5357,22 @@
         <v>251</v>
       </c>
       <c r="AJ34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK34" t="n">
         <v>13</v>
       </c>
       <c r="AL34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5429,13 +5429,13 @@
         <v>4.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
         <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -5450,7 +5450,7 @@
         <v>2.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U35" t="n">
         <v>1.33</v>
@@ -5570,13 +5570,13 @@
         <v>2.6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
         <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P36" t="n">
         <v>4.33</v>
@@ -5588,10 +5588,10 @@
         <v>2.2</v>
       </c>
       <c r="S36" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T36" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U36" t="n">
         <v>1.3</v>
@@ -5711,28 +5711,28 @@
         <v>2.88</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
         <v>13</v>
       </c>
       <c r="O37" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S37" t="n">
         <v>2.75</v>
       </c>
       <c r="T37" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U37" t="n">
         <v>1.36</v>
@@ -5852,13 +5852,13 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
         <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
         <v>4.33</v>
@@ -5870,10 +5870,10 @@
         <v>2.15</v>
       </c>
       <c r="S38" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T38" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U38" t="n">
         <v>1.33</v>
@@ -5993,13 +5993,13 @@
         <v>3.25</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
         <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P39" t="n">
         <v>4.33</v>
@@ -6011,10 +6011,10 @@
         <v>2.1</v>
       </c>
       <c r="S39" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T39" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U39" t="n">
         <v>1.33</v>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J42" t="n">
         <v>3.2</v>
@@ -6408,13 +6408,13 @@
         <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
         <v>8.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -6429,7 +6429,7 @@
         <v>3.75</v>
       </c>
       <c r="T42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U42" t="n">
         <v>1.44</v>
@@ -6480,7 +6480,7 @@
         <v>8.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL42" t="n">
         <v>11</v>
@@ -6489,7 +6489,7 @@
         <v>29</v>
       </c>
       <c r="AN42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO42" t="n">
         <v>34</v>
@@ -6531,30 +6531,30 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
         <v>2.95</v>
       </c>
       <c r="J43" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="K43" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="L43" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Q43" t="n">
         <v>1.56</v>
@@ -6563,36 +6563,70 @@
         <v>2.34</v>
       </c>
       <c r="S43" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="T43" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X43" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr"/>
+        <v>2.41</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>21</v>
+      </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>
@@ -6630,46 +6664,102 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="H44" t="n">
         <v>4.2</v>
       </c>
       <c r="I44" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+        <v>1.52</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.93</v>
+      </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.7</v>
+      </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
-      <c r="AN44" t="inlineStr"/>
-      <c r="AO44" t="inlineStr"/>
+      <c r="W44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>15</v>
+      </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
@@ -6725,13 +6815,13 @@
         <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
         <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P45" t="n">
         <v>4.5</v>
@@ -6746,7 +6836,7 @@
         <v>2.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U45" t="n">
         <v>1.3</v>
@@ -6852,13 +6942,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J46" t="n">
         <v>3.2</v>
@@ -6870,13 +6960,13 @@
         <v>3.25</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
         <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
         <v>3.75</v>
@@ -6891,7 +6981,7 @@
         <v>3.25</v>
       </c>
       <c r="T46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U46" t="n">
         <v>1.4</v>
@@ -6927,7 +7017,7 @@
         <v>11</v>
       </c>
       <c r="AF46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG46" t="n">
         <v>13</v>
@@ -7125,43 +7215,117 @@
           <t>Union Touarga</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr"/>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
-      <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr"/>
-      <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="inlineStr"/>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N48" t="n">
+        <v>6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.8</v>
+      </c>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
     </row>
@@ -7196,41 +7360,111 @@
           <t>Chabab Mohammedia</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
-      <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr"/>
-      <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N49" t="n">
+        <v>10</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>67</v>
+      </c>
       <c r="AP49" t="inlineStr"/>
       <c r="AQ49" t="inlineStr"/>
       <c r="AR49" t="inlineStr"/>
@@ -7271,10 +7505,10 @@
         <v>1.83</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I50" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J50" t="n">
         <v>2.38</v>
@@ -7283,16 +7517,16 @@
         <v>2.5</v>
       </c>
       <c r="L50" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N50" t="n">
         <v>19</v>
       </c>
       <c r="O50" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P50" t="n">
         <v>5.5</v>
@@ -7307,7 +7541,7 @@
         <v>2.2</v>
       </c>
       <c r="T50" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U50" t="n">
         <v>1.25</v>
@@ -7316,16 +7550,16 @@
         <v>3.75</v>
       </c>
       <c r="W50" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X50" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA50" t="n">
         <v>9</v>
@@ -7340,19 +7574,19 @@
         <v>19</v>
       </c>
       <c r="AE50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG50" t="n">
         <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI50" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ50" t="n">
         <v>17</v>
@@ -7374,8 +7608,12 @@
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="inlineStr"/>
+      <c r="AR50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7409,10 +7647,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H51" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
         <v>4.75</v>
@@ -7421,40 +7659,40 @@
         <v>2.3</v>
       </c>
       <c r="K51" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L51" t="n">
         <v>4.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O51" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R51" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
         <v>2.75</v>
       </c>
       <c r="T51" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U51" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V51" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W51" t="n">
         <v>1.73</v>
@@ -7466,7 +7704,7 @@
         <v>8</v>
       </c>
       <c r="Z51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA51" t="n">
         <v>8.5</v>
@@ -7499,7 +7737,7 @@
         <v>15</v>
       </c>
       <c r="AK51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL51" t="n">
         <v>15</v>
@@ -7568,28 +7806,28 @@
         <v>3.6</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N52" t="n">
         <v>19</v>
       </c>
       <c r="O52" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P52" t="n">
         <v>5.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R52" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S52" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="U52" t="n">
         <v>1.25</v>
@@ -7709,13 +7947,13 @@
         <v>4.33</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N53" t="n">
         <v>19</v>
       </c>
       <c r="O53" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P53" t="n">
         <v>5.5</v>
@@ -7730,7 +7968,7 @@
         <v>2.2</v>
       </c>
       <c r="T53" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U53" t="n">
         <v>1.25</v>
@@ -7854,13 +8092,13 @@
         <v>6.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P54" t="n">
         <v>3.25</v>
@@ -7875,7 +8113,7 @@
         <v>3.75</v>
       </c>
       <c r="T54" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U54" t="n">
         <v>1.44</v>
@@ -7941,13 +8179,13 @@
         <v>51</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="AR54" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AS54" t="n">
         <v>1.4</v>
@@ -8003,13 +8241,13 @@
         <v>2.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N55" t="n">
         <v>13</v>
       </c>
       <c r="O55" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -8021,10 +8259,10 @@
         <v>2.1</v>
       </c>
       <c r="S55" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T55" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U55" t="n">
         <v>1.33</v>
@@ -8144,13 +8382,13 @@
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
         <v>13</v>
       </c>
       <c r="O56" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -8165,7 +8403,7 @@
         <v>2.75</v>
       </c>
       <c r="T56" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U56" t="n">
         <v>1.33</v>
@@ -8285,7 +8523,7 @@
         <v>3.25</v>
       </c>
       <c r="M57" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N57" t="n">
         <v>11</v>
@@ -8294,19 +8532,19 @@
         <v>1.25</v>
       </c>
       <c r="P57" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R57" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S57" t="n">
         <v>3.25</v>
       </c>
       <c r="T57" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U57" t="n">
         <v>1.4</v>
@@ -8426,13 +8664,13 @@
         <v>4.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
         <v>9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P58" t="n">
         <v>3.25</v>
@@ -8447,7 +8685,7 @@
         <v>3.5</v>
       </c>
       <c r="T58" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U58" t="n">
         <v>1.44</v>
@@ -8549,22 +8787,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="H59" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I59" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="J59" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="K59" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L59" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
@@ -8573,28 +8811,28 @@
         <v>9.25</v>
       </c>
       <c r="O59" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P59" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R59" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="S59" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="T59" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U59" t="n">
         <v>1.28</v>
       </c>
       <c r="V59" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="W59" t="n">
         <v>1.5</v>
@@ -8603,31 +8841,31 @@
         <v>2.42</v>
       </c>
       <c r="Y59" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z59" t="n">
         <v>11.75</v>
       </c>
-      <c r="Z59" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AA59" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB59" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC59" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD59" t="n">
         <v>18.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF59" t="n">
         <v>8.25</v>
       </c>
       <c r="AG59" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH59" t="n">
         <v>37</v>
@@ -8636,22 +8874,22 @@
         <v>200</v>
       </c>
       <c r="AJ59" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK59" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL59" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AM59" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN59" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO59" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
@@ -8831,7 +9069,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H61" t="n">
         <v>5.2</v>
@@ -8878,13 +9116,13 @@
         <v>1.47</v>
       </c>
       <c r="X61" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Y61" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z61" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA61" t="n">
         <v>21</v>
@@ -8896,7 +9134,7 @@
         <v>55</v>
       </c>
       <c r="AD61" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE61" t="n">
         <v>32</v>
@@ -8914,16 +9152,16 @@
         <v>175</v>
       </c>
       <c r="AJ61" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK61" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AL61" t="n">
         <v>9</v>
       </c>
       <c r="AM61" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AN61" t="n">
         <v>10</v>
@@ -8986,13 +9224,13 @@
         <v>3.25</v>
       </c>
       <c r="M62" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N62" t="n">
         <v>10</v>
       </c>
       <c r="O62" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P62" t="n">
         <v>3.5</v>
@@ -9007,7 +9245,7 @@
         <v>3.25</v>
       </c>
       <c r="T62" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U62" t="n">
         <v>1.4</v>
@@ -9127,13 +9365,13 @@
         <v>8.5</v>
       </c>
       <c r="M63" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N63" t="n">
         <v>11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -9148,7 +9386,7 @@
         <v>2.2</v>
       </c>
       <c r="T63" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U63" t="n">
         <v>1.25</v>
@@ -9193,7 +9431,7 @@
         <v>67</v>
       </c>
       <c r="AI63" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ63" t="n">
         <v>23</v>
@@ -9256,7 +9494,7 @@
         <v>7</v>
       </c>
       <c r="I64" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J64" t="n">
         <v>1.57</v>
@@ -9268,13 +9506,13 @@
         <v>8</v>
       </c>
       <c r="M64" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>1.02</v>
+        <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P64" t="n">
         <v>6.5</v>
@@ -9286,10 +9524,10 @@
         <v>3.25</v>
       </c>
       <c r="S64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U64" t="n">
         <v>1.2</v>
@@ -9343,7 +9581,7 @@
         <v>51</v>
       </c>
       <c r="AL64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM64" t="n">
         <v>101</v>
@@ -9352,7 +9590,7 @@
         <v>51</v>
       </c>
       <c r="AO64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
@@ -9753,16 +9991,16 @@
         <v>2.72</v>
       </c>
       <c r="J68" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K68" t="n">
         <v>2.05</v>
       </c>
       <c r="L68" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M68" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N68" t="n">
         <v>6.3</v>
@@ -9804,7 +10042,7 @@
         <v>12.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB68" t="n">
         <v>30</v>
@@ -9822,16 +10060,16 @@
         <v>5.8</v>
       </c>
       <c r="AG68" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH68" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI68" t="n">
         <v>600</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AK68" t="n">
         <v>13.5</v>
@@ -9903,13 +10141,13 @@
         <v>4</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N69" t="n">
         <v>7.5</v>
       </c>
       <c r="O69" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P69" t="n">
         <v>2.75</v>
@@ -9924,7 +10162,7 @@
         <v>4.33</v>
       </c>
       <c r="T69" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U69" t="n">
         <v>1.53</v>
@@ -10608,13 +10846,13 @@
         <v>6</v>
       </c>
       <c r="M74" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O74" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P74" t="n">
         <v>4.33</v>
@@ -10626,10 +10864,10 @@
         <v>2.15</v>
       </c>
       <c r="S74" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T74" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U74" t="n">
         <v>1.33</v>
@@ -10749,13 +10987,13 @@
         <v>4.75</v>
       </c>
       <c r="M75" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N75" t="n">
         <v>10</v>
       </c>
       <c r="O75" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P75" t="n">
         <v>3.25</v>
@@ -10770,7 +11008,7 @@
         <v>3.75</v>
       </c>
       <c r="T75" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U75" t="n">
         <v>1.44</v>
@@ -10926,7 +11164,7 @@
         <v>2.02</v>
       </c>
       <c r="Y76" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z76" t="n">
         <v>65</v>
@@ -10947,7 +11185,7 @@
         <v>10.25</v>
       </c>
       <c r="AF76" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG76" t="n">
         <v>19.5</v>
@@ -10959,10 +11197,10 @@
         <v>400</v>
       </c>
       <c r="AJ76" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK76" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AL76" t="n">
         <v>9.25</v>
@@ -10974,7 +11212,7 @@
         <v>10</v>
       </c>
       <c r="AO76" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
         <v>3.1</v>
@@ -707,7 +707,7 @@
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
         <v>2.2</v>
@@ -734,10 +734,10 @@
         <v>1.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
         <v>1.91</v>
@@ -836,10 +836,10 @@
         <v>1.44</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>1.91</v>
@@ -851,10 +851,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>1.11</v>
@@ -995,7 +995,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O4" t="n">
         <v>1.06</v>
@@ -1073,7 +1073,7 @@
         <v>251</v>
       </c>
       <c r="AN4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="n">
         <v>67</v>
@@ -1262,7 +1262,7 @@
         <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.05</v>
@@ -1274,10 +1274,10 @@
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1316,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB6" t="n">
         <v>9.5</v>
@@ -1343,7 +1343,7 @@
         <v>501</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>34</v>
@@ -1561,13 +1561,13 @@
         <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
@@ -1594,10 +1594,10 @@
         <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y8" t="n">
         <v>5.5</v>
@@ -1698,13 +1698,13 @@
         <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>1.83</v>
@@ -1713,43 +1713,43 @@
         <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z9" t="n">
         <v>8.5</v>
@@ -1758,7 +1758,7 @@
         <v>10</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
         <v>23</v>
@@ -1767,7 +1767,7 @@
         <v>41</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
@@ -1776,13 +1776,13 @@
         <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI9" t="n">
         <v>101</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK9" t="n">
         <v>17</v>
@@ -1806,7 +1806,7 @@
         <v>1.78</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AS9" t="n">
         <v>1.18</v>
@@ -1844,13 +1844,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
         <v>4.33</v>
@@ -1859,13 +1859,13 @@
         <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.57</v>
@@ -1955,7 +1955,7 @@
         <v>1.8</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AS10" t="n">
         <v>1.19</v>
@@ -2011,10 +2011,10 @@
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>1.67</v>
@@ -2065,7 +2065,7 @@
         <v>51</v>
       </c>
       <c r="AE11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
@@ -2086,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H12" t="n">
         <v>2.63</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
         <v>1.73</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>1.18</v>
@@ -2223,7 +2223,7 @@
         <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="n">
@@ -2299,13 +2299,13 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P13" t="n">
         <v>2.1</v>
@@ -2320,7 +2320,7 @@
         <v>7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="U13" t="n">
         <v>1.75</v>
@@ -2438,16 +2438,16 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="N14" t="n">
         <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Q14" t="n">
         <v>3.6</v>
@@ -2459,7 +2459,7 @@
         <v>9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
         <v>1.83</v>
@@ -2577,13 +2577,13 @@
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2595,10 +2595,10 @@
         <v>2.38</v>
       </c>
       <c r="S15" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U15" t="n">
         <v>1.29</v>
@@ -2722,13 +2722,13 @@
         <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
         <v>4.33</v>
@@ -2740,10 +2740,10 @@
         <v>2.2</v>
       </c>
       <c r="S16" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U16" t="n">
         <v>1.3</v>
@@ -2845,31 +2845,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
         <v>3.75</v>
@@ -2884,7 +2884,7 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -2917,10 +2917,10 @@
         <v>23</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
@@ -2929,16 +2929,16 @@
         <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
@@ -3014,16 +3014,16 @@
         <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S18" t="n">
         <v>3</v>
@@ -3038,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y18" t="n">
         <v>9.5</v>
@@ -3155,10 +3155,10 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q19" t="n">
         <v>1.7</v>
@@ -3501,7 +3501,7 @@
         <v>67</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ21" t="n">
         <v>6.5</v>
@@ -3715,28 +3715,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="H23" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
+        <v>17</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
         <v>13</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L23" t="n">
-        <v>11</v>
-      </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O23" t="n">
         <v>1.14</v>
@@ -3745,16 +3745,16 @@
         <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R23" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
         <v>1.25</v>
@@ -3763,10 +3763,10 @@
         <v>3.75</v>
       </c>
       <c r="W23" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="X23" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Y23" t="n">
         <v>8</v>
@@ -3775,57 +3775,57 @@
         <v>6</v>
       </c>
       <c r="AA23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AH23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI23" t="n">
         <v>101</v>
       </c>
       <c r="AJ23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="n">
         <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AO23" t="n">
         <v>101</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>81</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="24">
@@ -4142,106 +4142,106 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="J26" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P26" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="R26" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U26" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="V26" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="W26" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="X26" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AN26" t="n">
         <v>14</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>13</v>
       </c>
       <c r="AO26" t="n">
         <v>30</v>
@@ -4424,109 +4424,109 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="K28" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T28" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="U28" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="V28" t="n">
-        <v>2.8</v>
+        <v>2.57</v>
       </c>
       <c r="W28" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="X28" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB28" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD28" t="n">
         <v>35</v>
       </c>
       <c r="AE28" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AG28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH28" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI28" t="n">
         <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AM28" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4595,10 +4595,10 @@
         <v>3.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R29" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S29" t="n">
         <v>3.4</v>
@@ -4847,22 +4847,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4889,10 +4889,10 @@
         <v>1.22</v>
       </c>
       <c r="U31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W31" t="n">
         <v>1.91</v>
@@ -4901,22 +4901,22 @@
         <v>1.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>8.5</v>
@@ -4934,19 +4934,19 @@
         <v>351</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="n">
         <v>34</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>29</v>
       </c>
       <c r="AO31" t="n">
         <v>41</v>
@@ -4988,13 +4988,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J32" t="n">
         <v>4.33</v>
@@ -5006,10 +5006,10 @@
         <v>2.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
         <v>1.29</v>
@@ -5042,10 +5042,10 @@
         <v>1.91</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="n">
         <v>13</v>
@@ -5054,7 +5054,7 @@
         <v>41</v>
       </c>
       <c r="AC32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD32" t="n">
         <v>41</v>
@@ -5078,10 +5078,10 @@
         <v>7.5</v>
       </c>
       <c r="AK32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL32" t="n">
         <v>9</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>8.5</v>
       </c>
       <c r="AM32" t="n">
         <v>17</v>
@@ -5300,10 +5300,10 @@
         <v>3.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="n">
         <v>3.5</v>
@@ -5441,10 +5441,10 @@
         <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S35" t="n">
         <v>2.75</v>
@@ -5696,16 +5696,16 @@
         <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J37" t="n">
         <v>3.6</v>
       </c>
       <c r="K37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L37" t="n">
         <v>2.88</v>
@@ -5723,10 +5723,10 @@
         <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R37" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S37" t="n">
         <v>2.75</v>
@@ -5765,10 +5765,10 @@
         <v>29</v>
       </c>
       <c r="AE37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG37" t="n">
         <v>13</v>
@@ -5834,19 +5834,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H38" t="n">
         <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J38" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K38" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L38" t="n">
         <v>4</v>
@@ -5858,37 +5858,37 @@
         <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P38" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S38" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z38" t="n">
         <v>10</v>
@@ -5909,16 +5909,16 @@
         <v>15</v>
       </c>
       <c r="AF38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
         <v>41</v>
       </c>
       <c r="AI38" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ38" t="n">
         <v>15</v>
@@ -5975,22 +5975,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
         <v>2.25</v>
       </c>
       <c r="L39" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -6029,16 +6029,16 @@
         <v>2.25</v>
       </c>
       <c r="Y39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA39" t="n">
         <v>10</v>
       </c>
-      <c r="Z39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC39" t="n">
         <v>19</v>
@@ -6050,7 +6050,7 @@
         <v>13</v>
       </c>
       <c r="AF39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG39" t="n">
         <v>12</v>
@@ -6068,16 +6068,16 @@
         <v>15</v>
       </c>
       <c r="AL39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6116,57 +6116,57 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I40" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J40" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="Q40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X40" t="n">
         <v>1.9</v>
       </c>
-      <c r="R40" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1.93</v>
-      </c>
       <c r="Y40" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z40" t="n">
         <v>12.5</v>
@@ -6175,31 +6175,31 @@
         <v>9.25</v>
       </c>
       <c r="AB40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD40" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI40" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK40" t="n">
         <v>14</v>
@@ -6211,7 +6211,7 @@
         <v>35</v>
       </c>
       <c r="AN40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO40" t="n">
         <v>32</v>
@@ -6256,16 +6256,16 @@
         <v>2.55</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
         <v>2.57</v>
       </c>
       <c r="J41" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
         <v>3.1</v>
@@ -6273,70 +6273,70 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P41" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R41" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S41" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T41" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="U41" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="V41" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="W41" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X41" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Y41" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="Z41" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA41" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB41" t="n">
         <v>28</v>
       </c>
       <c r="AC41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD41" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE41" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF41" t="n">
         <v>6.2</v>
       </c>
       <c r="AG41" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI41" t="n">
         <v>600</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AK41" t="n">
         <v>12.5</v>
@@ -6351,7 +6351,7 @@
         <v>22</v>
       </c>
       <c r="AO41" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>3.2</v>
@@ -6480,7 +6480,7 @@
         <v>8.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL42" t="n">
         <v>11</v>
@@ -6489,7 +6489,7 @@
         <v>29</v>
       </c>
       <c r="AN42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO42" t="n">
         <v>34</v>
@@ -6664,22 +6664,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="H44" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="I44" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="J44" t="n">
-        <v>4.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="L44" t="n">
-        <v>1.93</v>
+        <v>1.55</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -6696,69 +6696,69 @@
         <v>2.65</v>
       </c>
       <c r="S44" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="T44" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="n">
-        <v>1.52</v>
+        <v>1.89</v>
       </c>
       <c r="X44" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="Y44" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Z44" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AA44" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AB44" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="AC44" t="n">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="AD44" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="n">
         <v>20</v>
       </c>
       <c r="AF44" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AH44" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="n">
         <v>101</v>
       </c>
       <c r="AJ44" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AK44" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="AL44" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AM44" t="n">
-        <v>9.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="AN44" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO44" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -7086,19 +7086,19 @@
         <v>1.65</v>
       </c>
       <c r="H47" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I47" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="J47" t="n">
         <v>2.15</v>
       </c>
       <c r="K47" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L47" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -7106,13 +7106,13 @@
         <v>1.2</v>
       </c>
       <c r="P47" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S47" t="n">
         <v>2.42</v>
@@ -7126,19 +7126,19 @@
         <v>1.62</v>
       </c>
       <c r="X47" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Y47" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA47" t="n">
         <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC47" t="n">
         <v>12</v>
@@ -7147,10 +7147,10 @@
         <v>21</v>
       </c>
       <c r="AE47" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AG47" t="n">
         <v>14</v>
@@ -7162,10 +7162,10 @@
         <v>350</v>
       </c>
       <c r="AJ47" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL47" t="n">
         <v>15</v>
@@ -7177,7 +7177,7 @@
         <v>40</v>
       </c>
       <c r="AO47" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -7216,40 +7216,40 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
         <v>2.88</v>
       </c>
       <c r="I48" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J48" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K48" t="n">
         <v>1.91</v>
       </c>
       <c r="L48" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P48" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R48" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S48" t="n">
         <v>5.5</v>
@@ -7258,10 +7258,10 @@
         <v>1.14</v>
       </c>
       <c r="U48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W48" t="n">
         <v>2.2</v>
@@ -7270,25 +7270,25 @@
         <v>1.62</v>
       </c>
       <c r="Y48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD48" t="n">
         <v>41</v>
       </c>
       <c r="AE48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF48" t="n">
         <v>6</v>
@@ -7303,28 +7303,28 @@
         <v>101</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AL48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM48" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO48" t="n">
         <v>41</v>
       </c>
       <c r="AP48" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
@@ -7361,22 +7361,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I49" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K49" t="n">
         <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M49" t="n">
         <v>1.06</v>
@@ -7391,16 +7391,16 @@
         <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R49" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U49" t="n">
         <v>1.44</v>
@@ -7409,22 +7409,22 @@
         <v>2.63</v>
       </c>
       <c r="W49" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X49" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y49" t="n">
         <v>5.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB49" t="n">
         <v>9</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>9.5</v>
       </c>
       <c r="AC49" t="n">
         <v>15</v>
@@ -7436,13 +7436,13 @@
         <v>8.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH49" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI49" t="n">
         <v>101</v>
@@ -7454,13 +7454,13 @@
         <v>34</v>
       </c>
       <c r="AL49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM49" t="n">
         <v>81</v>
       </c>
       <c r="AN49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO49" t="n">
         <v>67</v>
@@ -7520,10 +7520,10 @@
         <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O50" t="n">
         <v>1.14</v>
@@ -7609,10 +7609,10 @@
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
       <c r="AR50" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="51">
@@ -7959,16 +7959,16 @@
         <v>5.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R53" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S53" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T53" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U53" t="n">
         <v>1.25</v>
@@ -8074,28 +8074,28 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H54" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J54" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K54" t="n">
         <v>2.2</v>
       </c>
       <c r="L54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O54" t="n">
         <v>1.33</v>
@@ -8110,10 +8110,10 @@
         <v>1.75</v>
       </c>
       <c r="S54" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T54" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U54" t="n">
         <v>1.44</v>
@@ -8122,31 +8122,31 @@
         <v>2.63</v>
       </c>
       <c r="W54" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X54" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y54" t="n">
         <v>6</v>
       </c>
       <c r="Z54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC54" t="n">
         <v>15</v>
       </c>
       <c r="AD54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE54" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF54" t="n">
         <v>8</v>
@@ -8155,40 +8155,40 @@
         <v>21</v>
       </c>
       <c r="AH54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI54" t="n">
         <v>301</v>
       </c>
       <c r="AJ54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN54" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO54" t="n">
         <v>51</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="AR54" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="55">
@@ -8787,61 +8787,61 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H59" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I59" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J59" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="K59" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L59" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
       </c>
       <c r="N59" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O59" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P59" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R59" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="S59" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="T59" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U59" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="V59" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="W59" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X59" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="Y59" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z59" t="n">
         <v>11.75</v>
@@ -8850,46 +8850,46 @@
         <v>8.75</v>
       </c>
       <c r="AB59" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD59" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>15</v>
-      </c>
       <c r="AK59" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL59" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AM59" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN59" t="n">
         <v>24</v>
       </c>
       <c r="AO59" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
@@ -9072,19 +9072,19 @@
         <v>6.5</v>
       </c>
       <c r="H61" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J61" t="n">
         <v>5.5</v>
       </c>
       <c r="K61" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="L61" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -9092,31 +9092,31 @@
         <v>1.09</v>
       </c>
       <c r="P61" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R61" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="S61" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U61" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="V61" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="W61" t="n">
         <v>1.47</v>
       </c>
       <c r="X61" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Y61" t="n">
         <v>35</v>
@@ -9137,16 +9137,16 @@
         <v>37</v>
       </c>
       <c r="AE61" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF61" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI61" t="n">
         <v>175</v>
@@ -9158,16 +9158,16 @@
         <v>10.25</v>
       </c>
       <c r="AL61" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM61" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AN61" t="n">
         <v>10</v>
       </c>
       <c r="AO61" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
@@ -9224,10 +9224,10 @@
         <v>3.25</v>
       </c>
       <c r="M62" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N62" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O62" t="n">
         <v>1.29</v>
@@ -9353,22 +9353,22 @@
         <v>6.5</v>
       </c>
       <c r="I63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J63" t="n">
         <v>1.62</v>
       </c>
       <c r="K63" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M63" t="n">
-        <v>1.02</v>
+        <v>19</v>
       </c>
       <c r="N63" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="O63" t="n">
         <v>1.14</v>
@@ -9410,13 +9410,13 @@
         <v>9.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC63" t="n">
         <v>11</v>
       </c>
       <c r="AD63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE63" t="n">
         <v>19</v>
@@ -9434,13 +9434,13 @@
         <v>800</v>
       </c>
       <c r="AJ63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK63" t="n">
         <v>41</v>
       </c>
       <c r="AL63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM63" t="n">
         <v>101</v>
@@ -9769,41 +9769,111 @@
           <t>Balestier Khalsa</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
-      <c r="AH66" t="inlineStr"/>
-      <c r="AI66" t="inlineStr"/>
-      <c r="AJ66" t="inlineStr"/>
-      <c r="AK66" t="inlineStr"/>
-      <c r="AL66" t="inlineStr"/>
-      <c r="AM66" t="inlineStr"/>
-      <c r="AN66" t="inlineStr"/>
-      <c r="AO66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N66" t="n">
+        <v>34</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P66" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V66" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>15</v>
+      </c>
       <c r="AP66" t="inlineStr"/>
       <c r="AQ66" t="inlineStr"/>
       <c r="AR66" t="inlineStr"/>
@@ -9841,70 +9911,70 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I67" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J67" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K67" t="n">
         <v>2.18</v>
       </c>
       <c r="L67" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="M67" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N67" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O67" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P67" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R67" t="n">
         <v>1.7</v>
       </c>
       <c r="S67" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T67" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U67" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V67" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="W67" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="X67" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Y67" t="n">
         <v>5.7</v>
       </c>
       <c r="Z67" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AA67" t="n">
         <v>8.25</v>
       </c>
       <c r="AB67" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC67" t="n">
         <v>14</v>
@@ -9913,13 +9983,13 @@
         <v>32</v>
       </c>
       <c r="AE67" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF67" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AG67" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH67" t="n">
         <v>110</v>
@@ -9928,19 +9998,19 @@
         <v>900</v>
       </c>
       <c r="AJ67" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK67" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AL67" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM67" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN67" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO67" t="n">
         <v>70</v>
@@ -9988,7 +10058,7 @@
         <v>3.05</v>
       </c>
       <c r="I68" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J68" t="n">
         <v>3.2</v>
@@ -9997,94 +10067,94 @@
         <v>2.05</v>
       </c>
       <c r="L68" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M68" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N68" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="O68" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P68" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R68" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S68" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="T68" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="U68" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V68" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="W68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X68" t="n">
         <v>1.82</v>
       </c>
-      <c r="X68" t="n">
-        <v>1.88</v>
-      </c>
       <c r="Y68" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z68" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA68" t="n">
         <v>10</v>
       </c>
       <c r="AB68" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC68" t="n">
         <v>24</v>
       </c>
       <c r="AD68" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE68" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AF68" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AG68" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AJ68" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AK68" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL68" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM68" t="n">
         <v>32</v>
       </c>
       <c r="AN68" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO68" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="inlineStr"/>
@@ -10144,7 +10214,7 @@
         <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -10207,7 +10277,7 @@
         <v>51</v>
       </c>
       <c r="AI69" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AJ69" t="n">
         <v>8.5</v>
@@ -10267,10 +10337,10 @@
         <v>2.37</v>
       </c>
       <c r="H70" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="J70" t="n">
         <v>3</v>
@@ -10318,7 +10388,7 @@
         <v>2.15</v>
       </c>
       <c r="Y70" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z70" t="n">
         <v>12.5</v>
@@ -10351,10 +10421,10 @@
         <v>350</v>
       </c>
       <c r="AJ70" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK70" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL70" t="n">
         <v>10</v>
@@ -10366,7 +10436,7 @@
         <v>23</v>
       </c>
       <c r="AO70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
@@ -10687,70 +10757,70 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="H73" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I73" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="J73" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="K73" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="L73" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="M73" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O73" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P73" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R73" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="S73" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T73" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U73" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="V73" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="W73" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="X73" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Y73" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z73" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA73" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB73" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC73" t="n">
         <v>10</v>
@@ -10759,37 +10829,37 @@
         <v>23</v>
       </c>
       <c r="AE73" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF73" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AG73" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI73" t="n">
         <v>450</v>
       </c>
       <c r="AJ73" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AK73" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL73" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM73" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AN73" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AO73" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
         <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>12</v>
@@ -995,7 +995,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O4" t="n">
         <v>1.06</v>
@@ -1022,10 +1022,10 @@
         <v>5.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
@@ -1052,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
         <v>67</v>
@@ -1073,7 +1073,7 @@
         <v>251</v>
       </c>
       <c r="AN4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AO4" t="n">
         <v>67</v>
@@ -1163,10 +1163,10 @@
         <v>2.63</v>
       </c>
       <c r="W5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1286,10 +1286,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
         <v>3.75</v>
@@ -1316,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>9.5</v>
@@ -1328,13 +1328,13 @@
         <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
         <v>81</v>
@@ -1349,7 +1349,7 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>81</v>
@@ -1358,7 +1358,7 @@
         <v>51</v>
       </c>
       <c r="AO6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1415,10 +1415,10 @@
         <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.53</v>
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -1752,10 +1752,10 @@
         <v>5</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
         <v>21</v>
@@ -1809,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="10">
@@ -1993,16 +1993,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
         <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>1.8</v>
@@ -2038,7 +2038,7 @@
         <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>2.38</v>
@@ -2047,7 +2047,7 @@
         <v>1.53</v>
       </c>
       <c r="Y11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z11" t="n">
         <v>11</v>
@@ -2056,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
         <v>29</v>
@@ -2080,10 +2080,10 @@
         <v>101</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
         <v>13</v>
@@ -2233,7 +2233,7 @@
         <v>13</v>
       </c>
       <c r="AL12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
@@ -2299,13 +2299,13 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
         <v>2.1</v>
@@ -2320,7 +2320,7 @@
         <v>7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="U13" t="n">
         <v>1.75</v>
@@ -2438,16 +2438,16 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O14" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P14" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q14" t="n">
         <v>3.6</v>
@@ -2459,7 +2459,7 @@
         <v>9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="U14" t="n">
         <v>1.83</v>
@@ -2508,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
         <v>15</v>
@@ -2562,10 +2562,10 @@
         <v>1.95</v>
       </c>
       <c r="H15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I15" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.7</v>
       </c>
       <c r="J15" t="n">
         <v>2.5</v>
@@ -2577,13 +2577,13 @@
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2595,10 +2595,10 @@
         <v>2.38</v>
       </c>
       <c r="S15" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
         <v>1.29</v>
@@ -2652,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
@@ -2666,10 +2666,10 @@
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="16">
@@ -2722,13 +2722,13 @@
         <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
         <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
         <v>4.33</v>
@@ -2740,10 +2740,10 @@
         <v>2.2</v>
       </c>
       <c r="S16" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U16" t="n">
         <v>1.3</v>
@@ -2863,13 +2863,13 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
         <v>3.75</v>
@@ -2884,7 +2884,7 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -2990,22 +2990,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3014,22 +3014,22 @@
         <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U18" t="n">
         <v>1.36</v>
@@ -3038,16 +3038,16 @@
         <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y18" t="n">
         <v>9.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
         <v>9.5</v>
@@ -3056,10 +3056,10 @@
         <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>12</v>
@@ -3077,13 +3077,13 @@
         <v>151</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM18" t="n">
         <v>29</v>
@@ -3092,7 +3092,7 @@
         <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
         <v>2.63</v>
@@ -3290,28 +3290,28 @@
         <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U20" t="n">
         <v>1.5</v>
@@ -3320,13 +3320,13 @@
         <v>2.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>8.5</v>
@@ -3335,16 +3335,16 @@
         <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
         <v>17</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
@@ -3353,13 +3353,13 @@
         <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI20" t="n">
         <v>351</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
         <v>21</v>
@@ -3441,16 +3441,16 @@
         <v>6.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="n">
         <v>5.5</v>
@@ -3522,16 +3522,16 @@
         <v>41</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="22">
@@ -3566,28 +3566,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -3614,10 +3614,10 @@
         <v>2.63</v>
       </c>
       <c r="W22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y22" t="n">
         <v>5</v>
@@ -3626,10 +3626,10 @@
         <v>5.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
@@ -3638,16 +3638,16 @@
         <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI22" t="n">
         <v>101</v>
@@ -3662,25 +3662,25 @@
         <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="n">
         <v>81</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.22</v>
+        <v>2.19</v>
       </c>
       <c r="AR22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="23">
@@ -4142,97 +4142,97 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
         <v>1.65</v>
       </c>
       <c r="J26" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
         <v>2.18</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P26" t="n">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="Q26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W26" t="n">
         <v>2.02</v>
       </c>
-      <c r="R26" t="n">
+      <c r="X26" t="n">
         <v>1.7</v>
       </c>
-      <c r="S26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.75</v>
-      </c>
       <c r="Y26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AC26" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AG26" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI26" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AL26" t="n">
         <v>8</v>
@@ -4241,10 +4241,10 @@
         <v>12.5</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4595,10 +4595,10 @@
         <v>3.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S29" t="n">
         <v>3.4</v>
@@ -4847,22 +4847,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4904,7 +4904,7 @@
         <v>6.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA31" t="n">
         <v>9</v>
@@ -4934,7 +4934,7 @@
         <v>351</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>19</v>
@@ -5153,22 +5153,22 @@
         <v>11</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U33" t="n">
         <v>1.4</v>
@@ -5270,16 +5270,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
         <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
         <v>2.1</v>
@@ -5291,7 +5291,7 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
@@ -5312,10 +5312,10 @@
         <v>1.29</v>
       </c>
       <c r="U34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V34" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W34" t="n">
         <v>1.8</v>
@@ -5324,7 +5324,7 @@
         <v>1.91</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z34" t="n">
         <v>12</v>
@@ -5342,7 +5342,7 @@
         <v>29</v>
       </c>
       <c r="AE34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF34" t="n">
         <v>6.5</v>
@@ -5441,10 +5441,10 @@
         <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R35" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S35" t="n">
         <v>2.75</v>
@@ -5702,13 +5702,13 @@
         <v>2.15</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L37" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
@@ -5723,31 +5723,31 @@
         <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R37" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T37" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W37" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z37" t="n">
         <v>17</v>
@@ -5759,10 +5759,10 @@
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
@@ -5771,16 +5771,16 @@
         <v>7</v>
       </c>
       <c r="AG37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
         <v>41</v>
       </c>
       <c r="AI37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK37" t="n">
         <v>12</v>
@@ -5843,49 +5843,49 @@
         <v>3.9</v>
       </c>
       <c r="J38" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K38" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L38" t="n">
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R38" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X38" t="n">
         <v>2.2</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X38" t="n">
-        <v>2.25</v>
       </c>
       <c r="Y38" t="n">
         <v>9.5</v>
@@ -5900,25 +5900,25 @@
         <v>17</v>
       </c>
       <c r="AC38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD38" t="n">
         <v>21</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF38" t="n">
         <v>7</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH38" t="n">
         <v>41</v>
       </c>
       <c r="AI38" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ38" t="n">
         <v>15</v>
@@ -5975,22 +5975,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H39" t="n">
         <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
         <v>2.25</v>
       </c>
       <c r="L39" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -6029,16 +6029,16 @@
         <v>2.25</v>
       </c>
       <c r="Y39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC39" t="n">
         <v>19</v>
@@ -6050,7 +6050,7 @@
         <v>13</v>
       </c>
       <c r="AF39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG39" t="n">
         <v>12</v>
@@ -6068,16 +6068,16 @@
         <v>15</v>
       </c>
       <c r="AL39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO39" t="n">
         <v>26</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>23</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6253,7 +6253,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H41" t="n">
         <v>3.2</v>
@@ -6279,13 +6279,13 @@
         <v>2.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
         <v>1.65</v>
       </c>
       <c r="S41" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T41" t="n">
         <v>1.24</v>
@@ -6306,10 +6306,10 @@
         <v>7.7</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB41" t="n">
         <v>28</v>
@@ -6336,7 +6336,7 @@
         <v>600</v>
       </c>
       <c r="AJ41" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AK41" t="n">
         <v>12.5</v>
@@ -6348,7 +6348,7 @@
         <v>28</v>
       </c>
       <c r="AN41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO41" t="n">
         <v>35</v>
@@ -6845,16 +6845,16 @@
         <v>3.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X45" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
       </c>
       <c r="Z45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA45" t="n">
         <v>8.5</v>
@@ -6890,7 +6890,7 @@
         <v>34</v>
       </c>
       <c r="AL45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM45" t="n">
         <v>67</v>
@@ -6972,10 +6972,10 @@
         <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R46" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S46" t="n">
         <v>3.25</v>
@@ -7008,16 +7008,16 @@
         <v>26</v>
       </c>
       <c r="AC46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG46" t="n">
         <v>13</v>
@@ -7029,7 +7029,7 @@
         <v>201</v>
       </c>
       <c r="AJ46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK46" t="n">
         <v>13</v>
@@ -7083,62 +7083,62 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H47" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I47" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="J47" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="K47" t="n">
         <v>2.25</v>
       </c>
       <c r="L47" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q47" t="n">
         <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S47" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="T47" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X47" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y47" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z47" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z47" t="n">
-        <v>9</v>
-      </c>
       <c r="AA47" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC47" t="n">
         <v>12</v>
@@ -7147,37 +7147,37 @@
         <v>21</v>
       </c>
       <c r="AE47" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF47" t="n">
         <v>7.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH47" t="n">
         <v>55</v>
       </c>
       <c r="AI47" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AJ47" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK47" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL47" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM47" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN47" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -7231,7 +7231,7 @@
         <v>1.91</v>
       </c>
       <c r="L48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M48" t="n">
         <v>1.11</v>
@@ -7279,7 +7279,7 @@
         <v>12</v>
       </c>
       <c r="AB48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC48" t="n">
         <v>29</v>
@@ -7376,7 +7376,7 @@
         <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.06</v>
@@ -7409,19 +7409,19 @@
         <v>2.63</v>
       </c>
       <c r="W49" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X49" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y49" t="n">
         <v>5.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB49" t="n">
         <v>9</v>
@@ -7454,13 +7454,13 @@
         <v>34</v>
       </c>
       <c r="AL49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM49" t="n">
         <v>81</v>
       </c>
       <c r="AN49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO49" t="n">
         <v>67</v>
@@ -7502,19 +7502,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I50" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K50" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L50" t="n">
         <v>4</v>
@@ -7523,46 +7523,46 @@
         <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O50" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P50" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R50" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S50" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T50" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="U50" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V50" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W50" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X50" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z50" t="n">
         <v>11</v>
       </c>
       <c r="AA50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB50" t="n">
         <v>17</v>
@@ -7571,25 +7571,25 @@
         <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE50" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG50" t="n">
         <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI50" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK50" t="n">
         <v>23</v>
@@ -7601,18 +7601,18 @@
         <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
       <c r="AR50" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="51">
@@ -7671,22 +7671,22 @@
         <v>12</v>
       </c>
       <c r="O51" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S51" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U51" t="n">
         <v>1.36</v>
@@ -7701,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="Y51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z51" t="n">
         <v>8.5</v>
@@ -7728,13 +7728,13 @@
         <v>15</v>
       </c>
       <c r="AH51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="n">
         <v>201</v>
       </c>
       <c r="AJ51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK51" t="n">
         <v>23</v>
@@ -7803,16 +7803,16 @@
         <v>2.5</v>
       </c>
       <c r="L52" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M52" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N52" t="n">
         <v>19</v>
       </c>
       <c r="O52" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P52" t="n">
         <v>5.5</v>
@@ -7827,7 +7827,7 @@
         <v>2.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U52" t="n">
         <v>1.25</v>
@@ -7878,7 +7878,7 @@
         <v>17</v>
       </c>
       <c r="AK52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL52" t="n">
         <v>13</v>
@@ -7947,13 +7947,13 @@
         <v>4.33</v>
       </c>
       <c r="M53" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
         <v>19</v>
       </c>
       <c r="O53" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P53" t="n">
         <v>5.5</v>
@@ -7968,7 +7968,7 @@
         <v>2.1</v>
       </c>
       <c r="T53" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U53" t="n">
         <v>1.25</v>
@@ -7986,7 +7986,7 @@
         <v>11</v>
       </c>
       <c r="Z53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA53" t="n">
         <v>8.5</v>
@@ -8074,31 +8074,31 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J54" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K54" t="n">
         <v>2.2</v>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N54" t="n">
         <v>11</v>
       </c>
       <c r="O54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P54" t="n">
         <v>3.25</v>
@@ -8107,43 +8107,43 @@
         <v>2.05</v>
       </c>
       <c r="R54" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S54" t="n">
         <v>3.5</v>
       </c>
       <c r="T54" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W54" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X54" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y54" t="n">
         <v>6</v>
       </c>
       <c r="Z54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA54" t="n">
         <v>8.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE54" t="n">
         <v>9.5</v>
@@ -8155,40 +8155,40 @@
         <v>21</v>
       </c>
       <c r="AH54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="n">
         <v>301</v>
       </c>
       <c r="AJ54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK54" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL54" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM54" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN54" t="n">
         <v>51</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>41</v>
       </c>
       <c r="AO54" t="n">
         <v>51</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR54" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="55">
@@ -8241,13 +8241,13 @@
         <v>2.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N55" t="n">
         <v>13</v>
       </c>
       <c r="O55" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -8259,10 +8259,10 @@
         <v>2.1</v>
       </c>
       <c r="S55" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T55" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U55" t="n">
         <v>1.33</v>
@@ -8382,28 +8382,28 @@
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
         <v>13</v>
       </c>
       <c r="O56" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
         <v>2.75</v>
       </c>
       <c r="T56" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U56" t="n">
         <v>1.33</v>
@@ -8517,10 +8517,10 @@
         <v>3.25</v>
       </c>
       <c r="K57" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L57" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M57" t="n">
         <v>1.05</v>
@@ -8577,10 +8577,10 @@
         <v>29</v>
       </c>
       <c r="AE57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG57" t="n">
         <v>13</v>
@@ -8589,10 +8589,10 @@
         <v>41</v>
       </c>
       <c r="AI57" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK57" t="n">
         <v>13</v>
@@ -8787,22 +8787,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I59" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="K59" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="L59" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
@@ -8811,34 +8811,34 @@
         <v>9</v>
       </c>
       <c r="O59" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P59" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R59" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="S59" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="T59" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U59" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V59" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="W59" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X59" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Y59" t="n">
         <v>10.5</v>
@@ -8847,10 +8847,10 @@
         <v>11.75</v>
       </c>
       <c r="AA59" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC59" t="n">
         <v>14</v>
@@ -8862,10 +8862,10 @@
         <v>9</v>
       </c>
       <c r="AF59" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG59" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH59" t="n">
         <v>40</v>
@@ -8874,7 +8874,7 @@
         <v>250</v>
       </c>
       <c r="AJ59" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK59" t="n">
         <v>19.5</v>
@@ -8928,22 +8928,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H60" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="I60" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J60" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="K60" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="L60" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="M60" t="n">
         <v>1.02</v>
@@ -8955,82 +8955,82 @@
         <v>1.12</v>
       </c>
       <c r="P60" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R60" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="S60" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T60" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U60" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="V60" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="W60" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X60" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Y60" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z60" t="n">
         <v>9.75</v>
       </c>
       <c r="AA60" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB60" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD60" t="n">
         <v>17.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF60" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH60" t="n">
         <v>45</v>
       </c>
       <c r="AI60" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ60" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK60" t="n">
         <v>40</v>
       </c>
       <c r="AL60" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM60" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN60" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO60" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9069,19 +9069,19 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H61" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I61" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="J61" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K61" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="L61" t="n">
         <v>1.78</v>
@@ -9089,22 +9089,22 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P61" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Q61" t="n">
         <v>1.31</v>
       </c>
       <c r="R61" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="S61" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T61" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="U61" t="n">
         <v>1.2</v>
@@ -9113,25 +9113,25 @@
         <v>4.1</v>
       </c>
       <c r="W61" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X61" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y61" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z61" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA61" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB61" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AC61" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD61" t="n">
         <v>37</v>
@@ -9143,13 +9143,13 @@
         <v>11.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH61" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI61" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AJ61" t="n">
         <v>13.5</v>
@@ -9158,7 +9158,7 @@
         <v>10.25</v>
       </c>
       <c r="AL61" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM61" t="n">
         <v>11.5</v>
@@ -9167,7 +9167,7 @@
         <v>10</v>
       </c>
       <c r="AO61" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
@@ -9224,10 +9224,10 @@
         <v>3.25</v>
       </c>
       <c r="M62" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N62" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O62" t="n">
         <v>1.29</v>
@@ -9347,7 +9347,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H63" t="n">
         <v>6.5</v>
@@ -9359,16 +9359,16 @@
         <v>1.62</v>
       </c>
       <c r="K63" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L63" t="n">
         <v>8</v>
       </c>
       <c r="M63" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="O63" t="n">
         <v>1.14</v>
@@ -9401,13 +9401,13 @@
         <v>1.73</v>
       </c>
       <c r="Y63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z63" t="n">
         <v>7</v>
       </c>
       <c r="AA63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB63" t="n">
         <v>8</v>
@@ -9425,16 +9425,16 @@
         <v>13</v>
       </c>
       <c r="AG63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH63" t="n">
         <v>67</v>
       </c>
       <c r="AI63" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK63" t="n">
         <v>41</v>
@@ -9488,13 +9488,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H64" t="n">
         <v>7</v>
       </c>
       <c r="I64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J64" t="n">
         <v>1.57</v>
@@ -9503,7 +9503,7 @@
         <v>2.88</v>
       </c>
       <c r="L64" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M64" t="n">
         <v>1.01</v>
@@ -9536,16 +9536,16 @@
         <v>4.33</v>
       </c>
       <c r="W64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X64" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z64" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA64" t="n">
         <v>10</v>
@@ -9572,7 +9572,7 @@
         <v>51</v>
       </c>
       <c r="AI64" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ64" t="n">
         <v>29</v>
@@ -9590,7 +9590,7 @@
         <v>51</v>
       </c>
       <c r="AO64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
@@ -9632,64 +9632,64 @@
         <v>4.2</v>
       </c>
       <c r="H65" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I65" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="J65" t="n">
         <v>4.65</v>
       </c>
       <c r="K65" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L65" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M65" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="O65" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="P65" t="n">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="R65" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="S65" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="T65" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="U65" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V65" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="W65" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="X65" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="Y65" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="Z65" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA65" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB65" t="n">
         <v>70</v>
@@ -9698,40 +9698,40 @@
         <v>40</v>
       </c>
       <c r="AD65" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AE65" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AF65" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AG65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AN65" t="n">
         <v>15.5</v>
       </c>
-      <c r="AH65" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>600</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>14</v>
-      </c>
       <c r="AO65" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AP65" t="inlineStr"/>
       <c r="AQ65" t="inlineStr"/>
@@ -9770,22 +9770,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H66" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J66" t="n">
         <v>4.33</v>
       </c>
-      <c r="I66" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4</v>
-      </c>
       <c r="K66" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L66" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
@@ -9794,82 +9794,82 @@
         <v>34</v>
       </c>
       <c r="O66" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="R66" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="S66" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U66" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="V66" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="W66" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X66" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y66" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD66" t="n">
         <v>23</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>21</v>
       </c>
       <c r="AE66" t="n">
         <v>34</v>
       </c>
       <c r="AF66" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH66" t="n">
         <v>26</v>
       </c>
       <c r="AI66" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK66" t="n">
         <v>15</v>
       </c>
       <c r="AL66" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM66" t="n">
         <v>17</v>
       </c>
       <c r="AN66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO66" t="n">
         <v>15</v>
@@ -9911,109 +9911,109 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I67" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="J67" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="K67" t="n">
         <v>2.18</v>
       </c>
       <c r="L67" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O67" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P67" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R67" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S67" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="T67" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="U67" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V67" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="W67" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="X67" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="Y67" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="Z67" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB67" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AC67" t="n">
         <v>14</v>
       </c>
       <c r="AD67" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AE67" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AF67" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AG67" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH67" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AI67" t="n">
         <v>900</v>
       </c>
       <c r="AJ67" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK67" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AL67" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AM67" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN67" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AO67" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AP67" t="inlineStr"/>
       <c r="AQ67" t="inlineStr"/>
@@ -10052,109 +10052,109 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="H68" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I68" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J68" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K68" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="L68" t="n">
         <v>3.25</v>
       </c>
       <c r="M68" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N68" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="O68" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="P68" t="n">
-        <v>2.67</v>
+        <v>2.42</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="R68" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S68" t="n">
-        <v>3.85</v>
+        <v>4.35</v>
       </c>
       <c r="T68" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="U68" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V68" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="W68" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="X68" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="Y68" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA68" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AB68" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AC68" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AD68" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AE68" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="AF68" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG68" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH68" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AI68" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="AK68" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AL68" t="n">
         <v>10.25</v>
       </c>
       <c r="AM68" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN68" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO68" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="inlineStr"/>
@@ -10421,7 +10421,7 @@
         <v>350</v>
       </c>
       <c r="AJ70" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK70" t="n">
         <v>16</v>
@@ -10436,7 +10436,7 @@
         <v>23</v>
       </c>
       <c r="AO70" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
@@ -11057,10 +11057,10 @@
         <v>4.75</v>
       </c>
       <c r="M75" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O75" t="n">
         <v>1.33</v>
@@ -11320,41 +11320,107 @@
           <t>Zamora</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L77" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N77" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.3</v>
+      </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr"/>
-      <c r="AK77" t="inlineStr"/>
-      <c r="AL77" t="inlineStr"/>
-      <c r="AM77" t="inlineStr"/>
-      <c r="AN77" t="inlineStr"/>
-      <c r="AO77" t="inlineStr"/>
+      <c r="U77" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V77" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W77" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="X77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>80</v>
+      </c>
       <c r="AP77" t="inlineStr"/>
       <c r="AQ77" t="inlineStr"/>
       <c r="AR77" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
         <v>5.25</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K3" t="n">
         <v>2.75</v>
@@ -851,16 +851,16 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="n">
         <v>1.36</v>
@@ -887,13 +887,13 @@
         <v>2.38</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
@@ -920,22 +920,22 @@
         <v>101</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
         <v>41</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -1145,10 +1145,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
         <v>3.75</v>
@@ -1286,10 +1286,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
         <v>3.75</v>
@@ -1412,7 +1412,7 @@
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1451,7 +1451,7 @@
         <v>1.67</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
         <v>11</v>
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -1713,10 +1713,10 @@
         <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
         <v>1.62</v>
@@ -1752,10 +1752,10 @@
         <v>5</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB9" t="n">
         <v>21</v>
@@ -1806,7 +1806,7 @@
         <v>1.78</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AS9" t="n">
         <v>1.17</v>
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
         <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
@@ -2056,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
         <v>29</v>
@@ -2080,7 +2080,7 @@
         <v>101</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>13</v>
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>2.63</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2166,16 +2166,16 @@
         <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
         <v>8</v>
@@ -2223,14 +2223,14 @@
         <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="n">
         <v>6</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL12" t="n">
         <v>13</v>
@@ -2239,7 +2239,7 @@
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
         <v>51</v>
@@ -2595,10 +2595,10 @@
         <v>2.38</v>
       </c>
       <c r="S15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="n">
         <v>1.29</v>
@@ -2666,10 +2666,10 @@
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="16">
@@ -2734,10 +2734,10 @@
         <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
         <v>2.75</v>
@@ -3005,7 +3005,7 @@
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3014,22 +3014,22 @@
         <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
         <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U18" t="n">
         <v>1.36</v>
@@ -3038,13 +3038,13 @@
         <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
         <v>12</v>
@@ -3056,10 +3056,10 @@
         <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>12</v>
@@ -3077,7 +3077,7 @@
         <v>151</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -3155,10 +3155,10 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
         <v>1.7</v>
@@ -3272,28 +3272,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -3302,16 +3302,16 @@
         <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U20" t="n">
         <v>1.5</v>
@@ -3320,22 +3320,22 @@
         <v>2.5</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA20" t="n">
         <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
         <v>17</v>
@@ -3347,10 +3347,10 @@
         <v>7.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>67</v>
@@ -3359,22 +3359,22 @@
         <v>351</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN20" t="n">
         <v>41</v>
       </c>
       <c r="AO20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP20" t="n">
         <v>1.85</v>
@@ -3417,28 +3417,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
         <v>1.53</v>
@@ -3459,16 +3459,16 @@
         <v>1.14</v>
       </c>
       <c r="U21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y21" t="n">
         <v>6.5</v>
@@ -3489,7 +3489,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
@@ -3498,19 +3498,19 @@
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="n">
         <v>1250</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL21" t="n">
         <v>12</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>11</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
@@ -3739,22 +3739,22 @@
         <v>19</v>
       </c>
       <c r="O23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R23" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
         <v>1.25</v>
@@ -3769,7 +3769,7 @@
         <v>1.53</v>
       </c>
       <c r="Y23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z23" t="n">
         <v>6</v>
@@ -3787,7 +3787,7 @@
         <v>34</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>15</v>
@@ -3811,7 +3811,7 @@
         <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN23" t="n">
         <v>126</v>
@@ -4001,43 +4001,43 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H25" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="I25" t="n">
         <v>2.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>1.8</v>
       </c>
       <c r="L25" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M25" t="n">
         <v>1.15</v>
       </c>
       <c r="N25" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="O25" t="n">
         <v>1.6</v>
       </c>
       <c r="P25" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="R25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T25" t="n">
         <v>1.14</v>
@@ -4046,7 +4046,7 @@
         <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="W25" t="n">
         <v>2.12</v>
@@ -4055,10 +4055,10 @@
         <v>1.65</v>
       </c>
       <c r="Y25" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
         <v>12</v>
@@ -4067,16 +4067,16 @@
         <v>50</v>
       </c>
       <c r="AC25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE25" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AF25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AG25" t="n">
         <v>17.5</v>
@@ -4088,22 +4088,22 @@
         <v>101</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AL25" t="n">
         <v>10.25</v>
       </c>
       <c r="AM25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO25" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="H26" t="n">
         <v>3.25</v>
@@ -4151,13 +4151,13 @@
         <v>1.65</v>
       </c>
       <c r="J26" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="K26" t="n">
         <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
@@ -4166,22 +4166,22 @@
         <v>6.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T26" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U26" t="n">
         <v>1.45</v>
@@ -4190,25 +4190,25 @@
         <v>2.57</v>
       </c>
       <c r="W26" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="X26" t="n">
         <v>1.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB26" t="n">
         <v>150</v>
       </c>
       <c r="AC26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="n">
         <v>75</v>
@@ -4220,10 +4220,10 @@
         <v>6.4</v>
       </c>
       <c r="AG26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI26" t="n">
         <v>900</v>
@@ -4232,7 +4232,7 @@
         <v>5.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AL26" t="n">
         <v>8</v>
@@ -4283,22 +4283,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H27" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I27" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="K27" t="n">
         <v>1.83</v>
       </c>
       <c r="L27" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M27" t="n">
         <v>1.15</v>
@@ -4331,37 +4331,37 @@
         <v>2.15</v>
       </c>
       <c r="W27" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="X27" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA27" t="n">
         <v>9.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE27" t="n">
         <v>4.75</v>
       </c>
       <c r="AF27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
         <v>175</v>
@@ -4373,10 +4373,10 @@
         <v>8.75</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
         <v>100</v>
@@ -4385,7 +4385,7 @@
         <v>70</v>
       </c>
       <c r="AO27" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H29" t="n">
         <v>3.6</v>
@@ -4574,7 +4574,7 @@
         <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K29" t="n">
         <v>2.2</v>
@@ -4595,10 +4595,10 @@
         <v>3.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R29" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S29" t="n">
         <v>3.4</v>
@@ -4628,7 +4628,7 @@
         <v>8.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC29" t="n">
         <v>15</v>
@@ -4715,7 +4715,7 @@
         <v>3.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
@@ -4727,7 +4727,7 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
@@ -4739,7 +4739,7 @@
         <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S30" t="n">
         <v>3.5</v>
@@ -4763,7 +4763,7 @@
         <v>7.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA30" t="n">
         <v>9.5</v>
@@ -4793,10 +4793,10 @@
         <v>251</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>12</v>
@@ -4880,13 +4880,13 @@
         <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U31" t="n">
         <v>1.44</v>
@@ -5129,13 +5129,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>2.3</v>
@@ -5144,13 +5144,13 @@
         <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.3</v>
@@ -5159,28 +5159,28 @@
         <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W33" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y33" t="n">
         <v>6</v>
@@ -5291,7 +5291,7 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
@@ -5300,10 +5300,10 @@
         <v>3.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S34" t="n">
         <v>3.5</v>
@@ -5312,10 +5312,10 @@
         <v>1.29</v>
       </c>
       <c r="U34" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V34" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W34" t="n">
         <v>1.8</v>
@@ -5330,7 +5330,7 @@
         <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB34" t="n">
         <v>23</v>
@@ -5342,7 +5342,7 @@
         <v>29</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF34" t="n">
         <v>6.5</v>
@@ -5360,7 +5360,7 @@
         <v>9</v>
       </c>
       <c r="AK34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL34" t="n">
         <v>11</v>
@@ -5441,10 +5441,10 @@
         <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S35" t="n">
         <v>2.75</v>
@@ -5975,13 +5975,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J39" t="n">
         <v>3</v>
@@ -5990,7 +5990,7 @@
         <v>2.25</v>
       </c>
       <c r="L39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -6041,7 +6041,7 @@
         <v>23</v>
       </c>
       <c r="AC39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="n">
         <v>23</v>
@@ -6059,7 +6059,7 @@
         <v>41</v>
       </c>
       <c r="AI39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ39" t="n">
         <v>11</v>
@@ -6253,105 +6253,105 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.57</v>
+        <v>2.32</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="K41" t="n">
         <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P41" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R41" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S41" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T41" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U41" t="n">
         <v>1.38</v>
       </c>
       <c r="V41" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="W41" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="X41" t="n">
         <v>1.78</v>
       </c>
-      <c r="X41" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Y41" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="Z41" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA41" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AC41" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AD41" t="n">
         <v>35</v>
       </c>
       <c r="AE41" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ41" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AK41" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AM41" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AN41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO41" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6845,16 +6845,16 @@
         <v>3.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X45" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
       </c>
       <c r="Z45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA45" t="n">
         <v>8.5</v>
@@ -6960,10 +6960,10 @@
         <v>3.25</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O46" t="n">
         <v>1.25</v>
@@ -6972,10 +6972,10 @@
         <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R46" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
         <v>3.25</v>
@@ -7086,33 +7086,33 @@
         <v>1.62</v>
       </c>
       <c r="H47" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I47" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="J47" t="n">
         <v>2.12</v>
       </c>
       <c r="K47" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L47" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P47" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q47" t="n">
         <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S47" t="n">
         <v>2.45</v>
@@ -7132,25 +7132,25 @@
         <v>8</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA47" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC47" t="n">
         <v>12</v>
       </c>
       <c r="AD47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE47" t="n">
         <v>13</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AG47" t="n">
         <v>14.5</v>
@@ -7159,25 +7159,25 @@
         <v>55</v>
       </c>
       <c r="AI47" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AJ47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK47" t="n">
         <v>30</v>
       </c>
       <c r="AL47" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM47" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO47" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -7234,10 +7234,10 @@
         <v>3.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -7252,10 +7252,10 @@
         <v>1.48</v>
       </c>
       <c r="S48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U48" t="n">
         <v>1.57</v>
@@ -7321,10 +7321,10 @@
         <v>41</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
@@ -7665,10 +7665,10 @@
         <v>4.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O51" t="n">
         <v>1.25</v>
@@ -7677,10 +7677,10 @@
         <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R51" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
         <v>3</v>
@@ -7788,13 +7788,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J52" t="n">
         <v>2.5</v>
@@ -7803,16 +7803,16 @@
         <v>2.5</v>
       </c>
       <c r="L52" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N52" t="n">
         <v>19</v>
       </c>
       <c r="O52" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P52" t="n">
         <v>5.5</v>
@@ -7827,7 +7827,7 @@
         <v>2.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U52" t="n">
         <v>1.25</v>
@@ -7845,7 +7845,7 @@
         <v>12</v>
       </c>
       <c r="Z52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA52" t="n">
         <v>9</v>
@@ -7854,7 +7854,7 @@
         <v>19</v>
       </c>
       <c r="AC52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD52" t="n">
         <v>19</v>
@@ -7878,7 +7878,7 @@
         <v>17</v>
       </c>
       <c r="AK52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL52" t="n">
         <v>13</v>
@@ -7890,7 +7890,7 @@
         <v>23</v>
       </c>
       <c r="AO52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr"/>
@@ -7947,28 +7947,28 @@
         <v>4.33</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N53" t="n">
         <v>19</v>
       </c>
       <c r="O53" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P53" t="n">
         <v>5.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R53" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S53" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T53" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U53" t="n">
         <v>1.25</v>
@@ -8074,46 +8074,46 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I54" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L54" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.3</v>
       </c>
       <c r="P54" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S54" t="n">
         <v>3.5</v>
       </c>
       <c r="T54" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U54" t="n">
         <v>1.4</v>
@@ -8131,13 +8131,13 @@
         <v>6</v>
       </c>
       <c r="Z54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC54" t="n">
         <v>13</v>
@@ -8149,10 +8149,10 @@
         <v>9.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH54" t="n">
         <v>81</v>
@@ -8161,7 +8161,7 @@
         <v>301</v>
       </c>
       <c r="AJ54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK54" t="n">
         <v>34</v>
@@ -8170,7 +8170,7 @@
         <v>21</v>
       </c>
       <c r="AM54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN54" t="n">
         <v>51</v>
@@ -8241,13 +8241,13 @@
         <v>2.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N55" t="n">
         <v>13</v>
       </c>
       <c r="O55" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -8259,10 +8259,10 @@
         <v>2.1</v>
       </c>
       <c r="S55" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T55" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U55" t="n">
         <v>1.33</v>
@@ -8364,61 +8364,61 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J56" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K56" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O56" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S56" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T56" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U56" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W56" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X56" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z56" t="n">
         <v>10</v>
@@ -8436,7 +8436,7 @@
         <v>23</v>
       </c>
       <c r="AE56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF56" t="n">
         <v>6.5</v>
@@ -8535,16 +8535,16 @@
         <v>3.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R57" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S57" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T57" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U57" t="n">
         <v>1.4</v>
@@ -8787,19 +8787,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H59" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I59" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J59" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="K59" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L59" t="n">
         <v>3.6</v>
@@ -8811,16 +8811,16 @@
         <v>9</v>
       </c>
       <c r="O59" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P59" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R59" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="S59" t="n">
         <v>2.35</v>
@@ -8832,7 +8832,7 @@
         <v>1.3</v>
       </c>
       <c r="V59" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W59" t="n">
         <v>1.53</v>
@@ -8841,28 +8841,28 @@
         <v>2.35</v>
       </c>
       <c r="Y59" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z59" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA59" t="n">
         <v>8.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC59" t="n">
         <v>14</v>
       </c>
       <c r="AD59" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE59" t="n">
         <v>9</v>
       </c>
       <c r="AF59" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AG59" t="n">
         <v>12</v>
@@ -8874,16 +8874,16 @@
         <v>250</v>
       </c>
       <c r="AJ59" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK59" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL59" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM59" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN59" t="n">
         <v>24</v>
@@ -9224,10 +9224,10 @@
         <v>3.25</v>
       </c>
       <c r="M62" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N62" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O62" t="n">
         <v>1.29</v>
@@ -9236,10 +9236,10 @@
         <v>3.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R62" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S62" t="n">
         <v>3.25</v>
@@ -9347,34 +9347,34 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H63" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J63" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K63" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L63" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M63" t="n">
         <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q63" t="n">
         <v>1.5</v>
@@ -9383,10 +9383,10 @@
         <v>2.5</v>
       </c>
       <c r="S63" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T63" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U63" t="n">
         <v>1.25</v>
@@ -9395,19 +9395,19 @@
         <v>3.75</v>
       </c>
       <c r="W63" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X63" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z63" t="n">
         <v>7</v>
       </c>
       <c r="AA63" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB63" t="n">
         <v>8</v>
@@ -9422,7 +9422,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG63" t="n">
         <v>23</v>
@@ -9431,10 +9431,10 @@
         <v>67</v>
       </c>
       <c r="AI63" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK63" t="n">
         <v>41</v>
@@ -9453,8 +9453,12 @@
       </c>
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
-      <c r="AS63" t="inlineStr"/>
+      <c r="AR63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10052,7 +10056,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H68" t="n">
         <v>2.95</v>
@@ -10061,13 +10065,13 @@
         <v>2.6</v>
       </c>
       <c r="J68" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K68" t="n">
         <v>1.98</v>
       </c>
       <c r="L68" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M68" t="n">
         <v>1.11</v>
@@ -10106,22 +10110,22 @@
         <v>1.7</v>
       </c>
       <c r="Y68" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="Z68" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB68" t="n">
         <v>35</v>
       </c>
       <c r="AC68" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD68" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE68" t="n">
         <v>5.6</v>
@@ -10133,16 +10137,16 @@
         <v>17</v>
       </c>
       <c r="AH68" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI68" t="n">
         <v>900</v>
       </c>
       <c r="AJ68" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AK68" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AL68" t="n">
         <v>10.25</v>
@@ -10151,10 +10155,10 @@
         <v>29</v>
       </c>
       <c r="AN68" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO68" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="inlineStr"/>
@@ -10223,10 +10227,10 @@
         <v>2.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R69" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S69" t="n">
         <v>4.33</v>
@@ -10349,7 +10353,7 @@
         <v>2.07</v>
       </c>
       <c r="L70" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="M70" t="n">
         <v>1.06</v>
@@ -10361,19 +10365,19 @@
         <v>1.27</v>
       </c>
       <c r="P70" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q70" t="n">
         <v>1.8</v>
       </c>
       <c r="R70" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S70" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="T70" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U70" t="n">
         <v>1.4</v>
@@ -10388,22 +10392,22 @@
         <v>2.15</v>
       </c>
       <c r="Y70" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA70" t="n">
         <v>9</v>
       </c>
       <c r="AB70" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD70" t="n">
         <v>26</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>25</v>
       </c>
       <c r="AE70" t="n">
         <v>7.5</v>
@@ -10421,22 +10425,22 @@
         <v>350</v>
       </c>
       <c r="AJ70" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK70" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL70" t="n">
         <v>10</v>
       </c>
       <c r="AM70" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
@@ -10478,55 +10482,55 @@
         <v>1.88</v>
       </c>
       <c r="H71" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I71" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J71" t="n">
         <v>2.4</v>
       </c>
       <c r="K71" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L71" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M71" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N71" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
         <v>1.19</v>
       </c>
       <c r="P71" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R71" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S71" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T71" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U71" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V71" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W71" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X71" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="Y71" t="n">
         <v>9.75</v>
@@ -10547,25 +10551,25 @@
         <v>19.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF71" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG71" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH71" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI71" t="n">
         <v>250</v>
       </c>
       <c r="AJ71" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK71" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL71" t="n">
         <v>12</v>
@@ -10574,10 +10578,10 @@
         <v>50</v>
       </c>
       <c r="AN71" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO71" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="inlineStr"/>
@@ -10616,13 +10620,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="H72" t="n">
         <v>3.45</v>
       </c>
       <c r="I72" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J72" t="n">
         <v>2.95</v>
@@ -10631,7 +10635,7 @@
         <v>2.22</v>
       </c>
       <c r="L72" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M72" t="n">
         <v>1.04</v>
@@ -10640,10 +10644,10 @@
         <v>8.5</v>
       </c>
       <c r="O72" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P72" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q72" t="n">
         <v>1.62</v>
@@ -10658,10 +10662,10 @@
         <v>1.47</v>
       </c>
       <c r="U72" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="V72" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="W72" t="n">
         <v>1.52</v>
@@ -10670,10 +10674,10 @@
         <v>2.37</v>
       </c>
       <c r="Y72" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z72" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA72" t="n">
         <v>9.25</v>
@@ -10682,7 +10686,7 @@
         <v>28</v>
       </c>
       <c r="AC72" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD72" t="n">
         <v>22</v>
@@ -10694,7 +10698,7 @@
         <v>6.9</v>
       </c>
       <c r="AG72" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH72" t="n">
         <v>40</v>
@@ -10916,10 +10920,10 @@
         <v>6</v>
       </c>
       <c r="M74" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O74" t="n">
         <v>1.2</v>
@@ -10928,7 +10932,7 @@
         <v>4.33</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R74" t="n">
         <v>2.15</v>
@@ -10961,7 +10965,7 @@
         <v>8.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC74" t="n">
         <v>12</v>
@@ -10976,7 +10980,7 @@
         <v>8.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH74" t="n">
         <v>51</v>
@@ -11057,10 +11061,10 @@
         <v>4.75</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O75" t="n">
         <v>1.33</v>
@@ -11069,10 +11073,10 @@
         <v>3.25</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R75" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="S75" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -701,7 +701,7 @@
         <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -734,10 +734,10 @@
         <v>1.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W2" t="n">
         <v>1.91</v>
@@ -752,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
@@ -764,7 +764,7 @@
         <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>6</v>
@@ -779,13 +779,13 @@
         <v>301</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
         <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -794,7 +794,7 @@
         <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
         <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
         <v>12</v>
@@ -1022,10 +1022,10 @@
         <v>5.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
@@ -1052,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
         <v>67</v>
@@ -1073,7 +1073,7 @@
         <v>251</v>
       </c>
       <c r="AN4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="n">
         <v>67</v>
@@ -1133,10 +1133,10 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1145,10 +1145,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
         <v>3.75</v>
@@ -1187,7 +1187,7 @@
         <v>41</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
         <v>6.5</v>
@@ -1271,7 +1271,7 @@
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1286,10 +1286,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
         <v>3.75</v>
@@ -1316,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB6" t="n">
         <v>9.5</v>
@@ -1328,13 +1328,13 @@
         <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>81</v>
@@ -1349,7 +1349,7 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
         <v>81</v>
@@ -1358,7 +1358,7 @@
         <v>51</v>
       </c>
       <c r="AO6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
         <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
@@ -2056,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
         <v>29</v>
@@ -2080,7 +2080,7 @@
         <v>101</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK11" t="n">
         <v>13</v>
@@ -2160,10 +2160,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>1.73</v>
@@ -2589,16 +2589,16 @@
         <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S15" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
         <v>1.29</v>
@@ -2666,10 +2666,10 @@
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2875,16 +2875,16 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -3131,28 +3131,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
         <v>2.75</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
         <v>1.22</v>
@@ -3188,7 +3188,7 @@
         <v>9.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
         <v>9</v>
@@ -3197,16 +3197,16 @@
         <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
         <v>23</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG19" t="n">
         <v>13</v>
@@ -3230,10 +3230,10 @@
         <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3293,7 +3293,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -3566,22 +3566,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H22" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
@@ -3614,10 +3614,10 @@
         <v>2.63</v>
       </c>
       <c r="W22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y22" t="n">
         <v>5</v>
@@ -3626,10 +3626,10 @@
         <v>5.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
@@ -3638,16 +3638,16 @@
         <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI22" t="n">
         <v>101</v>
@@ -3662,10 +3662,10 @@
         <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AO22" t="n">
         <v>81</v>
@@ -3715,13 +3715,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J23" t="n">
         <v>1.5</v>
@@ -3763,10 +3763,10 @@
         <v>3.75</v>
       </c>
       <c r="W23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
@@ -3802,7 +3802,7 @@
         <v>101</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK23" t="n">
         <v>81</v>
@@ -3811,10 +3811,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AO23" t="n">
         <v>101</v>
@@ -4142,43 +4142,43 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J26" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L26" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T26" t="n">
         <v>1.23</v>
@@ -4187,61 +4187,61 @@
         <v>1.45</v>
       </c>
       <c r="V26" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="W26" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="X26" t="n">
         <v>1.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
         <v>35</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AC26" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD26" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AE26" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI26" t="n">
         <v>900</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AK26" t="n">
         <v>7</v>
       </c>
       <c r="AL26" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO26" t="n">
         <v>32</v>
@@ -4283,19 +4283,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H27" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="J27" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="K27" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="L27" t="n">
         <v>5.3</v>
@@ -4304,7 +4304,7 @@
         <v>1.15</v>
       </c>
       <c r="N27" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="O27" t="n">
         <v>1.62</v>
@@ -4313,22 +4313,22 @@
         <v>2.15</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R27" t="n">
         <v>1.38</v>
       </c>
       <c r="S27" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="U27" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V27" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W27" t="n">
         <v>2.37</v>
@@ -4337,28 +4337,28 @@
         <v>1.52</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AA27" t="n">
         <v>9.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC27" t="n">
         <v>22</v>
       </c>
       <c r="AD27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
         <v>22</v>
@@ -4370,10 +4370,10 @@
         <v>101</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
         <v>17</v>
@@ -4382,7 +4382,7 @@
         <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO27" t="n">
         <v>90</v>
@@ -4595,10 +4595,10 @@
         <v>3.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S29" t="n">
         <v>3.4</v>
@@ -4715,7 +4715,7 @@
         <v>3.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
@@ -4739,7 +4739,7 @@
         <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
         <v>3.5</v>
@@ -4880,7 +4880,7 @@
         <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
         <v>3.75</v>
@@ -5147,28 +5147,28 @@
         <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.29</v>
       </c>
       <c r="U33" t="n">
         <v>1.44</v>
@@ -5270,10 +5270,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
         <v>2.8</v>
@@ -5291,7 +5291,7 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
@@ -5300,10 +5300,10 @@
         <v>3.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="n">
         <v>3.5</v>
@@ -5312,25 +5312,25 @@
         <v>1.29</v>
       </c>
       <c r="U34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V34" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W34" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X34" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z34" t="n">
         <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB34" t="n">
         <v>23</v>
@@ -5342,19 +5342,19 @@
         <v>29</v>
       </c>
       <c r="AE34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
         <v>51</v>
       </c>
       <c r="AI34" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ34" t="n">
         <v>9</v>
@@ -5576,22 +5576,22 @@
         <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S36" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U36" t="n">
         <v>1.3</v>
@@ -5702,7 +5702,7 @@
         <v>2.15</v>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
         <v>2.3</v>
@@ -5717,16 +5717,16 @@
         <v>13</v>
       </c>
       <c r="O37" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R37" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S37" t="n">
         <v>2.63</v>
@@ -5759,7 +5759,7 @@
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD37" t="n">
         <v>26</v>
@@ -5834,13 +5834,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J38" t="n">
         <v>2.5</v>
@@ -5864,10 +5864,10 @@
         <v>4.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R38" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S38" t="n">
         <v>2.63</v>
@@ -5888,7 +5888,7 @@
         <v>2.2</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z38" t="n">
         <v>10</v>
@@ -5912,7 +5912,7 @@
         <v>7</v>
       </c>
       <c r="AG38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
         <v>41</v>
@@ -5936,7 +5936,7 @@
         <v>29</v>
       </c>
       <c r="AO38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5999,10 +5999,10 @@
         <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
         <v>1.7</v>
@@ -6116,36 +6116,36 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H40" t="n">
         <v>3.05</v>
       </c>
       <c r="I40" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K40" t="n">
         <v>2.07</v>
       </c>
       <c r="L40" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P40" t="n">
         <v>2.82</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R40" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S40" t="n">
         <v>3.15</v>
@@ -6160,22 +6160,22 @@
         <v>2.6</v>
       </c>
       <c r="W40" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X40" t="n">
         <v>1.9</v>
       </c>
       <c r="Y40" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="Z40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
         <v>9.25</v>
       </c>
       <c r="AB40" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC40" t="n">
         <v>21</v>
@@ -6199,13 +6199,13 @@
         <v>500</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL40" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM40" t="n">
         <v>35</v>
@@ -6285,19 +6285,19 @@
         <v>1.62</v>
       </c>
       <c r="S41" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T41" t="n">
         <v>1.23</v>
       </c>
       <c r="U41" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V41" t="n">
         <v>2.57</v>
       </c>
       <c r="W41" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X41" t="n">
         <v>1.78</v>
@@ -6327,13 +6327,13 @@
         <v>6.3</v>
       </c>
       <c r="AG41" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH41" t="n">
         <v>80</v>
       </c>
       <c r="AI41" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ41" t="n">
         <v>8</v>
@@ -6393,19 +6393,19 @@
         <v>2.4</v>
       </c>
       <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.2</v>
       </c>
-      <c r="I42" t="n">
-        <v>3</v>
-      </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
@@ -6450,7 +6450,7 @@
         <v>11</v>
       </c>
       <c r="AA42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB42" t="n">
         <v>23</v>
@@ -6486,7 +6486,7 @@
         <v>11</v>
       </c>
       <c r="AM42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN42" t="n">
         <v>26</v>
@@ -6531,19 +6531,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="H43" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="J43" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="K43" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="L43" t="n">
         <v>3.5</v>
@@ -6551,78 +6551,78 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="R43" t="n">
-        <v>2.34</v>
+        <v>1.98</v>
       </c>
       <c r="S43" t="n">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="T43" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X43" t="n">
-        <v>2.41</v>
+        <v>2.24</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AB43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD43" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE43" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="AG43" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH43" t="n">
         <v>35</v>
       </c>
       <c r="AI43" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AJ43" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AK43" t="n">
         <v>15</v>
       </c>
       <c r="AL43" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AM43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO43" t="n">
         <v>21</v>
@@ -6664,22 +6664,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I44" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="J44" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="L44" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -6704,28 +6704,28 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="X44" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="Y44" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z44" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB44" t="n">
         <v>101</v>
       </c>
       <c r="AC44" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AD44" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE44" t="n">
         <v>20</v>
@@ -6734,31 +6734,31 @@
         <v>11</v>
       </c>
       <c r="AG44" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH44" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="n">
         <v>101</v>
       </c>
       <c r="AJ44" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AK44" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AL44" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AM44" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AN44" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO44" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -7083,19 +7083,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H47" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I47" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="J47" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="K47" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L47" t="n">
         <v>4.7</v>
@@ -7103,16 +7103,16 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q47" t="n">
         <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S47" t="n">
         <v>2.45</v>
@@ -7123,49 +7123,49 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X47" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Y47" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA47" t="n">
         <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC47" t="n">
         <v>12</v>
       </c>
       <c r="AD47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH47" t="n">
         <v>55</v>
       </c>
       <c r="AI47" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AJ47" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL47" t="n">
         <v>15</v>
@@ -7526,22 +7526,22 @@
         <v>15</v>
       </c>
       <c r="O50" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R50" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S50" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T50" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U50" t="n">
         <v>1.29</v>
@@ -7609,10 +7609,10 @@
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
       <c r="AR50" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="51">
@@ -7788,13 +7788,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H52" t="n">
         <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J52" t="n">
         <v>2.5</v>
@@ -7845,7 +7845,7 @@
         <v>12</v>
       </c>
       <c r="Z52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA52" t="n">
         <v>9</v>
@@ -7854,7 +7854,7 @@
         <v>19</v>
       </c>
       <c r="AC52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD52" t="n">
         <v>19</v>
@@ -7878,7 +7878,7 @@
         <v>17</v>
       </c>
       <c r="AK52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL52" t="n">
         <v>13</v>
@@ -7890,7 +7890,7 @@
         <v>23</v>
       </c>
       <c r="AO52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr"/>
@@ -7944,7 +7944,7 @@
         <v>2.5</v>
       </c>
       <c r="L53" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M53" t="n">
         <v>1.02</v>
@@ -7953,22 +7953,22 @@
         <v>19</v>
       </c>
       <c r="O53" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P53" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R53" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S53" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T53" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U53" t="n">
         <v>1.25</v>
@@ -7986,7 +7986,7 @@
         <v>11</v>
       </c>
       <c r="Z53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA53" t="n">
         <v>8.5</v>
@@ -8028,7 +8028,7 @@
         <v>51</v>
       </c>
       <c r="AN53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO53" t="n">
         <v>29</v>
@@ -8253,16 +8253,16 @@
         <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R55" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S55" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U55" t="n">
         <v>1.33</v>
@@ -8382,10 +8382,10 @@
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
         <v>1.22</v>
@@ -8394,16 +8394,16 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R56" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T56" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U56" t="n">
         <v>1.36</v>
@@ -8505,46 +8505,46 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
         <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J57" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K57" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L57" t="n">
         <v>3.2</v>
       </c>
       <c r="M57" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O57" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P57" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="R57" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="S57" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T57" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U57" t="n">
         <v>1.4</v>
@@ -8553,31 +8553,31 @@
         <v>2.75</v>
       </c>
       <c r="W57" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD57" t="n">
         <v>29</v>
       </c>
       <c r="AE57" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF57" t="n">
         <v>6</v>
@@ -8589,19 +8589,19 @@
         <v>41</v>
       </c>
       <c r="AI57" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ57" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL57" t="n">
         <v>10</v>
       </c>
       <c r="AM57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN57" t="n">
         <v>21</v>
@@ -8664,10 +8664,10 @@
         <v>4.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O58" t="n">
         <v>1.33</v>
@@ -9230,22 +9230,22 @@
         <v>8.5</v>
       </c>
       <c r="O62" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R62" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S62" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T62" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U62" t="n">
         <v>1.4</v>
@@ -9371,10 +9371,10 @@
         <v>11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P63" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="n">
         <v>1.5</v>
@@ -9492,13 +9492,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>7</v>
       </c>
       <c r="I64" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J64" t="n">
         <v>1.57</v>
@@ -9507,7 +9507,7 @@
         <v>2.88</v>
       </c>
       <c r="L64" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M64" t="n">
         <v>1.01</v>
@@ -9546,10 +9546,10 @@
         <v>1.91</v>
       </c>
       <c r="Y64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA64" t="n">
         <v>10</v>
@@ -9576,7 +9576,7 @@
         <v>51</v>
       </c>
       <c r="AI64" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ64" t="n">
         <v>29</v>
@@ -9594,7 +9594,7 @@
         <v>51</v>
       </c>
       <c r="AO64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
@@ -9633,109 +9633,109 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H65" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="J65" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="K65" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="W65" t="n">
         <v>2.1</v>
       </c>
-      <c r="L65" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N65" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P65" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R65" t="n">
+      <c r="X65" t="n">
         <v>1.65</v>
       </c>
-      <c r="S65" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V65" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X65" t="n">
-        <v>1.75</v>
-      </c>
       <c r="Y65" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z65" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA65" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AB65" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD65" t="n">
         <v>70</v>
       </c>
-      <c r="AC65" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>55</v>
-      </c>
       <c r="AE65" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AF65" t="n">
         <v>6.6</v>
       </c>
       <c r="AG65" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AI65" t="n">
         <v>800</v>
       </c>
       <c r="AJ65" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="AK65" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AL65" t="n">
         <v>8.5</v>
       </c>
       <c r="AM65" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AN65" t="n">
         <v>15.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP65" t="inlineStr"/>
       <c r="AQ65" t="inlineStr"/>
@@ -9774,22 +9774,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H66" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I66" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="J66" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
         <v>2.88</v>
       </c>
       <c r="L66" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
@@ -9804,22 +9804,22 @@
         <v>10</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R66" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="S66" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T66" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U66" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="V66" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="W66" t="n">
         <v>1.3</v>
@@ -9828,34 +9828,34 @@
         <v>3.4</v>
       </c>
       <c r="Y66" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z66" t="n">
         <v>34</v>
       </c>
       <c r="AA66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC66" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE66" t="n">
         <v>34</v>
       </c>
       <c r="AF66" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI66" t="n">
         <v>51</v>
@@ -9870,10 +9870,10 @@
         <v>10</v>
       </c>
       <c r="AM66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO66" t="n">
         <v>15</v>
@@ -9918,106 +9918,106 @@
         <v>1.5</v>
       </c>
       <c r="H67" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I67" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="J67" t="n">
         <v>2.02</v>
       </c>
       <c r="K67" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L67" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M67" t="n">
         <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="O67" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P67" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R67" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S67" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="T67" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U67" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V67" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="W67" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="X67" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Y67" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z67" t="n">
         <v>5.9</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC67" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD67" t="n">
         <v>40</v>
       </c>
       <c r="AE67" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AF67" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AG67" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH67" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI67" t="n">
         <v>900</v>
       </c>
       <c r="AJ67" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK67" t="n">
         <v>40</v>
       </c>
       <c r="AL67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM67" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AN67" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO67" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP67" t="inlineStr"/>
       <c r="AQ67" t="inlineStr"/>
@@ -10056,7 +10056,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H68" t="n">
         <v>2.95</v>
@@ -10077,7 +10077,7 @@
         <v>1.11</v>
       </c>
       <c r="N68" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O68" t="n">
         <v>1.5</v>
@@ -10092,10 +10092,10 @@
         <v>1.5</v>
       </c>
       <c r="S68" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="T68" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U68" t="n">
         <v>1.5</v>
@@ -10104,37 +10104,37 @@
         <v>2.42</v>
       </c>
       <c r="W68" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="X68" t="n">
         <v>1.7</v>
       </c>
       <c r="Y68" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Z68" t="n">
         <v>12.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB68" t="n">
         <v>35</v>
       </c>
       <c r="AC68" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD68" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE68" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AF68" t="n">
         <v>5.8</v>
       </c>
       <c r="AG68" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH68" t="n">
         <v>110</v>
@@ -10143,7 +10143,7 @@
         <v>900</v>
       </c>
       <c r="AJ68" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AK68" t="n">
         <v>11.5</v>
@@ -10155,10 +10155,10 @@
         <v>29</v>
       </c>
       <c r="AN68" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO68" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="inlineStr"/>
@@ -10338,16 +10338,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
         <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K70" t="n">
         <v>2.07</v>
@@ -10359,7 +10359,7 @@
         <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O70" t="n">
         <v>1.27</v>
@@ -10374,7 +10374,7 @@
         <v>1.9</v>
       </c>
       <c r="S70" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="T70" t="n">
         <v>1.36</v>
@@ -10389,31 +10389,31 @@
         <v>1.62</v>
       </c>
       <c r="X70" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="Y70" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z70" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AA70" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB70" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AC70" t="n">
         <v>19</v>
       </c>
       <c r="AD70" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE70" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AF70" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AG70" t="n">
         <v>12</v>
@@ -10425,22 +10425,22 @@
         <v>350</v>
       </c>
       <c r="AJ70" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK70" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL70" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM70" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AN70" t="n">
         <v>22</v>
       </c>
       <c r="AO70" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
@@ -10932,7 +10932,7 @@
         <v>4.33</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R74" t="n">
         <v>2.15</v>
@@ -11073,10 +11073,10 @@
         <v>3.25</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R75" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S75" t="n">
         <v>3.75</v>
@@ -11184,19 +11184,19 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="H76" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I76" t="n">
         <v>1.27</v>
       </c>
       <c r="J76" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="K76" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="L76" t="n">
         <v>1.65</v>
@@ -11208,85 +11208,85 @@
         <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P76" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="R76" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="S76" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T76" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="U76" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="V76" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="W76" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="X76" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="Y76" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z76" t="n">
         <v>65</v>
       </c>
       <c r="AA76" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB76" t="n">
         <v>200</v>
       </c>
       <c r="AC76" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD76" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>450</v>
+      </c>
+      <c r="AJ76" t="n">
         <v>10.25</v>
       </c>
-      <c r="AF76" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>11</v>
-      </c>
       <c r="AK76" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AL76" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM76" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AN76" t="n">
         <v>10</v>
       </c>
       <c r="AO76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
@@ -11462,22 +11462,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I78" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J78" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="K78" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L78" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -11486,19 +11486,19 @@
         <v>9</v>
       </c>
       <c r="O78" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P78" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R78" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S78" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T78" t="n">
         <v>1.5</v>
@@ -11510,25 +11510,25 @@
         <v>3.2</v>
       </c>
       <c r="W78" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X78" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Y78" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z78" t="n">
         <v>9.25</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>9.75</v>
       </c>
       <c r="AA78" t="n">
         <v>8.25</v>
       </c>
       <c r="AB78" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC78" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD78" t="n">
         <v>21</v>
@@ -11537,10 +11537,10 @@
         <v>9</v>
       </c>
       <c r="AF78" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AG78" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH78" t="n">
         <v>50</v>
@@ -11549,22 +11549,22 @@
         <v>300</v>
       </c>
       <c r="AJ78" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK78" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL78" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM78" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN78" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO78" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -734,10 +734,10 @@
         <v>1.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
         <v>1.91</v>
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
@@ -1136,7 +1136,7 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1274,10 +1274,10 @@
         <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1415,22 +1415,22 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
         <v>5.5</v>
@@ -1502,13 +1502,13 @@
         <v>41</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AS7" t="n">
         <v>1.21</v>
@@ -1570,10 +1570,10 @@
         <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q8" t="n">
         <v>2.7</v>
@@ -1582,10 +1582,10 @@
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U8" t="n">
         <v>1.62</v>
@@ -1651,16 +1651,16 @@
         <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9">
@@ -1701,22 +1701,22 @@
         <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>1.83</v>
       </c>
       <c r="L9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.62</v>
@@ -1758,7 +1758,7 @@
         <v>10</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
         <v>23</v>
@@ -1773,7 +1773,7 @@
         <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
         <v>101</v>
@@ -1785,7 +1785,7 @@
         <v>7.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -1862,10 +1862,10 @@
         <v>3.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.57</v>
@@ -1993,28 +1993,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>1.8</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.67</v>
@@ -2023,10 +2023,10 @@
         <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
         <v>7</v>
@@ -2038,7 +2038,7 @@
         <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="W11" t="n">
         <v>2.38</v>
@@ -2047,19 +2047,19 @@
         <v>1.53</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD11" t="n">
         <v>51</v>
@@ -2080,25 +2080,25 @@
         <v>101</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.62</v>
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
         <v>2.63</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>1.73</v>
@@ -2160,10 +2160,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.73</v>
@@ -2196,16 +2196,16 @@
         <v>1.44</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
         <v>34</v>
@@ -2217,7 +2217,7 @@
         <v>4.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG12" t="n">
         <v>23</v>
@@ -2281,28 +2281,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>1.8</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.17</v>
       </c>
       <c r="N13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>1.67</v>
@@ -2329,25 +2329,25 @@
         <v>2.05</v>
       </c>
       <c r="W13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD13" t="n">
         <v>51</v>
@@ -2356,32 +2356,32 @@
         <v>4.75</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>101</v>
       </c>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
         <v>41</v>
       </c>
       <c r="AO13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2420,107 +2420,107 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.73</v>
       </c>
-      <c r="L14" t="n">
-        <v>4</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="Q14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.2</v>
       </c>
-      <c r="N14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="S14" t="n">
+        <v>11</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.8</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S14" t="n">
-        <v>9</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.98</v>
-      </c>
       <c r="W14" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="X14" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z14" t="n">
         <v>11</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE14" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK14" t="n">
         <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
         <v>41</v>
       </c>
       <c r="AO14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2559,46 +2559,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
         <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
         <v>1.29</v>
@@ -2613,7 +2613,7 @@
         <v>2.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
         <v>12</v>
@@ -2625,19 +2625,19 @@
         <v>19</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
         <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>7.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>34</v>
@@ -2666,10 +2666,10 @@
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="16">
@@ -2704,22 +2704,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2734,10 +2734,10 @@
         <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
         <v>2.75</v>
@@ -2746,10 +2746,10 @@
         <v>1.44</v>
       </c>
       <c r="U16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W16" t="n">
         <v>1.57</v>
@@ -2758,7 +2758,7 @@
         <v>2.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
         <v>17</v>
@@ -2767,19 +2767,19 @@
         <v>11</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD16" t="n">
         <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
@@ -2794,19 +2794,19 @@
         <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM16" t="n">
         <v>21</v>
       </c>
       <c r="AN16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2845,16 +2845,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.5</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
@@ -2875,10 +2875,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
         <v>3.25</v>
@@ -2887,10 +2887,10 @@
         <v>1.33</v>
       </c>
       <c r="U17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W17" t="n">
         <v>1.7</v>
@@ -2905,16 +2905,16 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC17" t="n">
         <v>17</v>
       </c>
-      <c r="AC17" t="n">
-        <v>15</v>
-      </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>11</v>
@@ -2932,7 +2932,7 @@
         <v>201</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -2944,7 +2944,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
         <v>34</v>
@@ -3011,7 +3011,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3140,13 +3140,13 @@
         <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3167,10 +3167,10 @@
         <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U19" t="n">
         <v>1.33</v>
@@ -3185,7 +3185,7 @@
         <v>2.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>11</v>
@@ -3194,7 +3194,7 @@
         <v>9</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
         <v>15</v>
@@ -3221,10 +3221,10 @@
         <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM19" t="n">
         <v>34</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
         <v>2.5</v>
@@ -3287,7 +3287,7 @@
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -3302,16 +3302,16 @@
         <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U20" t="n">
         <v>1.5</v>
@@ -3335,7 +3335,7 @@
         <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
         <v>17</v>
@@ -3350,7 +3350,7 @@
         <v>6.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
         <v>67</v>
@@ -3417,58 +3417,58 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y21" t="n">
         <v>6.5</v>
@@ -3489,7 +3489,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
@@ -3498,19 +3498,19 @@
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI21" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
         <v>7</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
@@ -3522,16 +3522,16 @@
         <v>41</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="22">
@@ -3566,22 +3566,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
@@ -3590,16 +3590,16 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
@@ -3608,10 +3608,10 @@
         <v>1.22</v>
       </c>
       <c r="U22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W22" t="n">
         <v>2.5</v>
@@ -3629,7 +3629,7 @@
         <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
@@ -3638,10 +3638,10 @@
         <v>41</v>
       </c>
       <c r="AE22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF22" t="n">
         <v>8</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>8.5</v>
       </c>
       <c r="AG22" t="n">
         <v>26</v>
@@ -3668,19 +3668,19 @@
         <v>67</v>
       </c>
       <c r="AO22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="AR22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="23">
@@ -3715,13 +3715,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="H23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J23" t="n">
         <v>1.5</v>
@@ -3739,22 +3739,22 @@
         <v>19</v>
       </c>
       <c r="O23" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R23" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
         <v>1.25</v>
@@ -3763,10 +3763,10 @@
         <v>3.75</v>
       </c>
       <c r="W23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
@@ -3802,7 +3802,7 @@
         <v>101</v>
       </c>
       <c r="AJ23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
         <v>81</v>
@@ -3811,10 +3811,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AO23" t="n">
         <v>101</v>
@@ -4001,64 +4001,64 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="I25" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="L25" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M25" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N25" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="O25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S25" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X25" t="n">
         <v>1.62</v>
       </c>
-      <c r="V25" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.65</v>
-      </c>
       <c r="Y25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA25" t="n">
         <v>12</v>
@@ -4073,13 +4073,13 @@
         <v>60</v>
       </c>
       <c r="AE25" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AF25" t="n">
         <v>5.3</v>
       </c>
       <c r="AG25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
         <v>120</v>
@@ -4088,22 +4088,22 @@
         <v>101</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AK25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM25" t="n">
         <v>30</v>
       </c>
       <c r="AN25" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4142,46 +4142,46 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J26" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="K26" t="n">
         <v>2.02</v>
       </c>
       <c r="L26" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
         <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R26" t="n">
         <v>1.6</v>
       </c>
       <c r="S26" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T26" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="U26" t="n">
         <v>1.45</v>
@@ -4196,19 +4196,19 @@
         <v>1.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="n">
         <v>120</v>
       </c>
       <c r="AC26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD26" t="n">
         <v>65</v>
@@ -4232,19 +4232,19 @@
         <v>5.4</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AL26" t="n">
         <v>8.25</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN26" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO26" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4283,22 +4283,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I27" t="n">
         <v>4.85</v>
       </c>
       <c r="J27" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="K27" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="L27" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M27" t="n">
         <v>1.15</v>
@@ -4313,7 +4313,7 @@
         <v>2.15</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R27" t="n">
         <v>1.38</v>
@@ -4325,16 +4325,16 @@
         <v>1.13</v>
       </c>
       <c r="U27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V27" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="W27" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="X27" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Y27" t="n">
         <v>4.6</v>
@@ -4346,13 +4346,13 @@
         <v>9.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE27" t="n">
         <v>4.8</v>
@@ -4361,7 +4361,7 @@
         <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>175</v>
@@ -4370,19 +4370,19 @@
         <v>101</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
         <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM27" t="n">
         <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO27" t="n">
         <v>90</v>
@@ -4424,109 +4424,109 @@
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L28" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X28" t="n">
         <v>1.55</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N28" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.62</v>
       </c>
       <c r="Y28" t="n">
         <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AA28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB28" t="n">
         <v>8.25</v>
       </c>
-      <c r="AB28" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AC28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD28" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE28" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.1</v>
+        <v>8.25</v>
       </c>
       <c r="AG28" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AH28" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI28" t="n">
         <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AL28" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AM28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN28" t="n">
         <v>150</v>
       </c>
-      <c r="AN28" t="n">
-        <v>80</v>
-      </c>
       <c r="AO28" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4565,16 +4565,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
         <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K29" t="n">
         <v>2.2</v>
@@ -4583,28 +4583,28 @@
         <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.3</v>
       </c>
       <c r="U29" t="n">
         <v>1.4</v>
@@ -4613,13 +4613,13 @@
         <v>2.75</v>
       </c>
       <c r="W29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X29" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z29" t="n">
         <v>8</v>
@@ -4628,16 +4628,16 @@
         <v>8.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>15</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF29" t="n">
         <v>7</v>
@@ -4709,10 +4709,10 @@
         <v>2.2</v>
       </c>
       <c r="H30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I30" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.2</v>
       </c>
       <c r="J30" t="n">
         <v>2.88</v>
@@ -4727,7 +4727,7 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
@@ -4763,7 +4763,7 @@
         <v>7.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
         <v>9.5</v>
@@ -4796,7 +4796,7 @@
         <v>9.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
         <v>12</v>
@@ -4865,22 +4865,22 @@
         <v>4.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S31" t="n">
         <v>3.75</v>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
@@ -5018,16 +5018,16 @@
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U32" t="n">
         <v>1.4</v>
@@ -5057,7 +5057,7 @@
         <v>29</v>
       </c>
       <c r="AD32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE32" t="n">
         <v>10</v>
@@ -5072,7 +5072,7 @@
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ32" t="n">
         <v>7.5</v>
@@ -5132,7 +5132,7 @@
         <v>1.7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I33" t="n">
         <v>5</v>
@@ -5147,34 +5147,34 @@
         <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.29</v>
       </c>
-      <c r="P33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W33" t="n">
         <v>1.91</v>
@@ -5270,13 +5270,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J34" t="n">
         <v>3.1</v>
@@ -5291,31 +5291,31 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.3</v>
       </c>
-      <c r="P34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.29</v>
-      </c>
       <c r="U34" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V34" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W34" t="n">
         <v>1.73</v>
@@ -5342,22 +5342,22 @@
         <v>29</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG34" t="n">
         <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI34" t="n">
         <v>201</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK34" t="n">
         <v>15</v>
@@ -5372,7 +5372,7 @@
         <v>23</v>
       </c>
       <c r="AO34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5411,19 +5411,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
         <v>2.4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L35" t="n">
         <v>4.33</v>
@@ -5441,10 +5441,10 @@
         <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R35" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
         <v>2.75</v>
@@ -5453,10 +5453,10 @@
         <v>1.4</v>
       </c>
       <c r="U35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V35" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W35" t="n">
         <v>1.67</v>
@@ -5477,13 +5477,13 @@
         <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD35" t="n">
         <v>23</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
         <v>7</v>
@@ -5561,13 +5561,13 @@
         <v>1.95</v>
       </c>
       <c r="J36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L36" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -5630,7 +5630,7 @@
         <v>7.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
         <v>41</v>
@@ -5639,7 +5639,7 @@
         <v>126</v>
       </c>
       <c r="AJ36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK36" t="n">
         <v>11</v>
@@ -5658,8 +5658,12 @@
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
+      <c r="AR36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5711,10 +5715,10 @@
         <v>2.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O37" t="n">
         <v>1.2</v>
@@ -6005,16 +6009,16 @@
         <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U39" t="n">
         <v>1.33</v>
@@ -6116,22 +6120,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>3.05</v>
       </c>
       <c r="I40" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="J40" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
         <v>2.07</v>
       </c>
       <c r="L40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -6142,10 +6146,10 @@
         <v>2.82</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S40" t="n">
         <v>3.15</v>
@@ -6154,28 +6158,28 @@
         <v>1.26</v>
       </c>
       <c r="U40" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V40" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="W40" t="n">
         <v>1.7</v>
       </c>
       <c r="X40" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Z40" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC40" t="n">
         <v>21</v>
@@ -6199,13 +6203,13 @@
         <v>500</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AK40" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL40" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM40" t="n">
         <v>35</v>
@@ -6253,16 +6257,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H41" t="n">
         <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J41" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="K41" t="n">
         <v>2.1</v>
@@ -6285,7 +6289,7 @@
         <v>1.62</v>
       </c>
       <c r="S41" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T41" t="n">
         <v>1.23</v>
@@ -6297,7 +6301,7 @@
         <v>2.57</v>
       </c>
       <c r="W41" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X41" t="n">
         <v>1.78</v>
@@ -6312,10 +6316,10 @@
         <v>9.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD41" t="n">
         <v>35</v>
@@ -6327,13 +6331,13 @@
         <v>6.3</v>
       </c>
       <c r="AG41" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH41" t="n">
         <v>80</v>
       </c>
       <c r="AI41" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ41" t="n">
         <v>8</v>
@@ -6342,7 +6346,7 @@
         <v>13.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM41" t="n">
         <v>32</v>
@@ -6351,7 +6355,7 @@
         <v>26</v>
       </c>
       <c r="AO41" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6390,13 +6394,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J42" t="n">
         <v>3.1</v>
@@ -6411,7 +6415,7 @@
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
@@ -6438,10 +6442,10 @@
         <v>2.63</v>
       </c>
       <c r="W42" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X42" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y42" t="n">
         <v>7.5</v>
@@ -6462,10 +6466,10 @@
         <v>34</v>
       </c>
       <c r="AE42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF42" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG42" t="n">
         <v>15</v>
@@ -6477,22 +6481,22 @@
         <v>301</v>
       </c>
       <c r="AJ42" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK42" t="n">
         <v>15</v>
       </c>
       <c r="AL42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM42" t="n">
         <v>34</v>
       </c>
       <c r="AN42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6574,7 +6578,7 @@
         <v>1.58</v>
       </c>
       <c r="X43" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="Y43" t="n">
         <v>7.5</v>
@@ -6664,53 +6668,53 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H44" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I44" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="J44" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L44" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P44" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="R44" t="n">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="S44" t="n">
-        <v>2.09</v>
+        <v>2.3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="X44" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="Y44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z44" t="n">
         <v>60</v>
@@ -6725,40 +6729,40 @@
         <v>90</v>
       </c>
       <c r="AD44" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG44" t="n">
         <v>20</v>
       </c>
-      <c r="AF44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>18</v>
-      </c>
       <c r="AH44" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AI44" t="n">
         <v>101</v>
       </c>
       <c r="AJ44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK44" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AL44" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AM44" t="n">
         <v>6.2</v>
       </c>
       <c r="AN44" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AO44" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -6797,10 +6801,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H45" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I45" t="n">
         <v>6</v>
@@ -6809,7 +6813,7 @@
         <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L45" t="n">
         <v>6</v>
@@ -6818,7 +6822,7 @@
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O45" t="n">
         <v>1.18</v>
@@ -6827,10 +6831,10 @@
         <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R45" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S45" t="n">
         <v>2.5</v>
@@ -6863,7 +6867,7 @@
         <v>11</v>
       </c>
       <c r="AC45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD45" t="n">
         <v>23</v>
@@ -6872,7 +6876,7 @@
         <v>15</v>
       </c>
       <c r="AF45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG45" t="n">
         <v>17</v>
@@ -6890,7 +6894,7 @@
         <v>34</v>
       </c>
       <c r="AL45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM45" t="n">
         <v>67</v>
@@ -6904,10 +6908,10 @@
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="46">
@@ -6960,10 +6964,10 @@
         <v>3.25</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
         <v>1.25</v>
@@ -6972,10 +6976,10 @@
         <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S46" t="n">
         <v>3.25</v>
@@ -7083,22 +7087,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I47" t="n">
-        <v>4.55</v>
+        <v>4.25</v>
       </c>
       <c r="J47" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K47" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L47" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -7106,27 +7110,27 @@
         <v>1.21</v>
       </c>
       <c r="P47" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R47" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="T47" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X47" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
@@ -7141,10 +7145,10 @@
         <v>13.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE47" t="n">
         <v>12.5</v>
@@ -7153,7 +7157,7 @@
         <v>7.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH47" t="n">
         <v>55</v>
@@ -7162,16 +7166,16 @@
         <v>400</v>
       </c>
       <c r="AJ47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK47" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL47" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM47" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN47" t="n">
         <v>40</v>
@@ -7216,28 +7220,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>2.88</v>
       </c>
       <c r="I48" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="J48" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
         <v>1.91</v>
       </c>
       <c r="L48" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -7264,25 +7268,25 @@
         <v>2.25</v>
       </c>
       <c r="W48" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X48" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z48" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB48" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC48" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD48" t="n">
         <v>41</v>
@@ -7297,25 +7301,25 @@
         <v>19</v>
       </c>
       <c r="AH48" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI48" t="n">
         <v>101</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM48" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO48" t="n">
         <v>41</v>
@@ -7391,16 +7395,16 @@
         <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R49" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S49" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U49" t="n">
         <v>1.44</v>
@@ -7526,10 +7530,10 @@
         <v>15</v>
       </c>
       <c r="O50" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P50" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
         <v>1.6</v>
@@ -8292,7 +8296,7 @@
         <v>23</v>
       </c>
       <c r="AD55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE55" t="n">
         <v>13</v>
@@ -8313,7 +8317,7 @@
         <v>9.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL55" t="n">
         <v>9</v>
@@ -8364,19 +8368,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H56" t="n">
         <v>3.25</v>
       </c>
       <c r="I56" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J56" t="n">
         <v>2.63</v>
       </c>
       <c r="K56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L56" t="n">
         <v>4</v>
@@ -8394,10 +8398,10 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S56" t="n">
         <v>2.75</v>
@@ -8418,16 +8422,16 @@
         <v>2.1</v>
       </c>
       <c r="Y56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA56" t="n">
         <v>9</v>
       </c>
       <c r="AB56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="n">
         <v>15</v>
@@ -8508,61 +8512,61 @@
         <v>2.8</v>
       </c>
       <c r="H57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L57" t="n">
         <v>3.25</v>
       </c>
-      <c r="I57" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.2</v>
-      </c>
       <c r="M57" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="R57" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="S57" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T57" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U57" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V57" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W57" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="X57" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA57" t="n">
         <v>11</v>
@@ -8574,25 +8578,25 @@
         <v>23</v>
       </c>
       <c r="AD57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE57" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF57" t="n">
         <v>6</v>
       </c>
       <c r="AG57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI57" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AJ57" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AK57" t="n">
         <v>12</v>
@@ -8601,13 +8605,13 @@
         <v>10</v>
       </c>
       <c r="AM57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN57" t="n">
         <v>21</v>
       </c>
       <c r="AO57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
@@ -8670,10 +8674,10 @@
         <v>10</v>
       </c>
       <c r="O58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P58" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q58" t="n">
         <v>2.05</v>
@@ -8787,22 +8791,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I59" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K59" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L59" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
@@ -8814,7 +8818,7 @@
         <v>1.18</v>
       </c>
       <c r="P59" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="Q59" t="n">
         <v>1.55</v>
@@ -8823,13 +8827,13 @@
         <v>2.3</v>
       </c>
       <c r="S59" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="T59" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U59" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V59" t="n">
         <v>3.25</v>
@@ -8838,34 +8842,34 @@
         <v>1.53</v>
       </c>
       <c r="X59" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Y59" t="n">
         <v>10.25</v>
       </c>
       <c r="Z59" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA59" t="n">
         <v>8.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC59" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE59" t="n">
         <v>9</v>
       </c>
       <c r="AF59" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AG59" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH59" t="n">
         <v>40</v>
@@ -8874,22 +8878,22 @@
         <v>250</v>
       </c>
       <c r="AJ59" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK59" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL59" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM59" t="n">
         <v>45</v>
       </c>
       <c r="AN59" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO59" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
@@ -9224,10 +9228,10 @@
         <v>3.25</v>
       </c>
       <c r="M62" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O62" t="n">
         <v>1.3</v>
@@ -9236,10 +9240,10 @@
         <v>3.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S62" t="n">
         <v>3.4</v>
@@ -9347,10 +9351,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I63" t="n">
         <v>7.5</v>
@@ -9383,10 +9387,10 @@
         <v>2.5</v>
       </c>
       <c r="S63" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T63" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U63" t="n">
         <v>1.25</v>
@@ -9395,10 +9399,10 @@
         <v>3.75</v>
       </c>
       <c r="W63" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X63" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y63" t="n">
         <v>8.5</v>
@@ -9422,16 +9426,16 @@
         <v>19</v>
       </c>
       <c r="AF63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH63" t="n">
         <v>67</v>
       </c>
       <c r="AI63" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ63" t="n">
         <v>21</v>
@@ -9440,10 +9444,10 @@
         <v>41</v>
       </c>
       <c r="AL63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM63" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN63" t="n">
         <v>51</v>
@@ -9454,10 +9458,10 @@
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
       <c r="AR63" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="64">
@@ -9633,109 +9637,109 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H65" t="n">
         <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J65" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K65" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L65" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="M65" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N65" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O65" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P65" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="Q65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W65" t="n">
         <v>2.2</v>
       </c>
-      <c r="R65" t="n">
+      <c r="X65" t="n">
         <v>1.6</v>
-      </c>
-      <c r="S65" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V65" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="W65" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X65" t="n">
-        <v>1.65</v>
       </c>
       <c r="Y65" t="n">
         <v>10.25</v>
       </c>
       <c r="Z65" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA65" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AC65" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD65" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE65" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AF65" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AG65" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH65" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI65" t="n">
         <v>800</v>
       </c>
       <c r="AJ65" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AK65" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AL65" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM65" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN65" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO65" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AP65" t="inlineStr"/>
       <c r="AQ65" t="inlineStr"/>
@@ -9915,82 +9919,82 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H67" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I67" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J67" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="K67" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L67" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N67" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="O67" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P67" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R67" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S67" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T67" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="U67" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V67" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="W67" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="X67" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Y67" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z67" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB67" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AC67" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD67" t="n">
         <v>40</v>
       </c>
       <c r="AE67" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AF67" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AG67" t="n">
         <v>24</v>
@@ -10002,22 +10006,22 @@
         <v>900</v>
       </c>
       <c r="AJ67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK67" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM67" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AN67" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO67" t="n">
         <v>100</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>110</v>
       </c>
       <c r="AP67" t="inlineStr"/>
       <c r="AQ67" t="inlineStr"/>
@@ -10056,7 +10060,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H68" t="n">
         <v>2.95</v>
@@ -10110,19 +10114,19 @@
         <v>1.7</v>
       </c>
       <c r="Y68" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z68" t="n">
         <v>12.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB68" t="n">
         <v>35</v>
       </c>
       <c r="AC68" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD68" t="n">
         <v>45</v>
@@ -10143,7 +10147,7 @@
         <v>900</v>
       </c>
       <c r="AJ68" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AK68" t="n">
         <v>11.5</v>
@@ -10341,19 +10345,19 @@
         <v>2.5</v>
       </c>
       <c r="H70" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I70" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J70" t="n">
         <v>3.05</v>
       </c>
       <c r="K70" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L70" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M70" t="n">
         <v>1.06</v>
@@ -10377,13 +10381,13 @@
         <v>2.87</v>
       </c>
       <c r="T70" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U70" t="n">
         <v>1.4</v>
       </c>
       <c r="V70" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="W70" t="n">
         <v>1.62</v>
@@ -10392,52 +10396,52 @@
         <v>2.18</v>
       </c>
       <c r="Y70" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA70" t="n">
         <v>9.25</v>
       </c>
       <c r="AB70" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC70" t="n">
         <v>19</v>
       </c>
       <c r="AD70" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE70" t="n">
         <v>7.4</v>
       </c>
       <c r="AF70" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AG70" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH70" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI70" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ70" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK70" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL70" t="n">
         <v>9.75</v>
       </c>
       <c r="AM70" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO70" t="n">
         <v>28</v>
@@ -10620,22 +10624,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="H72" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I72" t="n">
         <v>2.6</v>
       </c>
       <c r="J72" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K72" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L72" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M72" t="n">
         <v>1.04</v>
@@ -10644,7 +10648,7 @@
         <v>8.5</v>
       </c>
       <c r="O72" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -10662,31 +10666,31 @@
         <v>1.47</v>
       </c>
       <c r="U72" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="V72" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W72" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X72" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Y72" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA72" t="n">
         <v>9.25</v>
       </c>
       <c r="AB72" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC72" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD72" t="n">
         <v>22</v>
@@ -10695,10 +10699,10 @@
         <v>8.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AG72" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AH72" t="n">
         <v>40</v>
@@ -10719,7 +10723,7 @@
         <v>30</v>
       </c>
       <c r="AN72" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO72" t="n">
         <v>23</v>
@@ -10761,13 +10765,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H73" t="n">
         <v>5.4</v>
       </c>
       <c r="I73" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="J73" t="n">
         <v>1.7</v>
@@ -10818,7 +10822,7 @@
         <v>9.25</v>
       </c>
       <c r="Z73" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA73" t="n">
         <v>8.75</v>
@@ -10842,7 +10846,7 @@
         <v>19.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI73" t="n">
         <v>450</v>
@@ -10860,7 +10864,7 @@
         <v>250</v>
       </c>
       <c r="AN73" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO73" t="n">
         <v>70</v>
@@ -11043,40 +11047,40 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="J75" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K75" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L75" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M75" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O75" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P75" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R75" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S75" t="n">
         <v>3.75</v>
@@ -11085,10 +11089,10 @@
         <v>1.25</v>
       </c>
       <c r="U75" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V75" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W75" t="n">
         <v>1.91</v>
@@ -11100,22 +11104,22 @@
         <v>6.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE75" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>9</v>
       </c>
       <c r="AF75" t="n">
         <v>6.5</v>
@@ -11130,19 +11134,19 @@
         <v>351</v>
       </c>
       <c r="AJ75" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK75" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM75" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN75" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO75" t="n">
         <v>41</v>
@@ -11190,13 +11194,13 @@
         <v>5.7</v>
       </c>
       <c r="I76" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="J76" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="K76" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="L76" t="n">
         <v>1.65</v>
@@ -11208,19 +11212,19 @@
         <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P76" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R76" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="S76" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T76" t="n">
         <v>1.75</v>
@@ -11229,13 +11233,13 @@
         <v>1.24</v>
       </c>
       <c r="V76" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="W76" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X76" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y76" t="n">
         <v>30</v>
@@ -11253,7 +11257,7 @@
         <v>90</v>
       </c>
       <c r="AD76" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE76" t="n">
         <v>10</v>
@@ -11262,25 +11266,25 @@
         <v>12</v>
       </c>
       <c r="AG76" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH76" t="n">
         <v>75</v>
       </c>
       <c r="AI76" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ76" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK76" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AL76" t="n">
         <v>9</v>
       </c>
       <c r="AM76" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AN76" t="n">
         <v>10</v>
@@ -11325,105 +11329,109 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="I77" t="n">
         <v>3.55</v>
       </c>
       <c r="J77" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L77" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M77" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="N77" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="O77" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="P77" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="R77" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
+        <v>1.36</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.12</v>
+      </c>
       <c r="U77" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V77" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W77" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="X77" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="Y77" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Z77" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA77" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AB77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC77" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AD77" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE77" t="n">
-        <v>4.35</v>
+        <v>4.75</v>
       </c>
       <c r="AF77" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AG77" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH77" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AI77" t="n">
         <v>101</v>
       </c>
       <c r="AJ77" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AK77" t="n">
         <v>16.5</v>
       </c>
       <c r="AL77" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM77" t="n">
         <v>55</v>
       </c>
       <c r="AN77" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AO77" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AP77" t="inlineStr"/>
       <c r="AQ77" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -845,7 +845,7 @@
         <v>1.83</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -863,16 +863,16 @@
         <v>7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>1.2</v>
@@ -881,19 +881,19 @@
         <v>4.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
@@ -905,10 +905,10 @@
         <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
         <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>12</v>
@@ -995,7 +995,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O4" t="n">
         <v>1.06</v>
@@ -1034,7 +1034,7 @@
         <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
         <v>8</v>
@@ -1061,7 +1061,7 @@
         <v>251</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
         <v>81</v>
@@ -1073,7 +1073,7 @@
         <v>251</v>
       </c>
       <c r="AN4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AO4" t="n">
         <v>67</v>
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.88</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.75</v>
-      </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>1.8</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.14</v>
@@ -2041,10 +2041,10 @@
         <v>2.08</v>
       </c>
       <c r="W11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y11" t="n">
         <v>6</v>
@@ -2053,10 +2053,10 @@
         <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
         <v>34</v>
@@ -2071,7 +2071,7 @@
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
         <v>101</v>
@@ -2083,7 +2083,7 @@
         <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2092,7 +2092,7 @@
         <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
         <v>51</v>
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2160,89 +2160,89 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T12" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
         <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
         <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK12" t="n">
         <v>12</v>
       </c>
       <c r="AL12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2281,13 +2281,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
         <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2296,7 +2296,7 @@
         <v>1.8</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.17</v>
@@ -2338,13 +2338,13 @@
         <v>5.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
         <v>29</v>
@@ -2423,10 +2423,10 @@
         <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2438,10 +2438,10 @@
         <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>2</v>
@@ -2450,10 +2450,10 @@
         <v>1.73</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S14" t="n">
         <v>11</v>
@@ -2462,16 +2462,16 @@
         <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y14" t="n">
         <v>5</v>
@@ -2492,7 +2492,7 @@
         <v>67</v>
       </c>
       <c r="AE14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2520,7 +2520,7 @@
         <v>41</v>
       </c>
       <c r="AO14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2559,22 +2559,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K15" t="n">
         <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2601,28 +2601,28 @@
         <v>1.67</v>
       </c>
       <c r="U15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y15" t="n">
         <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
@@ -2640,7 +2640,7 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>101</v>
@@ -2649,27 +2649,27 @@
         <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>12</v>
       </c>
       <c r="AM15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO15" t="n">
         <v>23</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>26</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="16">
@@ -2704,82 +2704,82 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y16" t="n">
         <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
@@ -2791,7 +2791,7 @@
         <v>126</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
         <v>13</v>
@@ -2800,18 +2800,22 @@
         <v>9.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN16" t="n">
         <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
+      <c r="AR16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2845,10 +2849,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
         <v>3.5</v>
@@ -2857,49 +2861,49 @@
         <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X17" t="n">
         <v>1.95</v>
       </c>
-      <c r="S17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X17" t="n">
-        <v>2.05</v>
-      </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z17" t="n">
         <v>10</v>
@@ -2914,40 +2918,40 @@
         <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
         <v>13</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>12</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2990,79 +2994,79 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P18" t="n">
         <v>3.5</v>
       </c>
-      <c r="I18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>13</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X18" t="n">
         <v>2</v>
       </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X18" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Y18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="n">
         <v>9</v>
       </c>
-      <c r="Z18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
         <v>19</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
         <v>6.5</v>
@@ -3071,10 +3075,10 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ18" t="n">
         <v>10</v>
@@ -3086,13 +3090,13 @@
         <v>11</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3302,16 +3306,16 @@
         <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U20" t="n">
         <v>1.5</v>
@@ -3420,7 +3424,7 @@
         <v>2.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
         <v>2.8</v>
@@ -3429,10 +3433,10 @@
         <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>
@@ -3441,34 +3445,34 @@
         <v>6.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X21" t="n">
         <v>1.57</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.67</v>
       </c>
       <c r="Y21" t="n">
         <v>6.5</v>
@@ -3477,40 +3481,40 @@
         <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD21" t="n">
         <v>41</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK21" t="n">
         <v>12</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
@@ -3522,16 +3526,16 @@
         <v>41</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="22">
@@ -3715,7 +3719,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H23" t="n">
         <v>7</v>
@@ -3787,16 +3791,16 @@
         <v>34</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="n">
         <v>101</v>
@@ -3805,19 +3809,19 @@
         <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL23" t="n">
         <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AO23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3860,64 +3864,64 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J24" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L24" t="n">
         <v>1.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R24" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="S24" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="T24" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="V24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="n">
         <v>30</v>
@@ -3926,43 +3930,43 @@
         <v>300</v>
       </c>
       <c r="AC24" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD24" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE24" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG24" t="n">
         <v>23</v>
       </c>
       <c r="AH24" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI24" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AK24" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AL24" t="n">
         <v>9</v>
       </c>
       <c r="AM24" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AN24" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -4001,109 +4005,109 @@
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q25" t="n">
         <v>3.3</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="R25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.78</v>
       </c>
-      <c r="L25" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.65</v>
-      </c>
       <c r="V25" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="W25" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="X25" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="Z25" t="n">
         <v>15.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC25" t="n">
         <v>50</v>
       </c>
-      <c r="AC25" t="n">
-        <v>40</v>
-      </c>
       <c r="AD25" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="n">
-        <v>4.65</v>
+        <v>4</v>
       </c>
       <c r="AF25" t="n">
         <v>5.3</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AH25" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AI25" t="n">
         <v>101</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AK25" t="n">
         <v>11</v>
       </c>
       <c r="AL25" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AO25" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4142,106 +4146,106 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.4</v>
+        <v>4.35</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I26" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="J26" t="n">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T26" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="U26" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="V26" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="W26" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X26" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="Z26" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD26" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="n">
         <v>900</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AK26" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AN26" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO26" t="n">
         <v>35</v>
@@ -4283,37 +4287,37 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H27" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="I27" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="K27" t="n">
         <v>1.85</v>
       </c>
       <c r="L27" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O27" t="n">
         <v>1.62</v>
       </c>
       <c r="P27" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R27" t="n">
         <v>1.38</v>
@@ -4331,37 +4335,37 @@
         <v>2.15</v>
       </c>
       <c r="W27" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X27" t="n">
         <v>1.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AA27" t="n">
         <v>9.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
         <v>21</v>
       </c>
       <c r="AD27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AF27" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>175</v>
@@ -4370,22 +4374,22 @@
         <v>101</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO27" t="n">
         <v>100</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>70</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>90</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4424,109 +4428,109 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4.05</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="K28" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="L28" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="U28" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V28" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="W28" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="X28" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AA28" t="n">
         <v>8.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="AC28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD28" t="n">
         <v>37</v>
       </c>
       <c r="AE28" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="AG28" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH28" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI28" t="n">
         <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AM28" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AN28" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AO28" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4565,22 +4569,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K29" t="n">
         <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
@@ -4613,13 +4617,13 @@
         <v>2.75</v>
       </c>
       <c r="W29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X29" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z29" t="n">
         <v>8</v>
@@ -4628,7 +4632,7 @@
         <v>8.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC29" t="n">
         <v>15</v>
@@ -4706,22 +4710,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
@@ -4739,7 +4743,7 @@
         <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
         <v>3.5</v>
@@ -4760,10 +4764,10 @@
         <v>1.91</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA30" t="n">
         <v>9.5</v>
@@ -4793,13 +4797,13 @@
         <v>251</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM30" t="n">
         <v>34</v>
@@ -4988,22 +4992,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J32" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -5018,16 +5022,16 @@
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U32" t="n">
         <v>1.4</v>
@@ -5036,10 +5040,10 @@
         <v>2.75</v>
       </c>
       <c r="W32" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X32" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y32" t="n">
         <v>11</v>
@@ -5060,34 +5064,34 @@
         <v>34</v>
       </c>
       <c r="AE32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
         <v>6.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI32" t="n">
         <v>201</v>
       </c>
       <c r="AJ32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL32" t="n">
         <v>9</v>
       </c>
       <c r="AM32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN32" t="n">
         <v>17</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>15</v>
       </c>
       <c r="AO32" t="n">
         <v>26</v>
@@ -5132,7 +5136,7 @@
         <v>1.7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
         <v>5</v>
@@ -5147,34 +5151,34 @@
         <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.3</v>
       </c>
-      <c r="P33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.29</v>
-      </c>
       <c r="U33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W33" t="n">
         <v>1.91</v>
@@ -5270,7 +5274,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
@@ -5285,7 +5289,7 @@
         <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -5345,7 +5349,7 @@
         <v>10</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG34" t="n">
         <v>13</v>
@@ -5411,64 +5415,64 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W35" t="n">
         <v>1.8</v>
       </c>
-      <c r="R35" t="n">
-        <v>2</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V35" t="n">
-        <v>3</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.67</v>
-      </c>
       <c r="X35" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Z35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA35" t="n">
         <v>8.5</v>
@@ -5480,25 +5484,25 @@
         <v>15</v>
       </c>
       <c r="AD35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AJ35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK35" t="n">
         <v>21</v>
@@ -5510,10 +5514,10 @@
         <v>41</v>
       </c>
       <c r="AN35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -5552,10 +5556,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I36" t="n">
         <v>1.95</v>
@@ -5564,7 +5568,7 @@
         <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L36" t="n">
         <v>2.5</v>
@@ -5576,34 +5580,34 @@
         <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W36" t="n">
         <v>1.62</v>
       </c>
-      <c r="R36" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y36" t="n">
         <v>13</v>
@@ -5624,28 +5628,28 @@
         <v>29</v>
       </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
         <v>41</v>
       </c>
       <c r="AI36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK36" t="n">
         <v>10</v>
       </c>
-      <c r="AK36" t="n">
-        <v>11</v>
-      </c>
       <c r="AL36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM36" t="n">
         <v>17</v>
@@ -5654,7 +5658,7 @@
         <v>15</v>
       </c>
       <c r="AO36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5721,22 +5725,22 @@
         <v>15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P37" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R37" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U37" t="n">
         <v>1.33</v>
@@ -6009,10 +6013,10 @@
         <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R39" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S39" t="n">
         <v>2.75</v>
@@ -6158,10 +6162,10 @@
         <v>1.26</v>
       </c>
       <c r="U40" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V40" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="W40" t="n">
         <v>1.7</v>
@@ -6257,13 +6261,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H41" t="n">
         <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="J41" t="n">
         <v>2.92</v>
@@ -6272,7 +6276,7 @@
         <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -6289,7 +6293,7 @@
         <v>1.62</v>
       </c>
       <c r="S41" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T41" t="n">
         <v>1.23</v>
@@ -6301,13 +6305,13 @@
         <v>2.57</v>
       </c>
       <c r="W41" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X41" t="n">
         <v>1.78</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Z41" t="n">
         <v>10.75</v>
@@ -6331,7 +6335,7 @@
         <v>6.3</v>
       </c>
       <c r="AG41" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH41" t="n">
         <v>80</v>
@@ -6340,10 +6344,10 @@
         <v>700</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AK41" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL41" t="n">
         <v>10.5</v>
@@ -6352,7 +6356,7 @@
         <v>32</v>
       </c>
       <c r="AN41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO41" t="n">
         <v>37</v>
@@ -6394,28 +6398,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J42" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.1</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
@@ -6448,19 +6452,19 @@
         <v>1.95</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC42" t="n">
         <v>23</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>21</v>
       </c>
       <c r="AD42" t="n">
         <v>34</v>
@@ -6472,31 +6476,31 @@
         <v>5.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH42" t="n">
         <v>51</v>
       </c>
       <c r="AI42" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ42" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO42" t="n">
         <v>34</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>41</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6535,22 +6539,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="K43" t="n">
         <v>2.12</v>
       </c>
       <c r="L43" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -6581,43 +6585,43 @@
         <v>2.23</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="Z43" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA43" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB43" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC43" t="n">
         <v>13</v>
       </c>
       <c r="AD43" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF43" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG43" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH43" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI43" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AJ43" t="n">
         <v>9.75</v>
       </c>
       <c r="AK43" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL43" t="n">
         <v>9</v>
@@ -6626,10 +6630,10 @@
         <v>32</v>
       </c>
       <c r="AN43" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6668,22 +6672,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="J44" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="L44" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -6691,57 +6695,57 @@
         <v>1.15</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R44" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="S44" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T44" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="X44" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Y44" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z44" t="n">
         <v>60</v>
       </c>
       <c r="AA44" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB44" t="n">
         <v>101</v>
       </c>
       <c r="AC44" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AD44" t="n">
         <v>80</v>
       </c>
       <c r="AE44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI44" t="n">
         <v>101</v>
@@ -6750,19 +6754,19 @@
         <v>7</v>
       </c>
       <c r="AK44" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AL44" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AM44" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AN44" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO44" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -6908,10 +6912,10 @@
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="46">
@@ -7090,19 +7094,19 @@
         <v>1.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I47" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="J47" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="K47" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L47" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -7119,30 +7123,30 @@
         <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="T47" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X47" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA47" t="n">
         <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC47" t="n">
         <v>12.5</v>
@@ -7154,10 +7158,10 @@
         <v>12.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AG47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH47" t="n">
         <v>55</v>
@@ -7220,16 +7224,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H48" t="n">
         <v>2.88</v>
       </c>
       <c r="I48" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J48" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
         <v>1.91</v>
@@ -7238,10 +7242,10 @@
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -7274,10 +7278,10 @@
         <v>1.67</v>
       </c>
       <c r="Y48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA48" t="n">
         <v>11</v>
@@ -7307,7 +7311,7 @@
         <v>101</v>
       </c>
       <c r="AJ48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK48" t="n">
         <v>13</v>
@@ -7933,13 +7937,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J53" t="n">
         <v>2.2</v>
@@ -7948,7 +7952,7 @@
         <v>2.5</v>
       </c>
       <c r="L53" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M53" t="n">
         <v>1.02</v>
@@ -7990,7 +7994,7 @@
         <v>11</v>
       </c>
       <c r="Z53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA53" t="n">
         <v>8.5</v>
@@ -8008,7 +8012,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG53" t="n">
         <v>12</v>
@@ -8023,16 +8027,16 @@
         <v>19</v>
       </c>
       <c r="AK53" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL53" t="n">
         <v>15</v>
       </c>
       <c r="AM53" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO53" t="n">
         <v>29</v>
@@ -8227,46 +8231,46 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>3.6</v>
       </c>
       <c r="I55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N55" t="n">
+        <v>15</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R55" t="n">
         <v>2.15</v>
       </c>
-      <c r="J55" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N55" t="n">
-        <v>13</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2.08</v>
-      </c>
       <c r="S55" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T55" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U55" t="n">
         <v>1.33</v>
@@ -8275,55 +8279,55 @@
         <v>3.25</v>
       </c>
       <c r="W55" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD55" t="n">
         <v>23</v>
       </c>
-      <c r="AD55" t="n">
-        <v>29</v>
-      </c>
       <c r="AE55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF55" t="n">
         <v>7</v>
       </c>
       <c r="AG55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH55" t="n">
         <v>41</v>
       </c>
       <c r="AI55" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL55" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK55" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>9</v>
-      </c>
       <c r="AM55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN55" t="n">
         <v>17</v>
@@ -8509,40 +8513,40 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J57" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M57" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R57" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S57" t="n">
         <v>4</v>
@@ -8551,19 +8555,19 @@
         <v>1.22</v>
       </c>
       <c r="U57" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V57" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W57" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X57" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z57" t="n">
         <v>13</v>
@@ -8575,13 +8579,13 @@
         <v>29</v>
       </c>
       <c r="AC57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE57" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF57" t="n">
         <v>6</v>
@@ -8593,7 +8597,7 @@
         <v>51</v>
       </c>
       <c r="AI57" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ57" t="n">
         <v>7.5</v>
@@ -8608,7 +8612,7 @@
         <v>26</v>
       </c>
       <c r="AN57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO57" t="n">
         <v>34</v>
@@ -9210,22 +9214,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J62" t="n">
         <v>3.25</v>
       </c>
-      <c r="I62" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L62" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K62" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.25</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -9240,49 +9244,49 @@
         <v>3.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R62" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W62" t="n">
         <v>1.8</v>
       </c>
-      <c r="S62" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U62" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V62" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W62" t="n">
-        <v>1.73</v>
-      </c>
       <c r="X62" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y62" t="n">
         <v>9</v>
       </c>
       <c r="Z62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB62" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC62" t="n">
         <v>21</v>
       </c>
       <c r="AD62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF62" t="n">
         <v>6.5</v>
@@ -9291,22 +9295,22 @@
         <v>15</v>
       </c>
       <c r="AH62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI62" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK62" t="n">
         <v>13</v>
       </c>
       <c r="AL62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN62" t="n">
         <v>21</v>
@@ -9369,10 +9373,10 @@
         <v>7.5</v>
       </c>
       <c r="M63" t="n">
-        <v>1.02</v>
+        <v>19</v>
       </c>
       <c r="N63" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="O63" t="n">
         <v>1.14</v>
@@ -9429,13 +9433,13 @@
         <v>13</v>
       </c>
       <c r="AG63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH63" t="n">
         <v>67</v>
       </c>
       <c r="AI63" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ63" t="n">
         <v>21</v>
@@ -9580,7 +9584,7 @@
         <v>51</v>
       </c>
       <c r="AI64" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ64" t="n">
         <v>29</v>
@@ -9778,22 +9782,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H66" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J66" t="n">
         <v>4.33</v>
       </c>
-      <c r="I66" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4</v>
-      </c>
       <c r="K66" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
@@ -9802,28 +9806,28 @@
         <v>34</v>
       </c>
       <c r="O66" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="S66" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T66" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="U66" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="V66" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="W66" t="n">
         <v>1.3</v>
@@ -9832,34 +9836,34 @@
         <v>3.4</v>
       </c>
       <c r="Y66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB66" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE66" t="n">
         <v>34</v>
       </c>
       <c r="AF66" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH66" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI66" t="n">
         <v>51</v>
@@ -9874,10 +9878,10 @@
         <v>10</v>
       </c>
       <c r="AM66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO66" t="n">
         <v>15</v>
@@ -9919,46 +9923,46 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="H67" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I67" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K67" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L67" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M67" t="n">
         <v>1.09</v>
       </c>
       <c r="N67" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O67" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P67" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="R67" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S67" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T67" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U67" t="n">
         <v>1.47</v>
@@ -9967,22 +9971,22 @@
         <v>2.5</v>
       </c>
       <c r="W67" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="X67" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Y67" t="n">
         <v>5</v>
       </c>
       <c r="Z67" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AA67" t="n">
         <v>8.75</v>
       </c>
       <c r="AB67" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC67" t="n">
         <v>15</v>
@@ -9991,10 +9995,10 @@
         <v>40</v>
       </c>
       <c r="AE67" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AF67" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AG67" t="n">
         <v>24</v>
@@ -10006,13 +10010,13 @@
         <v>900</v>
       </c>
       <c r="AJ67" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AK67" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM67" t="n">
         <v>150</v>
@@ -10021,7 +10025,7 @@
         <v>90</v>
       </c>
       <c r="AO67" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP67" t="inlineStr"/>
       <c r="AQ67" t="inlineStr"/>
@@ -10060,28 +10064,28 @@
         </is>
       </c>
       <c r="G68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I68" t="n">
         <v>2.8</v>
       </c>
-      <c r="H68" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2.6</v>
-      </c>
       <c r="J68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L68" t="n">
         <v>3.45</v>
       </c>
-      <c r="K68" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.2</v>
-      </c>
       <c r="M68" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N68" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O68" t="n">
         <v>1.5</v>
@@ -10108,58 +10112,58 @@
         <v>2.42</v>
       </c>
       <c r="W68" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="X68" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Y68" t="n">
         <v>6.7</v>
       </c>
       <c r="Z68" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA68" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AB68" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC68" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AD68" t="n">
         <v>45</v>
       </c>
       <c r="AE68" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AF68" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AG68" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI68" t="n">
         <v>900</v>
       </c>
       <c r="AJ68" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AK68" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL68" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM68" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN68" t="n">
         <v>29</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>26</v>
       </c>
       <c r="AO68" t="n">
         <v>45</v>
@@ -10201,16 +10205,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>3.1</v>
       </c>
       <c r="I69" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J69" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
@@ -10243,10 +10247,10 @@
         <v>1.2</v>
       </c>
       <c r="U69" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V69" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W69" t="n">
         <v>2</v>
@@ -10258,10 +10262,10 @@
         <v>6.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA69" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB69" t="n">
         <v>21</v>
@@ -10294,10 +10298,10 @@
         <v>15</v>
       </c>
       <c r="AL69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN69" t="n">
         <v>29</v>
@@ -10342,19 +10346,19 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H70" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="J70" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L70" t="n">
         <v>3.4</v>
@@ -10363,19 +10367,19 @@
         <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O70" t="n">
         <v>1.27</v>
       </c>
       <c r="P70" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q70" t="n">
         <v>1.8</v>
       </c>
       <c r="R70" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S70" t="n">
         <v>2.87</v>
@@ -10387,7 +10391,7 @@
         <v>1.4</v>
       </c>
       <c r="V70" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W70" t="n">
         <v>1.62</v>
@@ -10405,22 +10409,22 @@
         <v>9.25</v>
       </c>
       <c r="AB70" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC70" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD70" t="n">
         <v>24</v>
       </c>
       <c r="AE70" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AG70" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH70" t="n">
         <v>45</v>
@@ -10435,10 +10439,10 @@
         <v>14.5</v>
       </c>
       <c r="AL70" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM70" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN70" t="n">
         <v>23</v>
@@ -10768,67 +10772,67 @@
         <v>1.27</v>
       </c>
       <c r="H73" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I73" t="n">
         <v>9.25</v>
       </c>
       <c r="J73" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K73" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="L73" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M73" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N73" t="n">
         <v>9.75</v>
       </c>
       <c r="O73" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P73" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R73" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="S73" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T73" t="n">
         <v>1.7</v>
       </c>
       <c r="U73" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="V73" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="W73" t="n">
         <v>1.8</v>
       </c>
       <c r="X73" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Y73" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z73" t="n">
         <v>7.4</v>
       </c>
       <c r="AA73" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB73" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AC73" t="n">
         <v>10</v>
@@ -10840,22 +10844,22 @@
         <v>9.75</v>
       </c>
       <c r="AF73" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG73" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH73" t="n">
         <v>75</v>
       </c>
       <c r="AI73" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ73" t="n">
         <v>30</v>
       </c>
       <c r="AK73" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL73" t="n">
         <v>28</v>
@@ -10936,10 +10940,10 @@
         <v>4.33</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R74" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S74" t="n">
         <v>2.63</v>
@@ -11083,10 +11087,10 @@
         <v>1.67</v>
       </c>
       <c r="S75" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T75" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U75" t="n">
         <v>1.5</v>
@@ -11188,19 +11192,19 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="H76" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I76" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="J76" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K76" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="L76" t="n">
         <v>1.65</v>
@@ -11212,85 +11216,85 @@
         <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P76" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R76" t="n">
-        <v>2.72</v>
+        <v>2.87</v>
       </c>
       <c r="S76" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T76" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="U76" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="V76" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="W76" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="X76" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="Y76" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z76" t="n">
         <v>65</v>
       </c>
       <c r="AA76" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB76" t="n">
         <v>200</v>
       </c>
       <c r="AC76" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD76" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE76" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF76" t="n">
         <v>12</v>
       </c>
       <c r="AG76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH76" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AI76" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AJ76" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AK76" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AL76" t="n">
         <v>9</v>
       </c>
       <c r="AM76" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AN76" t="n">
         <v>10</v>
       </c>
       <c r="AO76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
@@ -11470,43 +11474,43 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I78" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L78" t="n">
         <v>3.9</v>
       </c>
-      <c r="J78" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K78" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.25</v>
-      </c>
       <c r="M78" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O78" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P78" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R78" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="S78" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T78" t="n">
         <v>1.5</v>
@@ -11518,37 +11522,37 @@
         <v>3.2</v>
       </c>
       <c r="W78" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X78" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Y78" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z78" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AA78" t="n">
         <v>8.25</v>
       </c>
       <c r="AB78" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD78" t="n">
         <v>21</v>
       </c>
       <c r="AE78" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF78" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AG78" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH78" t="n">
         <v>50</v>
@@ -11557,22 +11561,22 @@
         <v>300</v>
       </c>
       <c r="AJ78" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK78" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL78" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM78" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN78" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO78" t="n">
         <v>32</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>35</v>
       </c>
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -752,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
@@ -779,7 +779,7 @@
         <v>301</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
         <v>15</v>
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K3" t="n">
         <v>2.88</v>
@@ -857,16 +857,16 @@
         <v>23</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.8</v>
@@ -875,10 +875,10 @@
         <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="V3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W3" t="n">
         <v>1.5</v>
@@ -887,13 +887,13 @@
         <v>2.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
@@ -914,7 +914,7 @@
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
         <v>101</v>
@@ -995,7 +995,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O4" t="n">
         <v>1.06</v>
@@ -1010,10 +1010,10 @@
         <v>4.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="U4" t="n">
         <v>1.14</v>
@@ -1022,10 +1022,10 @@
         <v>5.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
@@ -1034,7 +1034,7 @@
         <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
         <v>8</v>
@@ -1061,7 +1061,7 @@
         <v>251</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK4" t="n">
         <v>81</v>
@@ -1145,16 +1145,16 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U5" t="n">
         <v>1.44</v>
@@ -1199,7 +1199,7 @@
         <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ5" t="n">
         <v>7</v>
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1304,22 +1304,22 @@
         <v>2.63</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA6" t="n">
         <v>8.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
@@ -1331,13 +1331,13 @@
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI6" t="n">
         <v>501</v>
@@ -1415,22 +1415,22 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>5.5</v>
@@ -1502,13 +1502,13 @@
         <v>41</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AS7" t="n">
         <v>1.21</v>
@@ -1719,10 +1719,10 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" t="n">
         <v>3.1</v>
@@ -1806,10 +1806,10 @@
         <v>1.78</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="10">
@@ -2160,10 +2160,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="O12" t="n">
         <v>1.83</v>
@@ -2178,16 +2178,16 @@
         <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="W12" t="n">
         <v>2.75</v>
@@ -2444,10 +2444,10 @@
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
         <v>4.2</v>
@@ -2456,16 +2456,16 @@
         <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W14" t="n">
         <v>3</v>
@@ -2559,46 +2559,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
         <v>3.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
         <v>1.25</v>
@@ -2607,16 +2607,16 @@
         <v>3.75</v>
       </c>
       <c r="W15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
         <v>9.5</v>
@@ -2628,28 +2628,28 @@
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>12</v>
@@ -2704,16 +2704,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
@@ -2849,13 +2849,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -2867,10 +2867,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -2906,7 +2906,7 @@
         <v>7.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA17" t="n">
         <v>9</v>
@@ -2924,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="AF17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG17" t="n">
         <v>15</v>
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
@@ -3024,10 +3024,10 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
         <v>3.4</v>
@@ -3072,7 +3072,7 @@
         <v>6.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>51</v>
@@ -3081,7 +3081,7 @@
         <v>201</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -3279,10 +3279,10 @@
         <v>1.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>2.5</v>
@@ -3294,28 +3294,28 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U20" t="n">
         <v>1.5</v>
@@ -3324,10 +3324,10 @@
         <v>2.5</v>
       </c>
       <c r="W20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
@@ -3339,7 +3339,7 @@
         <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
         <v>17</v>
@@ -3348,7 +3348,7 @@
         <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
         <v>6.5</v>
@@ -3439,10 +3439,10 @@
         <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
         <v>1.57</v>
@@ -3451,10 +3451,10 @@
         <v>2.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
         <v>6</v>
@@ -3532,10 +3532,10 @@
         <v>1.78</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="22">
@@ -3573,10 +3573,10 @@
         <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J22" t="n">
         <v>2.05</v>
@@ -3588,10 +3588,10 @@
         <v>8</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -3630,7 +3630,7 @@
         <v>5.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB22" t="n">
         <v>9</v>
@@ -3663,7 +3663,7 @@
         <v>41</v>
       </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
         <v>101</v>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H23" t="n">
         <v>7</v>
@@ -3737,16 +3737,16 @@
         <v>13</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="n">
         <v>1.48</v>
@@ -3755,10 +3755,10 @@
         <v>2.6</v>
       </c>
       <c r="S23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
         <v>1.25</v>
@@ -3791,16 +3791,16 @@
         <v>34</v>
       </c>
       <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
         <v>15</v>
       </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
       <c r="AG23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI23" t="n">
         <v>101</v>
@@ -3809,19 +3809,19 @@
         <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="n">
         <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AO23" t="n">
         <v>101</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>81</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3864,22 +3864,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="J24" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -3888,34 +3888,34 @@
         <v>9.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="S24" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="V24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="X24" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Y24" t="n">
         <v>21</v>
@@ -3939,7 +3939,7 @@
         <v>9.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG24" t="n">
         <v>23</v>
@@ -3951,22 +3951,22 @@
         <v>900</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AL24" t="n">
         <v>9</v>
       </c>
       <c r="AM24" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AN24" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AO24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -4005,13 +4005,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="I25" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="J25" t="n">
         <v>4.3</v>
@@ -4047,10 +4047,10 @@
         <v>1.09</v>
       </c>
       <c r="U25" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
         <v>2.42</v>
@@ -4059,13 +4059,13 @@
         <v>1.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z25" t="n">
         <v>15.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB25" t="n">
         <v>55</v>
@@ -4095,13 +4095,13 @@
         <v>5.3</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AL25" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN25" t="n">
         <v>35</v>
@@ -4146,28 +4146,28 @@
         </is>
       </c>
       <c r="G26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J26" t="n">
         <v>4.35</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.75</v>
       </c>
       <c r="K26" t="n">
         <v>1.95</v>
       </c>
       <c r="L26" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
@@ -4188,64 +4188,64 @@
         <v>1.21</v>
       </c>
       <c r="U26" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V26" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="X26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH26" t="n">
         <v>80</v>
       </c>
-      <c r="AC26" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>90</v>
-      </c>
       <c r="AI26" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AK26" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AL26" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM26" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO26" t="n">
         <v>35</v>
@@ -4434,16 +4434,16 @@
         <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="J28" t="n">
         <v>2.02</v>
       </c>
       <c r="K28" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L28" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
@@ -4452,10 +4452,10 @@
         <v>6.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P28" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="Q28" t="n">
         <v>2.1</v>
@@ -4464,10 +4464,10 @@
         <v>1.65</v>
       </c>
       <c r="S28" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T28" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="U28" t="n">
         <v>1.44</v>
@@ -4476,7 +4476,7 @@
         <v>2.6</v>
       </c>
       <c r="W28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X28" t="n">
         <v>1.6</v>
@@ -4485,7 +4485,7 @@
         <v>5.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA28" t="n">
         <v>8.5</v>
@@ -4509,25 +4509,25 @@
         <v>22</v>
       </c>
       <c r="AH28" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI28" t="n">
         <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM28" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AN28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO28" t="n">
         <v>90</v>
@@ -4587,28 +4587,28 @@
         <v>4.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.29</v>
       </c>
       <c r="U29" t="n">
         <v>1.4</v>
@@ -4734,10 +4734,10 @@
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q30" t="n">
         <v>2.05</v>
@@ -4746,10 +4746,10 @@
         <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -5133,58 +5133,58 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K33" t="n">
         <v>2.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.2</v>
       </c>
       <c r="L33" t="n">
         <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U33" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="V33" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X33" t="n">
         <v>1.91</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.8</v>
       </c>
       <c r="Y33" t="n">
         <v>6</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
@@ -5289,7 +5289,7 @@
         <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -5349,7 +5349,7 @@
         <v>10</v>
       </c>
       <c r="AF34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG34" t="n">
         <v>13</v>
@@ -5415,16 +5415,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
@@ -5445,16 +5445,16 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U35" t="n">
         <v>1.4</v>
@@ -5469,7 +5469,7 @@
         <v>1.91</v>
       </c>
       <c r="Y35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z35" t="n">
         <v>9</v>
@@ -5490,7 +5490,7 @@
         <v>10</v>
       </c>
       <c r="AF35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG35" t="n">
         <v>15</v>
@@ -5502,7 +5502,7 @@
         <v>251</v>
       </c>
       <c r="AJ35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK35" t="n">
         <v>21</v>
@@ -5731,10 +5731,10 @@
         <v>4.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S37" t="n">
         <v>2.5</v>
@@ -5807,8 +5807,12 @@
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
+      <c r="AR37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6013,10 +6017,10 @@
         <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R39" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S39" t="n">
         <v>2.75</v>
@@ -6124,22 +6128,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L40" t="n">
         <v>3.05</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.3</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -6147,19 +6151,19 @@
         <v>1.32</v>
       </c>
       <c r="P40" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R40" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S40" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T40" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U40" t="n">
         <v>1.44</v>
@@ -6171,22 +6175,22 @@
         <v>1.7</v>
       </c>
       <c r="X40" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Y40" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="Z40" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB40" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AC40" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AD40" t="n">
         <v>30</v>
@@ -6195,34 +6199,34 @@
         <v>8.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG40" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI40" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AK40" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL40" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AM40" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AN40" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO40" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6261,42 +6265,42 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
         <v>2.77</v>
       </c>
       <c r="J41" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="K41" t="n">
         <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R41" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T41" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="U41" t="n">
         <v>1.39</v>
@@ -6305,61 +6309,61 @@
         <v>2.57</v>
       </c>
       <c r="W41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X41" t="n">
         <v>1.83</v>
       </c>
-      <c r="X41" t="n">
-        <v>1.78</v>
-      </c>
       <c r="Y41" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z41" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA41" t="n">
         <v>9.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC41" t="n">
         <v>21</v>
       </c>
       <c r="AD41" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE41" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>600</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF41" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AK41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL41" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM41" t="n">
         <v>32</v>
       </c>
       <c r="AN41" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO41" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6539,13 +6543,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J43" t="n">
         <v>2.65</v>
@@ -6559,10 +6563,10 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q43" t="n">
         <v>1.65</v>
@@ -6571,30 +6575,30 @@
         <v>1.98</v>
       </c>
       <c r="S43" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="T43" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X43" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Z43" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA43" t="n">
         <v>7.3</v>
       </c>
       <c r="AB43" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC43" t="n">
         <v>13</v>
@@ -6603,10 +6607,10 @@
         <v>17.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AG43" t="n">
         <v>9.75</v>
@@ -6618,22 +6622,22 @@
         <v>175</v>
       </c>
       <c r="AJ43" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK43" t="n">
         <v>15.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM43" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN43" t="n">
         <v>20</v>
       </c>
       <c r="AO43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6672,98 +6676,98 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>9.199999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="H44" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I44" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="J44" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="K44" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="L44" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P44" t="n">
         <v>4.9</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R44" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="S44" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="T44" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="X44" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="Y44" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z44" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA44" t="n">
         <v>25</v>
       </c>
       <c r="AB44" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AC44" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AD44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH44" t="n">
         <v>80</v>
       </c>
-      <c r="AE44" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>101</v>
-      </c>
       <c r="AI44" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AJ44" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AK44" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AM44" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="AN44" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO44" t="n">
         <v>23</v>
@@ -6805,16 +6809,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H45" t="n">
         <v>4.75</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K45" t="n">
         <v>2.5</v>
@@ -6835,10 +6839,10 @@
         <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R45" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S45" t="n">
         <v>2.5</v>
@@ -6847,43 +6851,43 @@
         <v>1.5</v>
       </c>
       <c r="U45" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W45" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X45" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA45" t="n">
         <v>8.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC45" t="n">
         <v>11</v>
       </c>
       <c r="AD45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH45" t="n">
         <v>51</v>
@@ -6898,7 +6902,7 @@
         <v>34</v>
       </c>
       <c r="AL45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM45" t="n">
         <v>67</v>
@@ -7224,22 +7228,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="H48" t="n">
         <v>2.88</v>
       </c>
       <c r="I48" t="n">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K48" t="n">
         <v>1.91</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M48" t="n">
         <v>1.1</v>
@@ -7278,19 +7282,19 @@
         <v>1.67</v>
       </c>
       <c r="Y48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z48" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB48" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC48" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD48" t="n">
         <v>41</v>
@@ -7311,19 +7315,19 @@
         <v>101</v>
       </c>
       <c r="AJ48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM48" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO48" t="n">
         <v>41</v>
@@ -7399,16 +7403,16 @@
         <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R49" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U49" t="n">
         <v>1.44</v>
@@ -7796,13 +7800,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I52" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.6</v>
       </c>
       <c r="J52" t="n">
         <v>2.5</v>
@@ -7811,7 +7815,7 @@
         <v>2.5</v>
       </c>
       <c r="L52" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M52" t="n">
         <v>1.02</v>
@@ -7871,7 +7875,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG52" t="n">
         <v>11</v>
@@ -7961,22 +7965,22 @@
         <v>19</v>
       </c>
       <c r="O53" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P53" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R53" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S53" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T53" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U53" t="n">
         <v>1.25</v>
@@ -8082,61 +8086,61 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K54" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L54" t="n">
         <v>7.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="R54" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="S54" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U54" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="V54" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W54" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="X54" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Y54" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z54" t="n">
         <v>6</v>
@@ -8145,19 +8149,19 @@
         <v>9</v>
       </c>
       <c r="AB54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE54" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AF54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG54" t="n">
         <v>23</v>
@@ -8169,7 +8173,7 @@
         <v>301</v>
       </c>
       <c r="AJ54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK54" t="n">
         <v>34</v>
@@ -8184,19 +8188,19 @@
         <v>51</v>
       </c>
       <c r="AO54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AR54" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="55">
@@ -8231,16 +8235,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H55" t="n">
         <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J55" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K55" t="n">
         <v>2.3</v>
@@ -8261,10 +8265,10 @@
         <v>4.33</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R55" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S55" t="n">
         <v>2.63</v>
@@ -8294,10 +8298,10 @@
         <v>10</v>
       </c>
       <c r="AB55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD55" t="n">
         <v>23</v>
@@ -8330,7 +8334,7 @@
         <v>23</v>
       </c>
       <c r="AN55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO55" t="n">
         <v>23</v>
@@ -8372,13 +8376,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>3.25</v>
       </c>
       <c r="I56" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J56" t="n">
         <v>2.63</v>
@@ -8387,7 +8391,7 @@
         <v>2.25</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -8402,10 +8406,10 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
         <v>2.75</v>
@@ -8414,19 +8418,19 @@
         <v>1.4</v>
       </c>
       <c r="U56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W56" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X56" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z56" t="n">
         <v>11</v>
@@ -8444,7 +8448,7 @@
         <v>23</v>
       </c>
       <c r="AE56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF56" t="n">
         <v>6.5</v>
@@ -8462,7 +8466,7 @@
         <v>13</v>
       </c>
       <c r="AK56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL56" t="n">
         <v>13</v>
@@ -8471,10 +8475,10 @@
         <v>41</v>
       </c>
       <c r="AN56" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO56" t="n">
         <v>29</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>34</v>
       </c>
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
@@ -8513,46 +8517,46 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
         <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J57" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L57" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R57" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T57" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U57" t="n">
         <v>1.5</v>
@@ -8561,13 +8565,13 @@
         <v>2.5</v>
       </c>
       <c r="W57" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X57" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z57" t="n">
         <v>13</v>
@@ -8579,13 +8583,13 @@
         <v>29</v>
       </c>
       <c r="AC57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF57" t="n">
         <v>6</v>
@@ -8597,7 +8601,7 @@
         <v>51</v>
       </c>
       <c r="AI57" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ57" t="n">
         <v>7.5</v>
@@ -8654,13 +8658,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H58" t="n">
         <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J58" t="n">
         <v>2.6</v>
@@ -8672,10 +8676,10 @@
         <v>4.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
         <v>1.3</v>
@@ -8717,10 +8721,10 @@
         <v>9</v>
       </c>
       <c r="AB58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD58" t="n">
         <v>29</v>
@@ -8741,7 +8745,7 @@
         <v>301</v>
       </c>
       <c r="AJ58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK58" t="n">
         <v>21</v>
@@ -8936,22 +8940,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="H60" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="I60" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J60" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="K60" t="n">
         <v>2.67</v>
       </c>
       <c r="L60" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="M60" t="n">
         <v>1.02</v>
@@ -8963,58 +8967,58 @@
         <v>1.12</v>
       </c>
       <c r="P60" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R60" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="S60" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T60" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U60" t="n">
         <v>1.22</v>
       </c>
       <c r="V60" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="W60" t="n">
         <v>1.53</v>
       </c>
       <c r="X60" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Y60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB60" t="n">
         <v>11.75</v>
       </c>
-      <c r="Z60" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC60" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF60" t="n">
         <v>10.25</v>
       </c>
-      <c r="AD60" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG60" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH60" t="n">
         <v>45</v>
@@ -9023,16 +9027,16 @@
         <v>250</v>
       </c>
       <c r="AJ60" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK60" t="n">
         <v>40</v>
       </c>
       <c r="AL60" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM60" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN60" t="n">
         <v>45</v>
@@ -9373,10 +9377,10 @@
         <v>7.5</v>
       </c>
       <c r="M63" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="O63" t="n">
         <v>1.14</v>
@@ -9433,7 +9437,7 @@
         <v>13</v>
       </c>
       <c r="AG63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH63" t="n">
         <v>67</v>
@@ -9500,46 +9504,46 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>26</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P64" t="n">
         <v>7</v>
       </c>
-      <c r="I64" t="n">
-        <v>9</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L64" t="n">
-        <v>8</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N64" t="n">
-        <v>15</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P64" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Q64" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R64" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="S64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T64" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="U64" t="n">
         <v>1.2</v>
@@ -9548,22 +9552,22 @@
         <v>4.33</v>
       </c>
       <c r="W64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X64" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z64" t="n">
         <v>8</v>
       </c>
       <c r="AA64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC64" t="n">
         <v>11</v>
@@ -9575,16 +9579,16 @@
         <v>26</v>
       </c>
       <c r="AF64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH64" t="n">
         <v>51</v>
       </c>
       <c r="AI64" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ64" t="n">
         <v>29</v>
@@ -9593,10 +9597,10 @@
         <v>51</v>
       </c>
       <c r="AL64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM64" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN64" t="n">
         <v>51</v>
@@ -9782,22 +9786,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H66" t="n">
         <v>4.75</v>
       </c>
       <c r="I66" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="J66" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K66" t="n">
         <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
@@ -9806,40 +9810,40 @@
         <v>34</v>
       </c>
       <c r="O66" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P66" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q66" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V66" t="n">
+        <v>6</v>
+      </c>
+      <c r="W66" t="n">
         <v>1.22</v>
       </c>
-      <c r="R66" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T66" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U66" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V66" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W66" t="n">
-        <v>1.3</v>
-      </c>
       <c r="X66" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Y66" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA66" t="n">
         <v>17</v>
@@ -9848,43 +9852,43 @@
         <v>51</v>
       </c>
       <c r="AC66" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD66" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE66" t="n">
         <v>34</v>
       </c>
       <c r="AF66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH66" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI66" t="n">
         <v>51</v>
       </c>
       <c r="AJ66" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK66" t="n">
         <v>19</v>
       </c>
-      <c r="AK66" t="n">
-        <v>15</v>
-      </c>
       <c r="AL66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM66" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AN66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP66" t="inlineStr"/>
       <c r="AQ66" t="inlineStr"/>
@@ -9923,19 +9927,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H67" t="n">
         <v>3.55</v>
       </c>
       <c r="I67" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J67" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K67" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L67" t="n">
         <v>6.3</v>
@@ -9944,76 +9948,76 @@
         <v>1.09</v>
       </c>
       <c r="N67" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O67" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P67" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="R67" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S67" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="T67" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U67" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V67" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="W67" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="X67" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Y67" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Z67" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB67" t="n">
         <v>10.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD67" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE67" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AF67" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AG67" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH67" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI67" t="n">
         <v>900</v>
       </c>
       <c r="AJ67" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AK67" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL67" t="n">
         <v>21</v>
@@ -10025,7 +10029,7 @@
         <v>90</v>
       </c>
       <c r="AO67" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AP67" t="inlineStr"/>
       <c r="AQ67" t="inlineStr"/>
@@ -10064,28 +10068,28 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I68" t="n">
         <v>2.87</v>
       </c>
-      <c r="I68" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J68" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K68" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L68" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M68" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N68" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O68" t="n">
         <v>1.5</v>
@@ -10100,46 +10104,46 @@
         <v>1.5</v>
       </c>
       <c r="S68" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="T68" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U68" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V68" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="W68" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X68" t="n">
         <v>1.72</v>
       </c>
       <c r="Y68" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z68" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA68" t="n">
         <v>10.25</v>
       </c>
       <c r="AB68" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC68" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD68" t="n">
         <v>45</v>
       </c>
       <c r="AE68" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AF68" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AG68" t="n">
         <v>16.5</v>
@@ -10151,10 +10155,10 @@
         <v>900</v>
       </c>
       <c r="AJ68" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AK68" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL68" t="n">
         <v>10.75</v>
@@ -10349,13 +10353,13 @@
         <v>2.47</v>
       </c>
       <c r="H70" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I70" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K70" t="n">
         <v>2.07</v>
@@ -10382,7 +10386,7 @@
         <v>1.91</v>
       </c>
       <c r="S70" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="T70" t="n">
         <v>1.37</v>
@@ -10394,7 +10398,7 @@
         <v>2.72</v>
       </c>
       <c r="W70" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X70" t="n">
         <v>2.18</v>
@@ -10412,7 +10416,7 @@
         <v>28</v>
       </c>
       <c r="AC70" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD70" t="n">
         <v>24</v>
@@ -10424,7 +10428,7 @@
         <v>6.2</v>
       </c>
       <c r="AG70" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH70" t="n">
         <v>45</v>
@@ -10433,19 +10437,19 @@
         <v>300</v>
       </c>
       <c r="AJ70" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK70" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL70" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM70" t="n">
         <v>32</v>
       </c>
       <c r="AN70" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO70" t="n">
         <v>28</v>
@@ -10487,22 +10491,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H71" t="n">
         <v>3.75</v>
       </c>
       <c r="I71" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J71" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K71" t="n">
         <v>2.32</v>
       </c>
       <c r="L71" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="M71" t="n">
         <v>1.03</v>
@@ -10511,40 +10515,40 @@
         <v>9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P71" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R71" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="S71" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T71" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U71" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V71" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W71" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X71" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Y71" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z71" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA71" t="n">
         <v>8.25</v>
@@ -10553,16 +10557,16 @@
         <v>17</v>
       </c>
       <c r="AC71" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD71" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE71" t="n">
         <v>9</v>
       </c>
       <c r="AF71" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AG71" t="n">
         <v>12</v>
@@ -10571,19 +10575,19 @@
         <v>40</v>
       </c>
       <c r="AI71" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ71" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL71" t="n">
         <v>12</v>
       </c>
       <c r="AM71" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN71" t="n">
         <v>27</v>
@@ -10769,19 +10773,19 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H73" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I73" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="J73" t="n">
         <v>1.65</v>
       </c>
       <c r="K73" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="L73" t="n">
         <v>7.2</v>
@@ -10790,31 +10794,31 @@
         <v>1.02</v>
       </c>
       <c r="N73" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O73" t="n">
         <v>1.13</v>
       </c>
       <c r="P73" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R73" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="S73" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T73" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U73" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="V73" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="W73" t="n">
         <v>1.8</v>
@@ -10823,7 +10827,7 @@
         <v>1.9</v>
       </c>
       <c r="Y73" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z73" t="n">
         <v>7.4</v>
@@ -10841,13 +10845,13 @@
         <v>23</v>
       </c>
       <c r="AE73" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF73" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH73" t="n">
         <v>75</v>
@@ -10856,13 +10860,13 @@
         <v>500</v>
       </c>
       <c r="AJ73" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK73" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL73" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM73" t="n">
         <v>250</v>
@@ -10940,10 +10944,10 @@
         <v>4.33</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R74" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S74" t="n">
         <v>2.63</v>
@@ -11051,22 +11055,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H75" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I75" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J75" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K75" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L75" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M75" t="n">
         <v>1.07</v>
@@ -11075,28 +11079,28 @@
         <v>9</v>
       </c>
       <c r="O75" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R75" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S75" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T75" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U75" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V75" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W75" t="n">
         <v>1.91</v>
@@ -11114,16 +11118,16 @@
         <v>9</v>
       </c>
       <c r="AB75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD75" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF75" t="n">
         <v>6.5</v>
@@ -11138,10 +11142,10 @@
         <v>351</v>
       </c>
       <c r="AJ75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL75" t="n">
         <v>13</v>
@@ -11228,7 +11232,7 @@
         <v>2.87</v>
       </c>
       <c r="S76" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T76" t="n">
         <v>1.82</v>
@@ -11237,7 +11241,7 @@
         <v>1.23</v>
       </c>
       <c r="V76" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="W76" t="n">
         <v>1.7</v>
@@ -11246,7 +11250,7 @@
         <v>2.05</v>
       </c>
       <c r="Y76" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z76" t="n">
         <v>65</v>
@@ -11273,13 +11277,13 @@
         <v>19</v>
       </c>
       <c r="AH76" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI76" t="n">
         <v>350</v>
       </c>
       <c r="AJ76" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK76" t="n">
         <v>8.25</v>
@@ -11333,22 +11337,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H77" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="I77" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K77" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L77" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="M77" t="n">
         <v>1.13</v>
@@ -11357,85 +11361,85 @@
         <v>4.45</v>
       </c>
       <c r="O77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U77" t="n">
         <v>1.57</v>
       </c>
-      <c r="P77" t="n">
+      <c r="V77" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W77" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q77" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S77" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T77" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="U77" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V77" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W77" t="n">
-        <v>2.2</v>
-      </c>
       <c r="X77" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="Y77" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="Z77" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA77" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB77" t="n">
         <v>21</v>
       </c>
       <c r="AC77" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD77" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AE77" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="AF77" t="n">
         <v>5.9</v>
       </c>
       <c r="AG77" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH77" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI77" t="n">
         <v>101</v>
       </c>
       <c r="AJ77" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AK77" t="n">
         <v>16.5</v>
       </c>
       <c r="AL77" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM77" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN77" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO77" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AP77" t="inlineStr"/>
       <c r="AQ77" t="inlineStr"/>
@@ -11474,40 +11478,40 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I78" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="J78" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="K78" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L78" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="M78" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N78" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O78" t="n">
         <v>1.2</v>
       </c>
       <c r="P78" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q78" t="n">
         <v>1.6</v>
       </c>
       <c r="R78" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S78" t="n">
         <v>2.42</v>
@@ -11519,64 +11523,64 @@
         <v>1.3</v>
       </c>
       <c r="V78" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W78" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X78" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Y78" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z78" t="n">
         <v>9.25</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>10</v>
       </c>
       <c r="AA78" t="n">
         <v>8.25</v>
       </c>
       <c r="AB78" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC78" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD78" t="n">
         <v>21</v>
       </c>
       <c r="AE78" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF78" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AG78" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH78" t="n">
         <v>50</v>
       </c>
       <c r="AI78" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AJ78" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL78" t="n">
         <v>13.5</v>
       </c>
-      <c r="AK78" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AM78" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN78" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO78" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
@@ -848,25 +848,25 @@
         <v>2.88</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.8</v>
@@ -887,16 +887,16 @@
         <v>2.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>9.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -914,7 +914,7 @@
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="n">
         <v>101</v>
@@ -980,22 +980,22 @@
         <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
         <v>1.36</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O4" t="n">
         <v>1.06</v>
@@ -1004,10 +1004,10 @@
         <v>10</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1031,19 +1031,19 @@
         <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA4" t="n">
         <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>34</v>
@@ -1052,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
         <v>67</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN4" t="n">
         <v>101</v>
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
@@ -1130,7 +1130,7 @@
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1169,7 +1169,7 @@
         <v>1.95</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
         <v>19</v>
@@ -1205,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL5" t="n">
         <v>9</v>
@@ -1274,10 +1274,10 @@
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1844,34 +1844,34 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
         <v>2.7</v>
@@ -1880,10 +1880,10 @@
         <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U10" t="n">
         <v>1.62</v>
@@ -1898,7 +1898,7 @@
         <v>1.57</v>
       </c>
       <c r="Y10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z10" t="n">
         <v>15</v>
@@ -1934,7 +1934,7 @@
         <v>5.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL10" t="n">
         <v>10</v>
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
         <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>1.8</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.14</v>
@@ -2023,10 +2023,10 @@
         <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
         <v>7</v>
@@ -2704,22 +2704,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2728,22 +2728,22 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S16" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="T16" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U16" t="n">
         <v>1.3</v>
@@ -2752,31 +2752,31 @@
         <v>3.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD16" t="n">
         <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>7.5</v>
@@ -2785,10 +2785,10 @@
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
@@ -2797,13 +2797,13 @@
         <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
@@ -2811,10 +2811,10 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="17">
@@ -2867,16 +2867,16 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
         <v>2.05</v>
@@ -3024,16 +3024,16 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U18" t="n">
         <v>1.4</v>
@@ -3135,22 +3135,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3159,10 +3159,10 @@
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q19" t="n">
         <v>1.7</v>
@@ -3171,10 +3171,10 @@
         <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U19" t="n">
         <v>1.33</v>
@@ -3183,25 +3183,25 @@
         <v>3.25</v>
       </c>
       <c r="W19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
         <v>9</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD19" t="n">
         <v>23</v>
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
@@ -3225,19 +3225,19 @@
         <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3276,22 +3276,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -3318,10 +3318,10 @@
         <v>1.25</v>
       </c>
       <c r="U20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W20" t="n">
         <v>2</v>
@@ -3342,7 +3342,7 @@
         <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
         <v>34</v>
@@ -3439,10 +3439,10 @@
         <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.57</v>
@@ -3451,10 +3451,10 @@
         <v>2.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="n">
         <v>6</v>
@@ -3532,7 +3532,7 @@
         <v>1.78</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AS21" t="n">
         <v>1.18</v>
@@ -3588,16 +3588,16 @@
         <v>8</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>2.2</v>
@@ -3627,10 +3627,10 @@
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
         <v>9</v>
@@ -3642,7 +3642,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
         <v>8</v>
@@ -3737,10 +3737,10 @@
         <v>13</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O23" t="n">
         <v>1.13</v>
@@ -3749,10 +3749,10 @@
         <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R23" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S23" t="n">
         <v>2.1</v>
@@ -4005,43 +4005,43 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H25" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="I25" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="J25" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="K25" t="n">
         <v>1.7</v>
       </c>
       <c r="L25" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M25" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P25" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S25" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="T25" t="n">
         <v>1.09</v>
@@ -4050,34 +4050,34 @@
         <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W25" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X25" t="n">
         <v>1.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="Z25" t="n">
         <v>15.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC25" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AF25" t="n">
         <v>5.3</v>
@@ -4092,22 +4092,22 @@
         <v>101</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AK25" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>11.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN25" t="n">
         <v>35</v>
       </c>
       <c r="AO25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4149,31 +4149,31 @@
         <v>3.9</v>
       </c>
       <c r="H26" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J26" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="K26" t="n">
         <v>1.95</v>
       </c>
       <c r="L26" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q26" t="n">
         <v>2.27</v>
@@ -4194,16 +4194,16 @@
         <v>2.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="X26" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
         <v>13</v>
@@ -4212,28 +4212,28 @@
         <v>65</v>
       </c>
       <c r="AC26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD26" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF26" t="n">
         <v>5.7</v>
       </c>
-      <c r="AF26" t="n">
-        <v>5.6</v>
-      </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="n">
         <v>800</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AK26" t="n">
         <v>9.25</v>
@@ -4242,13 +4242,13 @@
         <v>8.75</v>
       </c>
       <c r="AM26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4287,22 +4287,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H27" t="n">
         <v>2.95</v>
       </c>
       <c r="I27" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="L27" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M27" t="n">
         <v>1.14</v>
@@ -4311,52 +4311,52 @@
         <v>4.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P27" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="R27" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S27" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="T27" t="n">
         <v>1.13</v>
       </c>
       <c r="U27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V27" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="W27" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X27" t="n">
         <v>1.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Z27" t="n">
         <v>6.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE27" t="n">
         <v>4.9</v>
@@ -4365,7 +4365,7 @@
         <v>6.2</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>175</v>
@@ -4374,16 +4374,16 @@
         <v>101</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
         <v>75</v>
@@ -4464,34 +4464,34 @@
         <v>1.65</v>
       </c>
       <c r="S28" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T28" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U28" t="n">
         <v>1.44</v>
       </c>
       <c r="V28" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W28" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X28" t="n">
         <v>1.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA28" t="n">
         <v>8.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AC28" t="n">
         <v>14</v>
@@ -4515,7 +4515,7 @@
         <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
         <v>40</v>
@@ -4527,10 +4527,10 @@
         <v>175</v>
       </c>
       <c r="AN28" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO28" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4569,28 +4569,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K29" t="n">
         <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
         <v>1.29</v>
@@ -4632,16 +4632,16 @@
         <v>8.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>15</v>
       </c>
       <c r="AD29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
         <v>7</v>
@@ -4710,46 +4710,46 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q30" t="n">
         <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4764,7 +4764,7 @@
         <v>1.91</v>
       </c>
       <c r="Y30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z30" t="n">
         <v>11</v>
@@ -4797,13 +4797,13 @@
         <v>251</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM30" t="n">
         <v>34</v>
@@ -4851,22 +4851,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K31" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -4914,7 +4914,7 @@
         <v>9</v>
       </c>
       <c r="AB31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC31" t="n">
         <v>17</v>
@@ -4941,10 +4941,10 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM31" t="n">
         <v>41</v>
@@ -4992,58 +4992,58 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L32" t="n">
         <v>2.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.29</v>
       </c>
-      <c r="P32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W32" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X32" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Y32" t="n">
         <v>11</v>
@@ -5061,40 +5061,40 @@
         <v>29</v>
       </c>
       <c r="AD32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF32" t="n">
         <v>6.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL32" t="n">
         <v>9</v>
       </c>
       <c r="AM32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN32" t="n">
         <v>17</v>
       </c>
       <c r="AO32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5133,13 +5133,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>2.2</v>
@@ -5154,7 +5154,7 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
         <v>1.25</v>
@@ -5163,10 +5163,10 @@
         <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
@@ -5289,7 +5289,7 @@
         <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -5349,7 +5349,7 @@
         <v>10</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG34" t="n">
         <v>13</v>
@@ -5415,22 +5415,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J35" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -5445,10 +5445,10 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R35" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S35" t="n">
         <v>3.25</v>
@@ -5478,7 +5478,7 @@
         <v>8.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="n">
         <v>15</v>
@@ -5487,7 +5487,7 @@
         <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF35" t="n">
         <v>7</v>
@@ -5499,7 +5499,7 @@
         <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ35" t="n">
         <v>12</v>
@@ -5514,10 +5514,10 @@
         <v>41</v>
       </c>
       <c r="AN35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO35" t="n">
         <v>34</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>41</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -5556,22 +5556,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
         <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K36" t="n">
         <v>2.3</v>
       </c>
       <c r="L36" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -5604,16 +5604,16 @@
         <v>3.25</v>
       </c>
       <c r="W36" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y36" t="n">
         <v>13</v>
       </c>
       <c r="Z36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA36" t="n">
         <v>12</v>
@@ -5622,16 +5622,16 @@
         <v>41</v>
       </c>
       <c r="AC36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD36" t="n">
         <v>29</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG36" t="n">
         <v>13</v>
@@ -5643,22 +5643,22 @@
         <v>151</v>
       </c>
       <c r="AJ36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL36" t="n">
         <v>9</v>
       </c>
-      <c r="AK36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AM36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN36" t="n">
         <v>15</v>
       </c>
       <c r="AO36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5704,13 +5704,13 @@
         <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
         <v>2.15</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
         <v>2.3</v>
@@ -5743,19 +5743,19 @@
         <v>1.5</v>
       </c>
       <c r="U37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W37" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X37" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="n">
         <v>17</v>
@@ -5767,13 +5767,13 @@
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD37" t="n">
         <v>26</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
         <v>7</v>
@@ -5800,18 +5800,18 @@
         <v>21</v>
       </c>
       <c r="AN37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="38">
@@ -5987,22 +5987,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K39" t="n">
         <v>2.25</v>
       </c>
       <c r="L39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -6029,28 +6029,28 @@
         <v>1.4</v>
       </c>
       <c r="U39" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V39" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W39" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA39" t="n">
         <v>9.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
         <v>17</v>
@@ -6059,10 +6059,10 @@
         <v>23</v>
       </c>
       <c r="AE39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG39" t="n">
         <v>12</v>
@@ -6077,7 +6077,7 @@
         <v>11</v>
       </c>
       <c r="AK39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL39" t="n">
         <v>11</v>
@@ -6086,10 +6086,10 @@
         <v>29</v>
       </c>
       <c r="AN39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6265,105 +6265,105 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="H41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I41" t="n">
         <v>3.2</v>
       </c>
-      <c r="I41" t="n">
-        <v>2.77</v>
-      </c>
       <c r="J41" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="K41" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="Q41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X41" t="n">
         <v>1.98</v>
       </c>
-      <c r="R41" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Y41" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z41" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA41" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB41" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AD41" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>450</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO41" t="n">
         <v>32</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>600</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>35</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6420,10 +6420,10 @@
         <v>3.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
@@ -6543,22 +6543,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I43" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="K43" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L43" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -6566,7 +6566,7 @@
         <v>1.21</v>
       </c>
       <c r="P43" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q43" t="n">
         <v>1.65</v>
@@ -6575,69 +6575,69 @@
         <v>1.98</v>
       </c>
       <c r="S43" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="T43" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X43" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z43" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA43" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AB43" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD43" t="n">
         <v>17.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF43" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AG43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL43" t="n">
         <v>9.75</v>
       </c>
-      <c r="AH43" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>175</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AM43" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN43" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6676,30 +6676,30 @@
         </is>
       </c>
       <c r="G44" t="n">
+        <v>12</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J44" t="n">
         <v>9.25</v>
       </c>
-      <c r="H44" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="J44" t="n">
-        <v>7.8</v>
-      </c>
       <c r="K44" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="L44" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P44" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
         <v>1.53</v>
@@ -6708,69 +6708,69 @@
         <v>2.2</v>
       </c>
       <c r="S44" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="T44" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X44" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Y44" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Z44" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AB44" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AC44" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AD44" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AG44" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH44" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AI44" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ44" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AK44" t="n">
         <v>5.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AM44" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="AN44" t="n">
         <v>9</v>
       </c>
       <c r="AO44" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H45" t="n">
         <v>4.75</v>
@@ -6833,10 +6833,10 @@
         <v>17</v>
       </c>
       <c r="O45" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
         <v>1.57</v>
@@ -6845,10 +6845,10 @@
         <v>2.35</v>
       </c>
       <c r="S45" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U45" t="n">
         <v>1.29</v>
@@ -6857,16 +6857,16 @@
         <v>3.5</v>
       </c>
       <c r="W45" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X45" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA45" t="n">
         <v>8.5</v>
@@ -6887,7 +6887,7 @@
         <v>9.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH45" t="n">
         <v>51</v>
@@ -6896,13 +6896,13 @@
         <v>201</v>
       </c>
       <c r="AJ45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK45" t="n">
         <v>34</v>
       </c>
       <c r="AL45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM45" t="n">
         <v>67</v>
@@ -6916,10 +6916,10 @@
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="46">
@@ -6954,61 +6954,61 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
         <v>2.63</v>
       </c>
       <c r="J46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L46" t="n">
         <v>3.25</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X46" t="n">
         <v>1.95</v>
       </c>
-      <c r="S46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X46" t="n">
-        <v>2.05</v>
-      </c>
       <c r="Y46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z46" t="n">
         <v>13</v>
@@ -7020,28 +7020,28 @@
         <v>26</v>
       </c>
       <c r="AC46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF46" t="n">
         <v>6.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI46" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ46" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK46" t="n">
         <v>13</v>
@@ -7095,22 +7095,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I47" t="n">
-        <v>4.35</v>
+        <v>4.05</v>
       </c>
       <c r="J47" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="K47" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L47" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -7118,16 +7118,16 @@
         <v>1.21</v>
       </c>
       <c r="P47" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S47" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="T47" t="n">
         <v>1.42</v>
@@ -7135,61 +7135,61 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X47" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="Y47" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA47" t="n">
         <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC47" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE47" t="n">
         <v>12.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AG47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AJ47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM47" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN47" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AO47" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -7373,22 +7373,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H49" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
         <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.06</v>
@@ -7421,22 +7421,22 @@
         <v>2.63</v>
       </c>
       <c r="W49" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X49" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z49" t="n">
         <v>5.5</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>6</v>
       </c>
       <c r="AA49" t="n">
         <v>9</v>
       </c>
       <c r="AB49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC49" t="n">
         <v>15</v>
@@ -7448,7 +7448,7 @@
         <v>8.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG49" t="n">
         <v>26</v>
@@ -7460,19 +7460,19 @@
         <v>101</v>
       </c>
       <c r="AJ49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM49" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO49" t="n">
         <v>67</v>
@@ -7514,28 +7514,28 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H50" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J50" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K50" t="n">
         <v>2.4</v>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O50" t="n">
         <v>1.17</v>
@@ -7544,16 +7544,16 @@
         <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R50" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S50" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T50" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U50" t="n">
         <v>1.29</v>
@@ -7562,22 +7562,22 @@
         <v>3.5</v>
       </c>
       <c r="W50" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X50" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y50" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z50" t="n">
         <v>10</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>11</v>
       </c>
       <c r="AA50" t="n">
         <v>8.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
         <v>13</v>
@@ -7586,13 +7586,13 @@
         <v>21</v>
       </c>
       <c r="AE50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH50" t="n">
         <v>41</v>
@@ -7607,7 +7607,7 @@
         <v>23</v>
       </c>
       <c r="AL50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM50" t="n">
         <v>41</v>
@@ -7621,10 +7621,10 @@
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
       <c r="AR50" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="51">
@@ -7659,13 +7659,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
         <v>2.3</v>
@@ -7674,7 +7674,7 @@
         <v>2.25</v>
       </c>
       <c r="L51" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -7707,10 +7707,10 @@
         <v>3</v>
       </c>
       <c r="W51" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X51" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y51" t="n">
         <v>7.5</v>
@@ -7728,10 +7728,10 @@
         <v>13</v>
       </c>
       <c r="AD51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF51" t="n">
         <v>7</v>
@@ -7749,7 +7749,7 @@
         <v>13</v>
       </c>
       <c r="AK51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL51" t="n">
         <v>15</v>
@@ -7758,7 +7758,7 @@
         <v>51</v>
       </c>
       <c r="AN51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO51" t="n">
         <v>41</v>
@@ -7800,13 +7800,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J52" t="n">
         <v>2.5</v>
@@ -7815,7 +7815,7 @@
         <v>2.5</v>
       </c>
       <c r="L52" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M52" t="n">
         <v>1.02</v>
@@ -7875,7 +7875,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG52" t="n">
         <v>11</v>
@@ -8191,16 +8191,16 @@
         <v>67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="AR54" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="55">
@@ -8235,22 +8235,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
         <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="J55" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K55" t="n">
         <v>2.3</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -8277,10 +8277,10 @@
         <v>1.44</v>
       </c>
       <c r="U55" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V55" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W55" t="n">
         <v>1.57</v>
@@ -8289,22 +8289,22 @@
         <v>2.25</v>
       </c>
       <c r="Y55" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA55" t="n">
         <v>11</v>
       </c>
-      <c r="Z55" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>10</v>
-      </c>
       <c r="AB55" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD55" t="n">
         <v>26</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>23</v>
       </c>
       <c r="AE55" t="n">
         <v>15</v>
@@ -8322,7 +8322,7 @@
         <v>126</v>
       </c>
       <c r="AJ55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK55" t="n">
         <v>13</v>
@@ -8331,13 +8331,13 @@
         <v>9.5</v>
       </c>
       <c r="AM55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr"/>
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J57" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K57" t="n">
         <v>2.05</v>
       </c>
       <c r="L57" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M57" t="n">
         <v>1.07</v>
@@ -8559,10 +8559,10 @@
         <v>1.25</v>
       </c>
       <c r="U57" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V57" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W57" t="n">
         <v>1.91</v>
@@ -8571,7 +8571,7 @@
         <v>1.91</v>
       </c>
       <c r="Y57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z57" t="n">
         <v>13</v>
@@ -8583,13 +8583,13 @@
         <v>29</v>
       </c>
       <c r="AC57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD57" t="n">
         <v>34</v>
       </c>
       <c r="AE57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF57" t="n">
         <v>6</v>
@@ -8607,16 +8607,16 @@
         <v>7.5</v>
       </c>
       <c r="AK57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL57" t="n">
         <v>10</v>
       </c>
       <c r="AM57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN57" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO57" t="n">
         <v>34</v>
@@ -8799,43 +8799,43 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="H59" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I59" t="n">
         <v>3.9</v>
       </c>
-      <c r="I59" t="n">
-        <v>3.4</v>
-      </c>
       <c r="J59" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K59" t="n">
         <v>2.4</v>
       </c>
-      <c r="K59" t="n">
-        <v>2.37</v>
-      </c>
       <c r="L59" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
       </c>
       <c r="N59" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O59" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P59" t="n">
         <v>4.35</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R59" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S59" t="n">
         <v>2.3</v>
-      </c>
-      <c r="S59" t="n">
-        <v>2.32</v>
       </c>
       <c r="T59" t="n">
         <v>1.55</v>
@@ -8844,64 +8844,64 @@
         <v>1.29</v>
       </c>
       <c r="V59" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W59" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X59" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Y59" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA59" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB59" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD59" t="n">
         <v>19.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF59" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AG59" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH59" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI59" t="n">
         <v>250</v>
       </c>
       <c r="AJ59" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK59" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AL59" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AM59" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN59" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AO59" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
@@ -8946,16 +8946,16 @@
         <v>4.75</v>
       </c>
       <c r="I60" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="K60" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="L60" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="M60" t="n">
         <v>1.02</v>
@@ -8982,10 +8982,10 @@
         <v>1.75</v>
       </c>
       <c r="U60" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="V60" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="W60" t="n">
         <v>1.53</v>
@@ -8997,7 +8997,7 @@
         <v>11.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA60" t="n">
         <v>8.5</v>
@@ -9030,19 +9030,19 @@
         <v>23</v>
       </c>
       <c r="AK60" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN60" t="n">
         <v>40</v>
       </c>
-      <c r="AL60" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>45</v>
-      </c>
       <c r="AO60" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9218,22 +9218,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="H62" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I62" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="J62" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L62" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -9248,22 +9248,22 @@
         <v>3.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R62" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T62" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U62" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V62" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W62" t="n">
         <v>1.8</v>
@@ -9272,25 +9272,25 @@
         <v>1.91</v>
       </c>
       <c r="Y62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD62" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE62" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF62" t="n">
         <v>6.5</v>
@@ -9302,25 +9302,25 @@
         <v>51</v>
       </c>
       <c r="AI62" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ62" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM62" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN62" t="n">
         <v>23</v>
       </c>
-      <c r="AN62" t="n">
-        <v>21</v>
-      </c>
       <c r="AO62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP62" t="inlineStr"/>
       <c r="AQ62" t="inlineStr"/>
@@ -9359,19 +9359,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H63" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
         <v>1.67</v>
       </c>
       <c r="K63" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L63" t="n">
         <v>7.5</v>
@@ -9383,10 +9383,10 @@
         <v>11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q63" t="n">
         <v>1.5</v>
@@ -9395,10 +9395,10 @@
         <v>2.5</v>
       </c>
       <c r="S63" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T63" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U63" t="n">
         <v>1.25</v>
@@ -9407,10 +9407,10 @@
         <v>3.75</v>
       </c>
       <c r="W63" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X63" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y63" t="n">
         <v>8.5</v>
@@ -9419,7 +9419,7 @@
         <v>7</v>
       </c>
       <c r="AA63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB63" t="n">
         <v>8</v>
@@ -9434,16 +9434,16 @@
         <v>19</v>
       </c>
       <c r="AF63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH63" t="n">
         <v>67</v>
       </c>
       <c r="AI63" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ63" t="n">
         <v>21</v>
@@ -9452,7 +9452,7 @@
         <v>41</v>
       </c>
       <c r="AL63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM63" t="n">
         <v>81</v>
@@ -9466,10 +9466,10 @@
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
       <c r="AR63" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -9504,46 +9504,46 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J64" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K64" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M64" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>1.02</v>
+        <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R64" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="S64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T64" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U64" t="n">
         <v>1.2</v>
@@ -9558,16 +9558,16 @@
         <v>1.83</v>
       </c>
       <c r="Y64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z64" t="n">
         <v>8</v>
       </c>
       <c r="AA64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB64" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC64" t="n">
         <v>11</v>
@@ -9579,10 +9579,10 @@
         <v>26</v>
       </c>
       <c r="AF64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH64" t="n">
         <v>51</v>
@@ -9597,10 +9597,10 @@
         <v>51</v>
       </c>
       <c r="AL64" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM64" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN64" t="n">
         <v>51</v>
@@ -9645,109 +9645,109 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="H65" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R65" t="n">
         <v>1.7</v>
       </c>
-      <c r="J65" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K65" t="n">
+      <c r="S65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W65" t="n">
         <v>2.02</v>
       </c>
-      <c r="L65" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N65" t="n">
-        <v>6</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P65" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R65" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S65" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V65" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W65" t="n">
-        <v>2.2</v>
-      </c>
       <c r="X65" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="Y65" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="Z65" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA65" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB65" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH65" t="n">
         <v>100</v>
       </c>
-      <c r="AC65" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>150</v>
-      </c>
       <c r="AI65" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AJ65" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AK65" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AL65" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AM65" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN65" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AP65" t="inlineStr"/>
       <c r="AQ65" t="inlineStr"/>
@@ -9786,22 +9786,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H66" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I66" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="J66" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="K66" t="n">
         <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
@@ -9816,10 +9816,10 @@
         <v>13</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="R66" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="S66" t="n">
         <v>1.44</v>
@@ -9834,58 +9834,58 @@
         <v>6</v>
       </c>
       <c r="W66" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X66" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y66" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z66" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA66" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD66" t="n">
         <v>17</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>19</v>
       </c>
       <c r="AE66" t="n">
         <v>34</v>
       </c>
       <c r="AF66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL66" t="n">
         <v>12</v>
       </c>
-      <c r="AH66" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>11</v>
-      </c>
       <c r="AM66" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO66" t="n">
         <v>13</v>
@@ -9927,19 +9927,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H67" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I67" t="n">
         <v>6.4</v>
       </c>
       <c r="J67" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K67" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L67" t="n">
         <v>6.3</v>
@@ -9948,64 +9948,64 @@
         <v>1.09</v>
       </c>
       <c r="N67" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O67" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P67" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="R67" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="S67" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="T67" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U67" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V67" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="W67" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="X67" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Y67" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="Z67" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB67" t="n">
         <v>10.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD67" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE67" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AF67" t="n">
         <v>7.1</v>
       </c>
       <c r="AG67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH67" t="n">
         <v>150</v>
@@ -10014,7 +10014,7 @@
         <v>900</v>
       </c>
       <c r="AJ67" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK67" t="n">
         <v>37</v>
@@ -10029,7 +10029,7 @@
         <v>90</v>
       </c>
       <c r="AO67" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AP67" t="inlineStr"/>
       <c r="AQ67" t="inlineStr"/>
@@ -10209,16 +10209,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H69" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
         <v>3.4</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
@@ -10257,19 +10257,19 @@
         <v>2.5</v>
       </c>
       <c r="W69" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X69" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y69" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB69" t="n">
         <v>21</v>
@@ -10287,16 +10287,16 @@
         <v>6</v>
       </c>
       <c r="AG69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH69" t="n">
         <v>51</v>
       </c>
       <c r="AI69" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AJ69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK69" t="n">
         <v>15</v>
@@ -10305,7 +10305,7 @@
         <v>13</v>
       </c>
       <c r="AM69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN69" t="n">
         <v>29</v>
@@ -10353,61 +10353,61 @@
         <v>2.47</v>
       </c>
       <c r="H70" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="J70" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K70" t="n">
         <v>2.07</v>
       </c>
       <c r="L70" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M70" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N70" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="O70" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P70" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R70" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S70" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="T70" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U70" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V70" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="W70" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X70" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="Y70" t="n">
         <v>9.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA70" t="n">
         <v>9.25</v>
@@ -10422,13 +10422,13 @@
         <v>24</v>
       </c>
       <c r="AE70" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AF70" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AG70" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH70" t="n">
         <v>45</v>
@@ -10437,22 +10437,22 @@
         <v>300</v>
       </c>
       <c r="AJ70" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK70" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL70" t="n">
         <v>9.75</v>
       </c>
       <c r="AM70" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN70" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO70" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
@@ -10773,109 +10773,109 @@
         </is>
       </c>
       <c r="G73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I73" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="L73" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N73" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U73" t="n">
         <v>1.25</v>
       </c>
-      <c r="H73" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I73" t="n">
+      <c r="V73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Y73" t="n">
         <v>9.5</v>
       </c>
-      <c r="J73" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N73" t="n">
-        <v>10</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P73" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R73" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="S73" t="n">
-        <v>2</v>
-      </c>
-      <c r="T73" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U73" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="V73" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="W73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X73" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>9.75</v>
-      </c>
       <c r="Z73" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AA73" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB73" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AC73" t="n">
         <v>10</v>
       </c>
       <c r="AD73" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE73" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH73" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI73" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AJ73" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AK73" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL73" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AM73" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN73" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AO73" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
@@ -10944,10 +10944,10 @@
         <v>4.33</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R74" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S74" t="n">
         <v>2.63</v>
@@ -10956,19 +10956,19 @@
         <v>1.44</v>
       </c>
       <c r="U74" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V74" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W74" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X74" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y74" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z74" t="n">
         <v>7.5</v>
@@ -10992,7 +10992,7 @@
         <v>8.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH74" t="n">
         <v>51</v>
@@ -11055,28 +11055,28 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>3.25</v>
       </c>
       <c r="I75" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J75" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K75" t="n">
         <v>2.1</v>
       </c>
       <c r="L75" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O75" t="n">
         <v>1.33</v>
@@ -11085,10 +11085,10 @@
         <v>3.25</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R75" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S75" t="n">
         <v>3.75</v>
@@ -11103,16 +11103,16 @@
         <v>2.63</v>
       </c>
       <c r="W75" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y75" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA75" t="n">
         <v>9</v>
@@ -11133,19 +11133,19 @@
         <v>6.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH75" t="n">
         <v>51</v>
       </c>
       <c r="AI75" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ75" t="n">
         <v>10</v>
       </c>
       <c r="AK75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL75" t="n">
         <v>13</v>
@@ -11154,7 +11154,7 @@
         <v>41</v>
       </c>
       <c r="AN75" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO75" t="n">
         <v>41</v>
@@ -11205,10 +11205,10 @@
         <v>1.28</v>
       </c>
       <c r="J76" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K76" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="L76" t="n">
         <v>1.65</v>
@@ -11232,7 +11232,7 @@
         <v>2.87</v>
       </c>
       <c r="S76" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T76" t="n">
         <v>1.82</v>
@@ -11241,7 +11241,7 @@
         <v>1.23</v>
       </c>
       <c r="V76" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="W76" t="n">
         <v>1.7</v>
@@ -11250,7 +11250,7 @@
         <v>2.05</v>
       </c>
       <c r="Y76" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z76" t="n">
         <v>65</v>
@@ -11277,7 +11277,7 @@
         <v>19</v>
       </c>
       <c r="AH76" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI76" t="n">
         <v>350</v>
@@ -11478,22 +11478,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H78" t="n">
         <v>3.9</v>
       </c>
       <c r="I78" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J78" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K78" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L78" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -11523,25 +11523,25 @@
         <v>1.3</v>
       </c>
       <c r="V78" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="W78" t="n">
         <v>1.62</v>
       </c>
       <c r="X78" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
       </c>
       <c r="Z78" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA78" t="n">
         <v>8.25</v>
       </c>
       <c r="AB78" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC78" t="n">
         <v>12.5</v>
@@ -11553,34 +11553,34 @@
         <v>9</v>
       </c>
       <c r="AF78" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AG78" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH78" t="n">
         <v>50</v>
       </c>
       <c r="AI78" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ78" t="n">
         <v>14.5</v>
       </c>
       <c r="AK78" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL78" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM78" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN78" t="n">
         <v>32</v>
       </c>
       <c r="AO78" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>2.2</v>
@@ -752,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
@@ -779,7 +779,7 @@
         <v>301</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
         <v>15</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
@@ -848,25 +848,25 @@
         <v>2.88</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.8</v>
@@ -893,10 +893,10 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -914,19 +914,19 @@
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
         <v>101</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="H4" t="n">
         <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O4" t="n">
         <v>1.06</v>
@@ -1004,10 +1004,10 @@
         <v>10</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1031,19 +1031,19 @@
         <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
         <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>34</v>
@@ -1052,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
         <v>67</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN4" t="n">
         <v>101</v>
@@ -1145,10 +1145,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S5" t="n">
         <v>3.5</v>
@@ -1397,13 +1397,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
@@ -1415,22 +1415,22 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
         <v>5.5</v>
@@ -1439,10 +1439,10 @@
         <v>1.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
         <v>2.1</v>
@@ -1454,22 +1454,22 @@
         <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
         <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF7" t="n">
         <v>6</v>
@@ -1478,7 +1478,7 @@
         <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI7" t="n">
         <v>101</v>
@@ -1502,10 +1502,10 @@
         <v>41</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR7" t="n">
         <v>4.5</v>
@@ -1955,10 +1955,10 @@
         <v>1.8</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="11">
@@ -2038,7 +2038,7 @@
         <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>2.5</v>
@@ -2142,28 +2142,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>2.55</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
         <v>1.73</v>
       </c>
       <c r="L12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N12" t="n">
         <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.33</v>
       </c>
       <c r="O12" t="n">
         <v>1.83</v>
@@ -2178,16 +2178,16 @@
         <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W12" t="n">
         <v>2.75</v>
@@ -2196,16 +2196,16 @@
         <v>1.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
         <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
         <v>41</v>
@@ -2223,26 +2223,26 @@
         <v>26</v>
       </c>
       <c r="AH12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
         <v>34</v>
       </c>
-      <c r="AN12" t="n">
-        <v>41</v>
-      </c>
       <c r="AO12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2305,16 +2305,16 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
         <v>7</v>
@@ -2420,22 +2420,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
         <v>1.67</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.22</v>
@@ -2444,10 +2444,10 @@
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Q14" t="n">
         <v>4.2</v>
@@ -2456,16 +2456,16 @@
         <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
         <v>3</v>
@@ -2474,16 +2474,16 @@
         <v>1.36</v>
       </c>
       <c r="Y14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
         <v>41</v>
@@ -2505,10 +2505,10 @@
       </c>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
         <v>17</v>
@@ -2520,7 +2520,7 @@
         <v>41</v>
       </c>
       <c r="AO14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2873,10 +2873,10 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
         <v>2.05</v>
@@ -3018,16 +3018,16 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
         <v>3.25</v>
@@ -3141,22 +3141,22 @@
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
         <v>2.88</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
@@ -3165,10 +3165,10 @@
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S19" t="n">
         <v>2.63</v>
@@ -3183,13 +3183,13 @@
         <v>3.25</v>
       </c>
       <c r="W19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
         <v>12</v>
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
@@ -3222,7 +3222,7 @@
         <v>151</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
@@ -3594,10 +3594,10 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
         <v>2.2</v>
@@ -3675,16 +3675,16 @@
         <v>67</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.16</v>
+        <v>2.13</v>
       </c>
       <c r="AR22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="23">
@@ -3719,13 +3719,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J23" t="n">
         <v>1.5</v>
@@ -3740,31 +3740,31 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R23" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W23" t="n">
         <v>2.38</v>
@@ -3806,7 +3806,7 @@
         <v>101</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK23" t="n">
         <v>81</v>
@@ -3815,10 +3815,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AO23" t="n">
         <v>101</v>
@@ -4005,109 +4005,109 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.35</v>
+        <v>2.22</v>
       </c>
       <c r="H25" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="I25" t="n">
-        <v>2.65</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
-        <v>4.15</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="L25" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>1.19</v>
       </c>
       <c r="N25" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P25" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R25" t="n">
         <v>1.3</v>
       </c>
       <c r="S25" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X25" t="n">
         <v>1.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>15.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA25" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="AD25" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AE25" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AF25" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI25" t="n">
         <v>101</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="AO25" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4146,46 +4146,46 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I26" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="J26" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="K26" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L26" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R26" t="n">
         <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T26" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="U26" t="n">
         <v>1.47</v>
@@ -4200,28 +4200,28 @@
         <v>1.78</v>
       </c>
       <c r="Y26" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC26" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD26" t="n">
         <v>50</v>
       </c>
       <c r="AE26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF26" t="n">
         <v>5.8</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>5.7</v>
       </c>
       <c r="AG26" t="n">
         <v>15.5</v>
@@ -4233,22 +4233,22 @@
         <v>800</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AK26" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AL26" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AN26" t="n">
         <v>18.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4290,19 +4290,19 @@
         <v>1.82</v>
       </c>
       <c r="H27" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I27" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="K27" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="L27" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M27" t="n">
         <v>1.14</v>
@@ -4326,34 +4326,34 @@
         <v>5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U27" t="n">
         <v>1.6</v>
       </c>
       <c r="V27" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W27" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="X27" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA27" t="n">
         <v>9.25</v>
       </c>
       <c r="AB27" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD27" t="n">
         <v>50</v>
@@ -4362,7 +4362,7 @@
         <v>4.9</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AG27" t="n">
         <v>23</v>
@@ -4377,16 +4377,16 @@
         <v>9.75</v>
       </c>
       <c r="AK27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="n">
         <v>100</v>
@@ -4431,31 +4431,31 @@
         <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="J28" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="K28" t="n">
         <v>2.15</v>
       </c>
       <c r="L28" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="Q28" t="n">
         <v>2.1</v>
@@ -4464,25 +4464,25 @@
         <v>1.65</v>
       </c>
       <c r="S28" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
         <v>1.25</v>
       </c>
       <c r="U28" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V28" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="W28" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X28" t="n">
         <v>1.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
         <v>6.1</v>
@@ -4497,10 +4497,10 @@
         <v>14</v>
       </c>
       <c r="AD28" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF28" t="n">
         <v>7.4</v>
@@ -4509,13 +4509,13 @@
         <v>22</v>
       </c>
       <c r="AH28" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI28" t="n">
         <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK28" t="n">
         <v>40</v>
@@ -4527,10 +4527,10 @@
         <v>175</v>
       </c>
       <c r="AN28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4587,10 +4587,10 @@
         <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O29" t="n">
         <v>1.29</v>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
@@ -4731,7 +4731,7 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
@@ -4764,7 +4764,7 @@
         <v>1.91</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
         <v>11</v>
@@ -4803,7 +4803,7 @@
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM30" t="n">
         <v>34</v>
@@ -4851,52 +4851,52 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S31" t="n">
         <v>4</v>
       </c>
-      <c r="J31" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N31" t="n">
-        <v>10</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U31" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V31" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W31" t="n">
         <v>1.91</v>
@@ -4908,22 +4908,22 @@
         <v>6.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA31" t="n">
         <v>9</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF31" t="n">
         <v>6.5</v>
@@ -4938,13 +4938,13 @@
         <v>351</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
         <v>41</v>
@@ -4992,13 +4992,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J32" t="n">
         <v>4.33</v>
@@ -5016,22 +5016,22 @@
         <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R32" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U32" t="n">
         <v>1.44</v>
@@ -5046,7 +5046,7 @@
         <v>1.83</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z32" t="n">
         <v>19</v>
@@ -5058,7 +5058,7 @@
         <v>41</v>
       </c>
       <c r="AC32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD32" t="n">
         <v>41</v>
@@ -5076,7 +5076,7 @@
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ32" t="n">
         <v>7</v>
@@ -5133,7 +5133,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
@@ -5157,28 +5157,28 @@
         <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R33" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U33" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W33" t="n">
         <v>1.8</v>
@@ -5292,10 +5292,10 @@
         <v>3.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O34" t="n">
         <v>1.29</v>
@@ -5415,22 +5415,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -5445,16 +5445,16 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R35" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U35" t="n">
         <v>1.4</v>
@@ -5478,7 +5478,7 @@
         <v>8.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC35" t="n">
         <v>15</v>
@@ -5487,7 +5487,7 @@
         <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF35" t="n">
         <v>7</v>
@@ -5499,7 +5499,7 @@
         <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ35" t="n">
         <v>12</v>
@@ -5514,10 +5514,10 @@
         <v>41</v>
       </c>
       <c r="AN35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -5556,13 +5556,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
         <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J36" t="n">
         <v>3.75</v>
@@ -5571,7 +5571,7 @@
         <v>2.3</v>
       </c>
       <c r="L36" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -5586,10 +5586,10 @@
         <v>4.33</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R36" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S36" t="n">
         <v>2.63</v>
@@ -5619,7 +5619,7 @@
         <v>12</v>
       </c>
       <c r="AB36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC36" t="n">
         <v>23</v>
@@ -5731,10 +5731,10 @@
         <v>4.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R37" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S37" t="n">
         <v>2.5</v>
@@ -5808,10 +5808,10 @@
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="38">
@@ -5987,22 +5987,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J39" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
         <v>2.25</v>
       </c>
       <c r="L39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -6017,10 +6017,10 @@
         <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R39" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
         <v>2.75</v>
@@ -6044,16 +6044,16 @@
         <v>9.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA39" t="n">
         <v>9.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="n">
         <v>23</v>
@@ -6077,7 +6077,7 @@
         <v>11</v>
       </c>
       <c r="AK39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL39" t="n">
         <v>11</v>
@@ -6086,10 +6086,10 @@
         <v>29</v>
       </c>
       <c r="AN39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6402,13 +6402,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J42" t="n">
         <v>3.25</v>
@@ -6417,13 +6417,13 @@
         <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
@@ -6468,7 +6468,7 @@
         <v>26</v>
       </c>
       <c r="AC42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD42" t="n">
         <v>34</v>
@@ -6676,30 +6676,30 @@
         </is>
       </c>
       <c r="G44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J44" t="n">
         <v>12</v>
       </c>
-      <c r="H44" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="J44" t="n">
-        <v>9.25</v>
-      </c>
       <c r="K44" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="L44" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="Q44" t="n">
         <v>1.53</v>
@@ -6708,69 +6708,69 @@
         <v>2.2</v>
       </c>
       <c r="S44" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="T44" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="n">
-        <v>2.02</v>
+        <v>2.35</v>
       </c>
       <c r="X44" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="Y44" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z44" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AA44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>500</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>250</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG44" t="n">
         <v>32</v>
       </c>
-      <c r="AB44" t="n">
-        <v>300</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>23</v>
-      </c>
       <c r="AH44" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="AI44" t="n">
         <v>600</v>
       </c>
       <c r="AJ44" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AK44" t="n">
-        <v>5.5</v>
+        <v>4.85</v>
       </c>
       <c r="AL44" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM44" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="AN44" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AO44" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -6809,13 +6809,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H45" t="n">
         <v>4.75</v>
       </c>
       <c r="I45" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J45" t="n">
         <v>1.95</v>
@@ -6833,40 +6833,40 @@
         <v>17</v>
       </c>
       <c r="O45" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R45" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S45" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U45" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X45" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA45" t="n">
         <v>8.5</v>
@@ -6878,31 +6878,31 @@
         <v>11</v>
       </c>
       <c r="AD45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF45" t="n">
         <v>9.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH45" t="n">
         <v>51</v>
       </c>
       <c r="AI45" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK45" t="n">
         <v>34</v>
       </c>
       <c r="AL45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM45" t="n">
         <v>67</v>
@@ -6916,10 +6916,10 @@
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="46">
@@ -6963,31 +6963,31 @@
         <v>2.63</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q46" t="n">
         <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="n">
         <v>3.5</v>
@@ -7026,7 +7026,7 @@
         <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF46" t="n">
         <v>6.5</v>
@@ -7098,59 +7098,59 @@
         <v>1.75</v>
       </c>
       <c r="H47" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I47" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
         <v>2.27</v>
       </c>
       <c r="K47" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L47" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P47" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R47" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S47" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X47" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="Y47" t="n">
         <v>8.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA47" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC47" t="n">
         <v>13</v>
@@ -7159,25 +7159,25 @@
         <v>21</v>
       </c>
       <c r="AE47" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH47" t="n">
         <v>50</v>
       </c>
       <c r="AI47" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ47" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL47" t="n">
         <v>13.5</v>
@@ -7186,10 +7186,10 @@
         <v>65</v>
       </c>
       <c r="AN47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -7264,10 +7264,10 @@
         <v>1.48</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U48" t="n">
         <v>1.57</v>
@@ -7333,10 +7333,10 @@
         <v>41</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
@@ -7517,7 +7517,7 @@
         <v>1.75</v>
       </c>
       <c r="H50" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I50" t="n">
         <v>4.33</v>
@@ -7526,52 +7526,52 @@
         <v>2.3</v>
       </c>
       <c r="K50" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P50" t="n">
         <v>4.33</v>
       </c>
-      <c r="M50" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N50" t="n">
-        <v>17</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
       <c r="Q50" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R50" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S50" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="T50" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U50" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="V50" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W50" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y50" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z50" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>10</v>
       </c>
       <c r="AA50" t="n">
         <v>8.5</v>
@@ -7586,10 +7586,10 @@
         <v>21</v>
       </c>
       <c r="AE50" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG50" t="n">
         <v>13</v>
@@ -7598,7 +7598,7 @@
         <v>41</v>
       </c>
       <c r="AI50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ50" t="n">
         <v>15</v>
@@ -7613,18 +7613,18 @@
         <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
       <c r="AR50" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="51">
@@ -7800,22 +7800,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I52" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J52" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K52" t="n">
         <v>2.5</v>
       </c>
       <c r="L52" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M52" t="n">
         <v>1.02</v>
@@ -7863,7 +7863,7 @@
         <v>9</v>
       </c>
       <c r="AB52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC52" t="n">
         <v>13</v>
@@ -7875,7 +7875,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG52" t="n">
         <v>11</v>
@@ -7899,7 +7899,7 @@
         <v>41</v>
       </c>
       <c r="AN52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO52" t="n">
         <v>26</v>
@@ -8086,22 +8086,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I54" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J54" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K54" t="n">
         <v>2.1</v>
       </c>
       <c r="L54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
@@ -8110,22 +8110,22 @@
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R54" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T54" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U54" t="n">
         <v>1.5</v>
@@ -8140,7 +8140,7 @@
         <v>1.53</v>
       </c>
       <c r="Y54" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z54" t="n">
         <v>6</v>
@@ -8173,10 +8173,10 @@
         <v>301</v>
       </c>
       <c r="AJ54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL54" t="n">
         <v>21</v>
@@ -8191,16 +8191,16 @@
         <v>67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="AR54" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="55">
@@ -8235,67 +8235,67 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K55" t="n">
         <v>2.25</v>
       </c>
-      <c r="J55" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L55" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N55" t="n">
+        <v>13</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z55" t="n">
         <v>15</v>
       </c>
-      <c r="O55" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V55" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X55" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>17</v>
-      </c>
       <c r="AA55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB55" t="n">
         <v>29</v>
@@ -8307,7 +8307,7 @@
         <v>26</v>
       </c>
       <c r="AE55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF55" t="n">
         <v>7</v>
@@ -8319,7 +8319,7 @@
         <v>41</v>
       </c>
       <c r="AI55" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ55" t="n">
         <v>10</v>
@@ -8331,13 +8331,13 @@
         <v>9.5</v>
       </c>
       <c r="AM55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr"/>
@@ -8376,16 +8376,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H56" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K56" t="n">
         <v>2.25</v>
@@ -8406,10 +8406,10 @@
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S56" t="n">
         <v>2.75</v>
@@ -8418,10 +8418,10 @@
         <v>1.4</v>
       </c>
       <c r="U56" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V56" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W56" t="n">
         <v>1.62</v>
@@ -8430,7 +8430,7 @@
         <v>2.2</v>
       </c>
       <c r="Y56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z56" t="n">
         <v>11</v>
@@ -8439,19 +8439,19 @@
         <v>9</v>
       </c>
       <c r="AB56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD56" t="n">
         <v>23</v>
       </c>
       <c r="AE56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF56" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG56" t="n">
         <v>12</v>
@@ -8469,7 +8469,7 @@
         <v>19</v>
       </c>
       <c r="AL56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM56" t="n">
         <v>41</v>
@@ -8517,19 +8517,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J57" t="n">
         <v>3.6</v>
       </c>
       <c r="K57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
         <v>3.2</v>
@@ -8547,22 +8547,22 @@
         <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S57" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T57" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U57" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V57" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W57" t="n">
         <v>1.91</v>
@@ -8589,7 +8589,7 @@
         <v>34</v>
       </c>
       <c r="AE57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF57" t="n">
         <v>6</v>
@@ -8799,109 +8799,109 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="I59" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="J59" t="n">
         <v>2.22</v>
       </c>
       <c r="K59" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N59" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S59" t="n">
         <v>2.4</v>
       </c>
-      <c r="L59" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N59" t="n">
+      <c r="T59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z59" t="n">
         <v>9.25</v>
       </c>
-      <c r="O59" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S59" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T59" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U59" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V59" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W59" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X59" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>10</v>
-      </c>
       <c r="AA59" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB59" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC59" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD59" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE59" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF59" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AG59" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI59" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ59" t="n">
         <v>15.5</v>
       </c>
       <c r="AK59" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL59" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM59" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AN59" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AO59" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
@@ -8940,28 +8940,28 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H60" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="I60" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J60" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="K60" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="L60" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="M60" t="n">
         <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="O60" t="n">
         <v>1.12</v>
@@ -8973,19 +8973,19 @@
         <v>1.39</v>
       </c>
       <c r="R60" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="S60" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T60" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U60" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="V60" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="W60" t="n">
         <v>1.53</v>
@@ -8997,13 +8997,13 @@
         <v>11.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA60" t="n">
         <v>8.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC60" t="n">
         <v>10.5</v>
@@ -9012,7 +9012,7 @@
         <v>18</v>
       </c>
       <c r="AE60" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF60" t="n">
         <v>10.25</v>
@@ -9027,22 +9027,22 @@
         <v>250</v>
       </c>
       <c r="AJ60" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK60" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>45</v>
+      </c>
+      <c r="AO60" t="n">
         <v>37</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>35</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9081,19 +9081,19 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="H61" t="n">
         <v>5.1</v>
       </c>
       <c r="I61" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="J61" t="n">
         <v>5.3</v>
       </c>
       <c r="K61" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="L61" t="n">
         <v>1.78</v>
@@ -9101,7 +9101,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P61" t="n">
         <v>6</v>
@@ -9113,13 +9113,13 @@
         <v>3.15</v>
       </c>
       <c r="S61" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T61" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U61" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="V61" t="n">
         <v>4.1</v>
@@ -9131,7 +9131,7 @@
         <v>2.42</v>
       </c>
       <c r="Y61" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z61" t="n">
         <v>50</v>
@@ -9218,22 +9218,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L62" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.4</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -9248,10 +9248,10 @@
         <v>3.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S62" t="n">
         <v>3.4</v>
@@ -9260,10 +9260,10 @@
         <v>1.3</v>
       </c>
       <c r="U62" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V62" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W62" t="n">
         <v>1.8</v>
@@ -9275,7 +9275,7 @@
         <v>8.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA62" t="n">
         <v>10</v>
@@ -9284,13 +9284,13 @@
         <v>23</v>
       </c>
       <c r="AC62" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD62" t="n">
         <v>29</v>
       </c>
       <c r="AE62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF62" t="n">
         <v>6.5</v>
@@ -9302,22 +9302,22 @@
         <v>51</v>
       </c>
       <c r="AI62" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL62" t="n">
         <v>11</v>
       </c>
       <c r="AM62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO62" t="n">
         <v>34</v>
@@ -9359,13 +9359,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J63" t="n">
         <v>1.67</v>
@@ -9374,7 +9374,7 @@
         <v>2.6</v>
       </c>
       <c r="L63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M63" t="n">
         <v>1.02</v>
@@ -9389,10 +9389,10 @@
         <v>4.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R63" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S63" t="n">
         <v>2.25</v>
@@ -9401,49 +9401,49 @@
         <v>1.57</v>
       </c>
       <c r="U63" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V63" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W63" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="X63" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="Y63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z63" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB63" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD63" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG63" t="n">
         <v>26</v>
       </c>
-      <c r="AE63" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>23</v>
-      </c>
       <c r="AH63" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AJ63" t="n">
         <v>21</v>
@@ -9455,7 +9455,7 @@
         <v>23</v>
       </c>
       <c r="AM63" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN63" t="n">
         <v>51</v>
@@ -9466,10 +9466,10 @@
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
       <c r="AR63" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="64">
@@ -9504,28 +9504,28 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J64" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K64" t="n">
         <v>2.88</v>
       </c>
       <c r="L64" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M64" t="n">
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O64" t="n">
         <v>1.1</v>
@@ -9534,10 +9534,10 @@
         <v>6.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R64" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="S64" t="n">
         <v>1.83</v>
@@ -9552,10 +9552,10 @@
         <v>4.33</v>
       </c>
       <c r="W64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X64" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y64" t="n">
         <v>11</v>
@@ -9576,19 +9576,19 @@
         <v>23</v>
       </c>
       <c r="AE64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH64" t="n">
         <v>51</v>
       </c>
       <c r="AI64" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ64" t="n">
         <v>29</v>
@@ -9645,46 +9645,46 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.85</v>
+        <v>6.1</v>
       </c>
       <c r="H65" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I65" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="J65" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="K65" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L65" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="M65" t="n">
         <v>1.07</v>
       </c>
       <c r="N65" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="O65" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P65" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R65" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S65" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T65" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="U65" t="n">
         <v>1.42</v>
@@ -9693,58 +9693,58 @@
         <v>2.65</v>
       </c>
       <c r="W65" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="X65" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Y65" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AA65" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AC65" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AD65" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AE65" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AF65" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AG65" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI65" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AJ65" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AK65" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AL65" t="n">
         <v>8.25</v>
       </c>
       <c r="AM65" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AN65" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO65" t="n">
         <v>32</v>
@@ -9927,34 +9927,34 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I67" t="n">
         <v>6.4</v>
       </c>
       <c r="J67" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="K67" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L67" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N67" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O67" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P67" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Q67" t="n">
         <v>2.3</v>
@@ -9975,22 +9975,22 @@
         <v>2.5</v>
       </c>
       <c r="W67" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="X67" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Y67" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z67" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC67" t="n">
         <v>15.5</v>
@@ -9999,10 +9999,10 @@
         <v>40</v>
       </c>
       <c r="AE67" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AF67" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AG67" t="n">
         <v>23</v>
@@ -10014,19 +10014,19 @@
         <v>900</v>
       </c>
       <c r="AJ67" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK67" t="n">
         <v>37</v>
       </c>
       <c r="AL67" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM67" t="n">
         <v>150</v>
       </c>
       <c r="AN67" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO67" t="n">
         <v>100</v>
@@ -10068,28 +10068,28 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="H68" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I68" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
         <v>3.25</v>
       </c>
       <c r="K68" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L68" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M68" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N68" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O68" t="n">
         <v>1.5</v>
@@ -10104,10 +10104,10 @@
         <v>1.5</v>
       </c>
       <c r="S68" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="T68" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U68" t="n">
         <v>1.52</v>
@@ -10116,22 +10116,22 @@
         <v>2.37</v>
       </c>
       <c r="W68" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X68" t="n">
         <v>1.72</v>
       </c>
       <c r="Y68" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="Z68" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA68" t="n">
         <v>10.25</v>
       </c>
       <c r="AB68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC68" t="n">
         <v>26</v>
@@ -10140,10 +10140,10 @@
         <v>45</v>
       </c>
       <c r="AE68" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AF68" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AG68" t="n">
         <v>16.5</v>
@@ -10155,19 +10155,19 @@
         <v>900</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AK68" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL68" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM68" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN68" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO68" t="n">
         <v>45</v>
@@ -10239,10 +10239,10 @@
         <v>2.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R69" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S69" t="n">
         <v>4.33</v>
@@ -10251,10 +10251,10 @@
         <v>1.2</v>
       </c>
       <c r="U69" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V69" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W69" t="n">
         <v>1.91</v>
@@ -10281,10 +10281,10 @@
         <v>34</v>
       </c>
       <c r="AE69" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF69" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG69" t="n">
         <v>15</v>
@@ -10296,7 +10296,7 @@
         <v>351</v>
       </c>
       <c r="AJ69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK69" t="n">
         <v>15</v>
@@ -10350,22 +10350,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="H70" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I70" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="J70" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="K70" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L70" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M70" t="n">
         <v>1.05</v>
@@ -10377,7 +10377,7 @@
         <v>1.25</v>
       </c>
       <c r="P70" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q70" t="n">
         <v>1.75</v>
@@ -10392,43 +10392,43 @@
         <v>1.4</v>
       </c>
       <c r="U70" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V70" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="W70" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X70" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Y70" t="n">
         <v>9.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA70" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB70" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC70" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD70" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE70" t="n">
         <v>7.7</v>
       </c>
       <c r="AF70" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AG70" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH70" t="n">
         <v>45</v>
@@ -10437,22 +10437,22 @@
         <v>300</v>
       </c>
       <c r="AJ70" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK70" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL70" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM70" t="n">
         <v>35</v>
       </c>
       <c r="AN70" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO70" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
@@ -10491,10 +10491,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H71" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I71" t="n">
         <v>3.6</v>
@@ -10503,49 +10503,49 @@
         <v>2.37</v>
       </c>
       <c r="K71" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N71" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X71" t="n">
         <v>2.32</v>
       </c>
-      <c r="L71" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N71" t="n">
-        <v>9</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P71" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R71" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S71" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U71" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V71" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W71" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X71" t="n">
-        <v>2.37</v>
-      </c>
       <c r="Y71" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z71" t="n">
         <v>11</v>
@@ -10554,19 +10554,19 @@
         <v>8.25</v>
       </c>
       <c r="AB71" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF71" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AG71" t="n">
         <v>12</v>
@@ -10575,25 +10575,25 @@
         <v>40</v>
       </c>
       <c r="AI71" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ71" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL71" t="n">
         <v>12</v>
       </c>
       <c r="AM71" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN71" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO71" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="inlineStr"/>
@@ -10632,85 +10632,85 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="H72" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I72" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="J72" t="n">
         <v>2.92</v>
       </c>
       <c r="K72" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L72" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="M72" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O72" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P72" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R72" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S72" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="T72" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="U72" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="V72" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="W72" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X72" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="Y72" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Z72" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB72" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC72" t="n">
         <v>17.5</v>
       </c>
       <c r="AD72" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF72" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AG72" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH72" t="n">
         <v>40</v>
@@ -10719,22 +10719,22 @@
         <v>250</v>
       </c>
       <c r="AJ72" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK72" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL72" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM72" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AN72" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO72" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP72" t="inlineStr"/>
       <c r="AQ72" t="inlineStr"/>
@@ -10914,7 +10914,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H74" t="n">
         <v>4.5</v>
@@ -10923,10 +10923,10 @@
         <v>6</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K74" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L74" t="n">
         <v>6</v>
@@ -10938,22 +10938,22 @@
         <v>15</v>
       </c>
       <c r="O74" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P74" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R74" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S74" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T74" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U74" t="n">
         <v>1.3</v>
@@ -10986,10 +10986,10 @@
         <v>23</v>
       </c>
       <c r="AE74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF74" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG74" t="n">
         <v>17</v>
@@ -10998,7 +10998,7 @@
         <v>51</v>
       </c>
       <c r="AI74" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ74" t="n">
         <v>17</v>
@@ -11020,8 +11020,12 @@
       </c>
       <c r="AP74" t="inlineStr"/>
       <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="inlineStr"/>
+      <c r="AR74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11199,61 +11203,61 @@
         <v>8.25</v>
       </c>
       <c r="H76" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I76" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="J76" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K76" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="L76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N76" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T76" t="n">
         <v>1.65</v>
       </c>
-      <c r="M76" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N76" t="n">
-        <v>10</v>
-      </c>
-      <c r="O76" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P76" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R76" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="S76" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.82</v>
-      </c>
       <c r="U76" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="V76" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="W76" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="X76" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="Y76" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z76" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA76" t="n">
         <v>26</v>
@@ -11265,40 +11269,40 @@
         <v>80</v>
       </c>
       <c r="AD76" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE76" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AN76" t="n">
         <v>10.25</v>
       </c>
-      <c r="AF76" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>350</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>10</v>
-      </c>
       <c r="AO76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
@@ -11478,22 +11482,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="H78" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="I78" t="n">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="J78" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="K78" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L78" t="n">
-        <v>4.1</v>
+        <v>4.45</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -11502,49 +11506,49 @@
         <v>9</v>
       </c>
       <c r="O78" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P78" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R78" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S78" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T78" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U78" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V78" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W78" t="n">
         <v>1.62</v>
       </c>
       <c r="X78" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
       </c>
       <c r="Z78" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA78" t="n">
         <v>8.25</v>
       </c>
       <c r="AB78" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC78" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD78" t="n">
         <v>21</v>
@@ -11553,10 +11557,10 @@
         <v>9</v>
       </c>
       <c r="AF78" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AG78" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH78" t="n">
         <v>50</v>
@@ -11565,22 +11569,22 @@
         <v>300</v>
       </c>
       <c r="AJ78" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL78" t="n">
         <v>14.5</v>
       </c>
-      <c r="AK78" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>13</v>
-      </c>
       <c r="AM78" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AN78" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO78" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -854,7 +854,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>1.08</v>
@@ -863,16 +863,16 @@
         <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
         <v>1.18</v>
@@ -1010,10 +1010,10 @@
         <v>4.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>1.14</v>
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
@@ -1145,10 +1145,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="R5" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S5" t="n">
         <v>3.5</v>
@@ -1181,7 +1181,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
@@ -1403,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
@@ -1415,10 +1415,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1451,19 +1451,19 @@
         <v>1.67</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD7" t="n">
         <v>41</v>
@@ -1508,7 +1508,7 @@
         <v>1.85</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AS7" t="n">
         <v>1.21</v>
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
         <v>2.55</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
         <v>4.5</v>
@@ -2157,7 +2157,7 @@
         <v>1.73</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.22</v>
@@ -2199,10 +2199,10 @@
         <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
@@ -2220,7 +2220,7 @@
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH12" t="n">
         <v>151</v>
@@ -2230,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="AK12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL12" t="n">
         <v>13</v>
@@ -2281,40 +2281,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
         <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
         <v>1.8</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.17</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
         <v>7</v>
@@ -2335,19 +2335,19 @@
         <v>1.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD13" t="n">
         <v>51</v>
@@ -2356,10 +2356,10 @@
         <v>4.75</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
         <v>101</v>
@@ -2369,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
@@ -2420,16 +2420,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
         <v>2.5</v>
       </c>
       <c r="I14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.75</v>
       </c>
       <c r="K14" t="n">
         <v>1.67</v>
@@ -2438,16 +2438,16 @@
         <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
         <v>4.2</v>
@@ -2456,16 +2456,16 @@
         <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W14" t="n">
         <v>3</v>
@@ -2477,16 +2477,16 @@
         <v>4.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD14" t="n">
         <v>67</v>
@@ -2849,13 +2849,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -2879,10 +2879,10 @@
         <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
         <v>3.5</v>
@@ -2906,7 +2906,7 @@
         <v>7.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
         <v>9</v>
@@ -2921,10 +2921,10 @@
         <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG17" t="n">
         <v>15</v>
@@ -2942,7 +2942,7 @@
         <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
@@ -2951,7 +2951,7 @@
         <v>29</v>
       </c>
       <c r="AO17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2994,28 +2994,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
         <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3024,16 +3024,16 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U18" t="n">
         <v>1.4</v>
@@ -3042,13 +3042,13 @@
         <v>2.75</v>
       </c>
       <c r="W18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
         <v>11</v>
@@ -3060,31 +3060,31 @@
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
         <v>6.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
         <v>201</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>11</v>
@@ -3093,10 +3093,10 @@
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3135,22 +3135,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J19" t="n">
         <v>2.88</v>
       </c>
       <c r="K19" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3177,25 +3177,25 @@
         <v>1.44</v>
       </c>
       <c r="U19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V19" t="n">
         <v>3.25</v>
       </c>
       <c r="W19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA19" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>9</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
@@ -3213,16 +3213,16 @@
         <v>7</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
@@ -3276,46 +3276,46 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
         <v>5</v>
       </c>
-      <c r="J20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U20" t="n">
         <v>1.44</v>
@@ -3339,10 +3339,10 @@
         <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
         <v>34</v>
@@ -3463,7 +3463,7 @@
         <v>1.13</v>
       </c>
       <c r="U21" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V21" t="n">
         <v>2.2</v>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3579,13 +3579,13 @@
         <v>7.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
@@ -3612,7 +3612,7 @@
         <v>1.22</v>
       </c>
       <c r="U22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V22" t="n">
         <v>2.5</v>
@@ -3633,7 +3633,7 @@
         <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
@@ -3642,7 +3642,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF22" t="n">
         <v>8</v>
@@ -3657,16 +3657,16 @@
         <v>101</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
         <v>23</v>
       </c>
       <c r="AM22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN22" t="n">
         <v>67</v>
@@ -3719,13 +3719,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="H23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J23" t="n">
         <v>1.5</v>
@@ -3734,49 +3734,49 @@
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R23" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
         <v>1.22</v>
       </c>
       <c r="V23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA23" t="n">
         <v>11</v>
@@ -3785,7 +3785,7 @@
         <v>6.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>34</v>
@@ -3794,34 +3794,34 @@
         <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="n">
         <v>101</v>
       </c>
       <c r="AJ23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL23" t="n">
         <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AO23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3864,19 +3864,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
         <v>1.3</v>
       </c>
       <c r="J24" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="L24" t="n">
         <v>1.72</v>
@@ -3891,7 +3891,7 @@
         <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="Q24" t="n">
         <v>1.57</v>
@@ -3900,10 +3900,10 @@
         <v>2.3</v>
       </c>
       <c r="S24" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="T24" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U24" t="n">
         <v>1.31</v>
@@ -3918,19 +3918,19 @@
         <v>1.78</v>
       </c>
       <c r="Y24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AA24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB24" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AC24" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD24" t="n">
         <v>100</v>
@@ -3945,28 +3945,28 @@
         <v>23</v>
       </c>
       <c r="AH24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI24" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AK24" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AL24" t="n">
         <v>9</v>
       </c>
       <c r="AM24" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AN24" t="n">
         <v>11.25</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -4287,85 +4287,85 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="K27" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="L27" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N27" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="O27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P27" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="R27" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V27" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="W27" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="X27" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AA27" t="n">
         <v>9.25</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC27" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD27" t="n">
         <v>50</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
         <v>175</v>
@@ -4374,13 +4374,13 @@
         <v>101</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AM27" t="n">
         <v>120</v>
@@ -4431,13 +4431,13 @@
         <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="J28" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="K28" t="n">
         <v>2.15</v>
@@ -4449,7 +4449,7 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.37</v>
@@ -4473,16 +4473,16 @@
         <v>1.42</v>
       </c>
       <c r="V28" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="W28" t="n">
         <v>2.18</v>
       </c>
       <c r="X28" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z28" t="n">
         <v>6.1</v>
@@ -4500,13 +4500,13 @@
         <v>35</v>
       </c>
       <c r="AE28" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AG28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH28" t="n">
         <v>120</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
         <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J29" t="n">
         <v>2.38</v>
@@ -4593,10 +4593,10 @@
         <v>11</v>
       </c>
       <c r="O29" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
@@ -4617,13 +4617,13 @@
         <v>2.75</v>
       </c>
       <c r="W29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X29" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z29" t="n">
         <v>8</v>
@@ -4638,7 +4638,7 @@
         <v>15</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
         <v>10</v>
@@ -4710,28 +4710,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J30" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
@@ -4743,7 +4743,7 @@
         <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
         <v>3.5</v>
@@ -4773,10 +4773,10 @@
         <v>9.5</v>
       </c>
       <c r="AB30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC30" t="n">
         <v>21</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>19</v>
       </c>
       <c r="AD30" t="n">
         <v>29</v>
@@ -4797,7 +4797,7 @@
         <v>251</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
@@ -4806,10 +4806,10 @@
         <v>11</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
         <v>34</v>
@@ -4857,10 +4857,10 @@
         <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
@@ -4914,7 +4914,7 @@
         <v>9</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
         <v>19</v>
@@ -4938,7 +4938,7 @@
         <v>351</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -4992,16 +4992,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J32" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
         <v>2.1</v>
@@ -5022,16 +5022,16 @@
         <v>3.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R32" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S32" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U32" t="n">
         <v>1.44</v>
@@ -5049,7 +5049,7 @@
         <v>10</v>
       </c>
       <c r="Z32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA32" t="n">
         <v>13</v>
@@ -5058,7 +5058,7 @@
         <v>41</v>
       </c>
       <c r="AC32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD32" t="n">
         <v>41</v>
@@ -5067,7 +5067,7 @@
         <v>9</v>
       </c>
       <c r="AF32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
@@ -5076,7 +5076,7 @@
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ32" t="n">
         <v>7</v>
@@ -5088,7 +5088,7 @@
         <v>9</v>
       </c>
       <c r="AM32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN32" t="n">
         <v>17</v>
@@ -5136,7 +5136,7 @@
         <v>1.6</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I33" t="n">
         <v>5</v>
@@ -5145,22 +5145,22 @@
         <v>2.2</v>
       </c>
       <c r="K33" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q33" t="n">
         <v>1.7</v>
@@ -5169,10 +5169,10 @@
         <v>2.1</v>
       </c>
       <c r="S33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U33" t="n">
         <v>1.33</v>
@@ -5181,10 +5181,10 @@
         <v>3.25</v>
       </c>
       <c r="W33" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X33" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y33" t="n">
         <v>6</v>
@@ -5418,10 +5418,10 @@
         <v>1.85</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
         <v>2.5</v>
@@ -5430,7 +5430,7 @@
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -5445,16 +5445,16 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R35" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U35" t="n">
         <v>1.4</v>
@@ -5463,10 +5463,10 @@
         <v>2.75</v>
       </c>
       <c r="W35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y35" t="n">
         <v>7.5</v>
@@ -5487,7 +5487,7 @@
         <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF35" t="n">
         <v>7</v>
@@ -5499,7 +5499,7 @@
         <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ35" t="n">
         <v>12</v>
@@ -5556,13 +5556,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
         <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
         <v>3.75</v>
@@ -5571,7 +5571,7 @@
         <v>2.3</v>
       </c>
       <c r="L36" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -5580,28 +5580,28 @@
         <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S36" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W36" t="n">
         <v>1.57</v>
@@ -5619,7 +5619,7 @@
         <v>12</v>
       </c>
       <c r="AB36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC36" t="n">
         <v>23</v>
@@ -5634,16 +5634,16 @@
         <v>7.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
         <v>41</v>
       </c>
       <c r="AI36" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK36" t="n">
         <v>11</v>
@@ -5731,10 +5731,10 @@
         <v>4.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R37" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S37" t="n">
         <v>2.5</v>
@@ -5808,10 +5808,10 @@
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="38">
@@ -5846,13 +5846,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H38" t="n">
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J38" t="n">
         <v>2.5</v>
@@ -5864,10 +5864,10 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O38" t="n">
         <v>1.2</v>
@@ -5876,10 +5876,10 @@
         <v>4.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R38" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S38" t="n">
         <v>2.63</v>
@@ -5894,16 +5894,16 @@
         <v>3.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA38" t="n">
         <v>8.5</v>
@@ -5930,7 +5930,7 @@
         <v>41</v>
       </c>
       <c r="AI38" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ38" t="n">
         <v>15</v>
@@ -5945,10 +5945,10 @@
         <v>41</v>
       </c>
       <c r="AN38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO38" t="n">
         <v>29</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>34</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -6402,16 +6402,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
@@ -6420,10 +6420,10 @@
         <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
@@ -6465,7 +6465,7 @@
         <v>10</v>
       </c>
       <c r="AB42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC42" t="n">
         <v>21</v>
@@ -6489,10 +6489,10 @@
         <v>251</v>
       </c>
       <c r="AJ42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL42" t="n">
         <v>11</v>
@@ -6501,7 +6501,7 @@
         <v>29</v>
       </c>
       <c r="AN42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO42" t="n">
         <v>34</v>
@@ -6824,31 +6824,31 @@
         <v>2.5</v>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S45" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T45" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U45" t="n">
         <v>1.3</v>
@@ -6884,7 +6884,7 @@
         <v>15</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG45" t="n">
         <v>19</v>
@@ -6902,7 +6902,7 @@
         <v>34</v>
       </c>
       <c r="AL45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM45" t="n">
         <v>67</v>
@@ -6916,10 +6916,10 @@
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="46">
@@ -6963,31 +6963,31 @@
         <v>2.63</v>
       </c>
       <c r="J46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q46" t="n">
         <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S46" t="n">
         <v>3.5</v>
@@ -7026,7 +7026,7 @@
         <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF46" t="n">
         <v>6.5</v>
@@ -7095,101 +7095,101 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J47" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K47" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L47" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P47" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R47" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="S47" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="T47" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="X47" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="Y47" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z47" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z47" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AA47" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC47" t="n">
         <v>13</v>
       </c>
       <c r="AD47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE47" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AG47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH47" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AI47" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AJ47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK47" t="n">
         <v>26</v>
       </c>
       <c r="AL47" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN47" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AO47" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -7228,16 +7228,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H48" t="n">
         <v>2.88</v>
       </c>
       <c r="I48" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
         <v>1.91</v>
@@ -7246,22 +7246,22 @@
         <v>3.4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R48" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S48" t="n">
         <v>5.5</v>
@@ -7276,10 +7276,10 @@
         <v>2.25</v>
       </c>
       <c r="W48" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X48" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y48" t="n">
         <v>7</v>
@@ -7291,7 +7291,7 @@
         <v>12</v>
       </c>
       <c r="AB48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC48" t="n">
         <v>29</v>
@@ -7309,13 +7309,13 @@
         <v>19</v>
       </c>
       <c r="AH48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="n">
         <v>101</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK48" t="n">
         <v>11</v>
@@ -7324,7 +7324,7 @@
         <v>11</v>
       </c>
       <c r="AM48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN48" t="n">
         <v>26</v>
@@ -7333,10 +7333,10 @@
         <v>41</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
@@ -7397,16 +7397,16 @@
         <v>10</v>
       </c>
       <c r="O49" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R49" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S49" t="n">
         <v>3.75</v>
@@ -7520,7 +7520,7 @@
         <v>3.8</v>
       </c>
       <c r="I50" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J50" t="n">
         <v>2.3</v>
@@ -7532,10 +7532,10 @@
         <v>4.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O50" t="n">
         <v>1.2</v>
@@ -7604,13 +7604,13 @@
         <v>15</v>
       </c>
       <c r="AK50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL50" t="n">
         <v>15</v>
       </c>
       <c r="AM50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN50" t="n">
         <v>34</v>
@@ -7659,22 +7659,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H51" t="n">
         <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J51" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K51" t="n">
         <v>2.25</v>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -7728,7 +7728,7 @@
         <v>13</v>
       </c>
       <c r="AD51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE51" t="n">
         <v>11</v>
@@ -7749,7 +7749,7 @@
         <v>13</v>
       </c>
       <c r="AK51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL51" t="n">
         <v>15</v>
@@ -7758,7 +7758,7 @@
         <v>51</v>
       </c>
       <c r="AN51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO51" t="n">
         <v>41</v>
@@ -7806,7 +7806,7 @@
         <v>3.8</v>
       </c>
       <c r="I52" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J52" t="n">
         <v>2.4</v>
@@ -7824,10 +7824,10 @@
         <v>19</v>
       </c>
       <c r="O52" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P52" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q52" t="n">
         <v>1.48</v>
@@ -7875,7 +7875,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG52" t="n">
         <v>11</v>
@@ -7887,7 +7887,7 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK52" t="n">
         <v>23</v>
@@ -7941,22 +7941,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I53" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K53" t="n">
         <v>2.5</v>
       </c>
       <c r="L53" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
         <v>1.02</v>
@@ -8007,7 +8007,7 @@
         <v>15</v>
       </c>
       <c r="AC53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD53" t="n">
         <v>19</v>
@@ -8016,7 +8016,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG53" t="n">
         <v>12</v>
@@ -8028,13 +8028,13 @@
         <v>101</v>
       </c>
       <c r="AJ53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK53" t="n">
         <v>26</v>
       </c>
       <c r="AL53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM53" t="n">
         <v>41</v>
@@ -8235,16 +8235,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J55" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K55" t="n">
         <v>2.25</v>
@@ -8295,7 +8295,7 @@
         <v>15</v>
       </c>
       <c r="AA55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB55" t="n">
         <v>29</v>
@@ -8334,7 +8334,7 @@
         <v>23</v>
       </c>
       <c r="AN55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO55" t="n">
         <v>23</v>
@@ -8676,10 +8676,10 @@
         <v>4.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O58" t="n">
         <v>1.3</v>
@@ -8940,19 +8940,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H60" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I60" t="n">
         <v>5.4</v>
       </c>
       <c r="J60" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="K60" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="L60" t="n">
         <v>4.9</v>
@@ -8961,7 +8961,7 @@
         <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="O60" t="n">
         <v>1.12</v>
@@ -8970,31 +8970,31 @@
         <v>5.3</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R60" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="S60" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T60" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U60" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="V60" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="W60" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X60" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="Y60" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z60" t="n">
         <v>9.5</v>
@@ -9003,28 +9003,28 @@
         <v>8.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC60" t="n">
         <v>10.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF60" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AG60" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH60" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI60" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ60" t="n">
         <v>24</v>
@@ -9033,7 +9033,7 @@
         <v>40</v>
       </c>
       <c r="AL60" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM60" t="n">
         <v>100</v>
@@ -9042,7 +9042,7 @@
         <v>45</v>
       </c>
       <c r="AO60" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9081,105 +9081,105 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.3</v>
+        <v>8.75</v>
       </c>
       <c r="H61" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="I61" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="J61" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="K61" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L61" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P61" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="R61" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="S61" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="T61" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U61" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="V61" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="W61" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X61" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="Y61" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z61" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>250</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="n">
         <v>50</v>
       </c>
-      <c r="AA61" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>120</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>37</v>
-      </c>
       <c r="AE61" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF61" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH61" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI61" t="n">
         <v>200</v>
       </c>
       <c r="AJ61" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM61" t="n">
         <v>10.25</v>
       </c>
-      <c r="AL61" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AN61" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AO61" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
@@ -9371,16 +9371,16 @@
         <v>1.67</v>
       </c>
       <c r="K63" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L63" t="n">
         <v>8</v>
       </c>
       <c r="M63" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N63" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O63" t="n">
         <v>1.17</v>
@@ -9413,7 +9413,7 @@
         <v>1.67</v>
       </c>
       <c r="Y63" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z63" t="n">
         <v>6.5</v>
@@ -9425,7 +9425,7 @@
         <v>7.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD63" t="n">
         <v>29</v>
@@ -9440,7 +9440,7 @@
         <v>26</v>
       </c>
       <c r="AH63" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI63" t="n">
         <v>1000</v>
@@ -9466,10 +9466,10 @@
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
       <c r="AR63" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="64">
@@ -9504,28 +9504,28 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="H64" t="n">
+        <v>6</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L64" t="n">
         <v>6.5</v>
       </c>
-      <c r="I64" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7.5</v>
-      </c>
       <c r="M64" t="n">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="N64" t="n">
-        <v>13</v>
+        <v>1.02</v>
       </c>
       <c r="O64" t="n">
         <v>1.1</v>
@@ -9546,34 +9546,34 @@
         <v>1.83</v>
       </c>
       <c r="U64" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V64" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W64" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="X64" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Y64" t="n">
         <v>11</v>
       </c>
       <c r="Z64" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC64" t="n">
         <v>11</v>
       </c>
       <c r="AD64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE64" t="n">
         <v>23</v>
@@ -9582,31 +9582,31 @@
         <v>13</v>
       </c>
       <c r="AG64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH64" t="n">
         <v>51</v>
       </c>
       <c r="AI64" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AJ64" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL64" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM64" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
@@ -10068,82 +10068,82 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J68" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="K68" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L68" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="M68" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N68" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O68" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U68" t="n">
         <v>1.5</v>
       </c>
-      <c r="P68" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R68" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S68" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T68" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U68" t="n">
-        <v>1.52</v>
-      </c>
       <c r="V68" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W68" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X68" t="n">
         <v>1.72</v>
       </c>
       <c r="Y68" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA68" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AB68" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AC68" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AD68" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AE68" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AF68" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AG68" t="n">
         <v>16.5</v>
@@ -10155,22 +10155,22 @@
         <v>900</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AK68" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AL68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM68" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN68" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AO68" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="inlineStr"/>
@@ -10209,7 +10209,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>3</v>
@@ -10218,7 +10218,7 @@
         <v>3.4</v>
       </c>
       <c r="J69" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
@@ -10239,22 +10239,22 @@
         <v>2.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R69" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S69" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T69" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U69" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V69" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W69" t="n">
         <v>1.91</v>
@@ -10269,7 +10269,7 @@
         <v>10</v>
       </c>
       <c r="AA69" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB69" t="n">
         <v>21</v>
@@ -10281,10 +10281,10 @@
         <v>34</v>
       </c>
       <c r="AE69" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG69" t="n">
         <v>15</v>
@@ -10296,7 +10296,7 @@
         <v>351</v>
       </c>
       <c r="AJ69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK69" t="n">
         <v>15</v>
@@ -10359,13 +10359,13 @@
         <v>2.85</v>
       </c>
       <c r="J70" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K70" t="n">
         <v>2.1</v>
       </c>
       <c r="L70" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="M70" t="n">
         <v>1.05</v>
@@ -10377,7 +10377,7 @@
         <v>1.25</v>
       </c>
       <c r="P70" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q70" t="n">
         <v>1.75</v>
@@ -10398,16 +10398,16 @@
         <v>2.8</v>
       </c>
       <c r="W70" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X70" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Y70" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z70" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA70" t="n">
         <v>9</v>
@@ -10416,7 +10416,7 @@
         <v>26</v>
       </c>
       <c r="AC70" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD70" t="n">
         <v>23</v>
@@ -10437,7 +10437,7 @@
         <v>300</v>
       </c>
       <c r="AJ70" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK70" t="n">
         <v>15.5</v>
@@ -10449,10 +10449,10 @@
         <v>35</v>
       </c>
       <c r="AN70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO70" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
@@ -10491,43 +10491,43 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I71" t="n">
         <v>3.65</v>
       </c>
-      <c r="I71" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J71" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="K71" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L71" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="M71" t="n">
         <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O71" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P71" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q71" t="n">
         <v>1.6</v>
       </c>
       <c r="R71" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S71" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T71" t="n">
         <v>1.5</v>
@@ -10539,16 +10539,16 @@
         <v>3.15</v>
       </c>
       <c r="W71" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X71" t="n">
         <v>2.32</v>
       </c>
       <c r="Y71" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA71" t="n">
         <v>8.25</v>
@@ -10560,16 +10560,16 @@
         <v>13.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE71" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AG71" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH71" t="n">
         <v>40</v>
@@ -10578,22 +10578,22 @@
         <v>250</v>
       </c>
       <c r="AJ71" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL71" t="n">
         <v>12</v>
       </c>
       <c r="AM71" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN71" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO71" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="inlineStr"/>
@@ -10938,22 +10938,22 @@
         <v>15</v>
       </c>
       <c r="O74" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P74" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R74" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S74" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T74" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U74" t="n">
         <v>1.3</v>
@@ -11059,22 +11059,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I75" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K75" t="n">
         <v>2.1</v>
       </c>
       <c r="L75" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M75" t="n">
         <v>1.06</v>
@@ -11089,10 +11089,10 @@
         <v>3.25</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R75" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S75" t="n">
         <v>3.75</v>
@@ -11107,25 +11107,25 @@
         <v>2.63</v>
       </c>
       <c r="W75" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X75" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y75" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AA75" t="n">
         <v>9</v>
       </c>
       <c r="AB75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD75" t="n">
         <v>29</v>
@@ -11137,28 +11137,28 @@
         <v>6.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH75" t="n">
         <v>51</v>
       </c>
       <c r="AI75" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK75" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM75" t="n">
         <v>41</v>
       </c>
       <c r="AN75" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AO75" t="n">
         <v>41</v>
@@ -11200,40 +11200,40 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="H76" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="I76" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="J76" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="K76" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="L76" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="M76" t="n">
         <v>1.03</v>
       </c>
       <c r="N76" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O76" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P76" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R76" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="S76" t="n">
         <v>2.1</v>
@@ -11242,67 +11242,67 @@
         <v>1.65</v>
       </c>
       <c r="U76" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="V76" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W76" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="X76" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Y76" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z76" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>175</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH76" t="n">
         <v>60</v>
       </c>
-      <c r="AA76" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>75</v>
-      </c>
       <c r="AI76" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AJ76" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK76" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AL76" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AM76" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AN76" t="n">
         <v>10.25</v>
       </c>
       <c r="AO76" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
@@ -11485,19 +11485,19 @@
         <v>1.62</v>
       </c>
       <c r="H78" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
         <v>4.25</v>
       </c>
       <c r="J78" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="K78" t="n">
         <v>2.4</v>
       </c>
       <c r="L78" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -11509,7 +11509,7 @@
         <v>1.19</v>
       </c>
       <c r="P78" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="Q78" t="n">
         <v>1.57</v>
@@ -11518,22 +11518,22 @@
         <v>2.25</v>
       </c>
       <c r="S78" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="T78" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U78" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V78" t="n">
         <v>3.25</v>
       </c>
       <c r="W78" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X78" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -11560,31 +11560,31 @@
         <v>8.25</v>
       </c>
       <c r="AG78" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI78" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AJ78" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK78" t="n">
         <v>27</v>
       </c>
       <c r="AL78" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM78" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN78" t="n">
         <v>35</v>
       </c>
       <c r="AO78" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.2</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -752,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
@@ -779,22 +779,22 @@
         <v>301</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
         <v>1.8</v>
@@ -857,10 +857,10 @@
         <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q3" t="n">
         <v>1.29</v>
@@ -875,37 +875,37 @@
         <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="V3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB3" t="n">
         <v>13</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
@@ -917,7 +917,7 @@
         <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -926,7 +926,7 @@
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
@@ -935,7 +935,7 @@
         <v>41</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H4" t="n">
         <v>11</v>
@@ -983,13 +983,13 @@
         <v>19</v>
       </c>
       <c r="J4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1034,10 +1034,10 @@
         <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1052,16 +1052,16 @@
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
         <v>67</v>
       </c>
       <c r="AI4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
         <v>81</v>
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
@@ -1130,13 +1130,13 @@
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1145,16 +1145,16 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U5" t="n">
         <v>1.44</v>
@@ -1181,7 +1181,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
@@ -1205,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL5" t="n">
         <v>9</v>
@@ -1256,16 +1256,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
         <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1304,22 +1304,22 @@
         <v>2.63</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y6" t="n">
         <v>6</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA6" t="n">
         <v>8.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
@@ -1337,7 +1337,7 @@
         <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="n">
         <v>501</v>
@@ -1349,7 +1349,7 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>81</v>
@@ -1412,7 +1412,7 @@
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1421,16 +1421,16 @@
         <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>5.5</v>
@@ -1502,10 +1502,10 @@
         <v>41</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR7" t="n">
         <v>4.4</v>
@@ -1719,10 +1719,10 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
         <v>3.1</v>
@@ -1844,28 +1844,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>
@@ -1892,10 +1892,10 @@
         <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y10" t="n">
         <v>7.5</v>
@@ -1916,7 +1916,7 @@
         <v>51</v>
       </c>
       <c r="AE10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF10" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.88</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.8</v>
-      </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -2035,16 +2035,16 @@
         <v>1.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y11" t="n">
         <v>6</v>
@@ -2056,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
         <v>34</v>
@@ -2065,13 +2065,13 @@
         <v>51</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH11" t="n">
         <v>101</v>
@@ -2083,7 +2083,7 @@
         <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2092,7 +2092,7 @@
         <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
         <v>51</v>
@@ -2160,10 +2160,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="O12" t="n">
         <v>1.83</v>
@@ -2281,22 +2281,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
         <v>1.8</v>
       </c>
       <c r="L13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>1.17</v>
@@ -2338,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>11</v>
@@ -2366,13 +2366,13 @@
       </c>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL13" t="n">
         <v>17</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>15</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
@@ -2381,7 +2381,7 @@
         <v>41</v>
       </c>
       <c r="AO13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2426,7 +2426,7 @@
         <v>2.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
@@ -2435,7 +2435,7 @@
         <v>1.67</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>1.25</v>
@@ -2444,10 +2444,10 @@
         <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Q14" t="n">
         <v>4.2</v>
@@ -2456,16 +2456,16 @@
         <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
         <v>3</v>
@@ -2474,7 +2474,7 @@
         <v>1.36</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
         <v>9.5</v>
@@ -2505,19 +2505,19 @@
       </c>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO14" t="n">
         <v>81</v>
@@ -2849,22 +2849,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2891,31 +2891,31 @@
         <v>1.29</v>
       </c>
       <c r="U17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
         <v>9</v>
       </c>
       <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
         <v>19</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>17</v>
       </c>
       <c r="AD17" t="n">
         <v>29</v>
@@ -2927,13 +2927,13 @@
         <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
@@ -2945,10 +2945,10 @@
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
         <v>34</v>
@@ -3024,10 +3024,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
         <v>3</v>
@@ -3135,16 +3135,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
@@ -3159,34 +3159,34 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U19" t="n">
         <v>1.3</v>
       </c>
       <c r="V19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X19" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
@@ -3195,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
@@ -3204,13 +3204,13 @@
         <v>17</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG19" t="n">
         <v>12</v>
@@ -3222,7 +3222,7 @@
         <v>126</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>17</v>
@@ -3231,7 +3231,7 @@
         <v>11</v>
       </c>
       <c r="AM19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
         <v>21</v>
@@ -3241,8 +3241,12 @@
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
+      <c r="AR19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3463,7 +3467,7 @@
         <v>1.13</v>
       </c>
       <c r="U21" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V21" t="n">
         <v>2.2</v>
@@ -3570,22 +3574,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
@@ -3594,10 +3598,10 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>2.2</v>
@@ -3612,7 +3616,7 @@
         <v>1.22</v>
       </c>
       <c r="U22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V22" t="n">
         <v>2.5</v>
@@ -3627,13 +3631,13 @@
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB22" t="n">
         <v>9</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>9.5</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
@@ -3657,22 +3661,22 @@
         <v>101</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN22" t="n">
         <v>67</v>
       </c>
       <c r="AO22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP22" t="n">
         <v>1.69</v>
@@ -3719,22 +3723,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -3749,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R23" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S23" t="n">
         <v>2.1</v>
@@ -3761,16 +3765,16 @@
         <v>1.67</v>
       </c>
       <c r="U23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V23" t="n">
         <v>3.75</v>
       </c>
       <c r="W23" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="X23" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Y23" t="n">
         <v>9</v>
@@ -3779,28 +3783,28 @@
         <v>6.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC23" t="n">
         <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI23" t="n">
         <v>101</v>
@@ -3812,16 +3816,16 @@
         <v>67</v>
       </c>
       <c r="AL23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AO23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3864,22 +3868,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J24" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -3891,7 +3895,7 @@
         <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="Q24" t="n">
         <v>1.57</v>
@@ -3900,49 +3904,49 @@
         <v>2.3</v>
       </c>
       <c r="S24" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U24" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="V24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="X24" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Y24" t="n">
         <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB24" t="n">
         <v>350</v>
       </c>
       <c r="AC24" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD24" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE24" t="n">
         <v>9.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH24" t="n">
         <v>100</v>
@@ -3960,7 +3964,7 @@
         <v>9</v>
       </c>
       <c r="AM24" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AN24" t="n">
         <v>11.25</v>
@@ -4287,28 +4291,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H27" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="I27" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="n">
         <v>1.85</v>
       </c>
       <c r="L27" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.15</v>
       </c>
       <c r="N27" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="O27" t="n">
         <v>1.62</v>
@@ -4332,7 +4336,7 @@
         <v>1.62</v>
       </c>
       <c r="V27" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="W27" t="n">
         <v>2.35</v>
@@ -4341,16 +4345,16 @@
         <v>1.53</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AA27" t="n">
         <v>9.25</v>
       </c>
       <c r="AB27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC27" t="n">
         <v>20</v>
@@ -4359,10 +4363,10 @@
         <v>50</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
         <v>22</v>
@@ -4374,19 +4378,19 @@
         <v>101</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO27" t="n">
         <v>100</v>
@@ -4428,109 +4432,109 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="H28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S28" t="n">
         <v>3.7</v>
       </c>
-      <c r="I28" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="T28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W28" t="n">
         <v>2.1</v>
       </c>
-      <c r="R28" t="n">
+      <c r="X28" t="n">
         <v>1.65</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.62</v>
       </c>
       <c r="Y28" t="n">
         <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB28" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD28" t="n">
         <v>35</v>
       </c>
       <c r="AE28" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI28" t="n">
         <v>101</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL28" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AO28" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4569,16 +4573,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
         <v>4.75</v>
       </c>
       <c r="J29" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K29" t="n">
         <v>2.2</v>
@@ -4593,22 +4597,22 @@
         <v>11</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R29" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U29" t="n">
         <v>1.4</v>
@@ -4617,13 +4621,13 @@
         <v>2.75</v>
       </c>
       <c r="W29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X29" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z29" t="n">
         <v>8</v>
@@ -4635,13 +4639,13 @@
         <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>7</v>
@@ -4656,7 +4660,7 @@
         <v>301</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
@@ -4710,28 +4714,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
@@ -4743,7 +4747,7 @@
         <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
         <v>3.5</v>
@@ -4773,10 +4777,10 @@
         <v>9.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD30" t="n">
         <v>29</v>
@@ -4797,19 +4801,19 @@
         <v>251</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>34</v>
@@ -4851,13 +4855,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J31" t="n">
         <v>2.75</v>
@@ -4869,73 +4873,73 @@
         <v>4.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="R31" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA31" t="n">
         <v>9</v>
       </c>
       <c r="AB31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="n">
         <v>19</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>51</v>
       </c>
       <c r="AI31" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ31" t="n">
         <v>9.5</v>
@@ -4950,7 +4954,7 @@
         <v>41</v>
       </c>
       <c r="AN31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
         <v>41</v>
@@ -4992,16 +4996,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
         <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K32" t="n">
         <v>2.1</v>
@@ -5016,22 +5020,22 @@
         <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R32" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U32" t="n">
         <v>1.44</v>
@@ -5049,7 +5053,7 @@
         <v>10</v>
       </c>
       <c r="Z32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="n">
         <v>13</v>
@@ -5058,7 +5062,7 @@
         <v>41</v>
       </c>
       <c r="AC32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD32" t="n">
         <v>41</v>
@@ -5067,7 +5071,7 @@
         <v>9</v>
       </c>
       <c r="AF32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
@@ -5076,7 +5080,7 @@
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ32" t="n">
         <v>7</v>
@@ -5088,7 +5092,7 @@
         <v>9</v>
       </c>
       <c r="AM32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN32" t="n">
         <v>17</v>
@@ -5133,22 +5137,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K33" t="n">
         <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -5163,10 +5167,10 @@
         <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R33" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S33" t="n">
         <v>2.63</v>
@@ -5292,10 +5296,10 @@
         <v>3.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
         <v>1.29</v>
@@ -5430,7 +5434,7 @@
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -5439,16 +5443,16 @@
         <v>11</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R35" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S35" t="n">
         <v>3.25</v>
@@ -5457,16 +5461,16 @@
         <v>1.33</v>
       </c>
       <c r="U35" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V35" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W35" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X35" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Y35" t="n">
         <v>7.5</v>
@@ -5496,7 +5500,7 @@
         <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI35" t="n">
         <v>201</v>
@@ -5556,70 +5560,70 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J36" t="n">
         <v>3.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L36" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W36" t="n">
         <v>1.62</v>
       </c>
-      <c r="R36" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA36" t="n">
         <v>12</v>
       </c>
       <c r="AB36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC36" t="n">
         <v>23</v>
@@ -5628,22 +5632,22 @@
         <v>29</v>
       </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
         <v>41</v>
       </c>
       <c r="AI36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK36" t="n">
         <v>11</v>
@@ -5658,7 +5662,7 @@
         <v>15</v>
       </c>
       <c r="AO36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5707,13 +5711,13 @@
         <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J37" t="n">
         <v>3.5</v>
       </c>
       <c r="K37" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L37" t="n">
         <v>2.75</v>
@@ -5758,7 +5762,7 @@
         <v>13</v>
       </c>
       <c r="Z37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA37" t="n">
         <v>11</v>
@@ -5776,13 +5780,13 @@
         <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG37" t="n">
         <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI37" t="n">
         <v>126</v>
@@ -5808,10 +5812,10 @@
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="38">
@@ -6402,28 +6406,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
@@ -6465,10 +6469,10 @@
         <v>10</v>
       </c>
       <c r="AB42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC42" t="n">
         <v>23</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>21</v>
       </c>
       <c r="AD42" t="n">
         <v>34</v>
@@ -6489,10 +6493,10 @@
         <v>251</v>
       </c>
       <c r="AJ42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL42" t="n">
         <v>11</v>
@@ -6501,7 +6505,7 @@
         <v>29</v>
       </c>
       <c r="AN42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO42" t="n">
         <v>34</v>
@@ -6833,22 +6837,22 @@
         <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P45" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S45" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U45" t="n">
         <v>1.3</v>
@@ -7101,7 +7105,7 @@
         <v>3.7</v>
       </c>
       <c r="I47" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="J47" t="n">
         <v>2.25</v>
@@ -7110,7 +7114,7 @@
         <v>2.22</v>
       </c>
       <c r="L47" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -7165,7 +7169,7 @@
         <v>7.3</v>
       </c>
       <c r="AG47" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH47" t="n">
         <v>60</v>
@@ -7186,7 +7190,7 @@
         <v>70</v>
       </c>
       <c r="AN47" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO47" t="n">
         <v>40</v>
@@ -7228,13 +7232,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I48" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J48" t="n">
         <v>4</v>
@@ -7270,10 +7274,10 @@
         <v>1.14</v>
       </c>
       <c r="U48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W48" t="n">
         <v>2.2</v>
@@ -7288,19 +7292,19 @@
         <v>13</v>
       </c>
       <c r="AA48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB48" t="n">
         <v>34</v>
       </c>
       <c r="AC48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD48" t="n">
         <v>41</v>
       </c>
       <c r="AE48" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF48" t="n">
         <v>6</v>
@@ -7318,7 +7322,7 @@
         <v>6</v>
       </c>
       <c r="AK48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL48" t="n">
         <v>11</v>
@@ -7327,7 +7331,7 @@
         <v>23</v>
       </c>
       <c r="AN48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO48" t="n">
         <v>41</v>
@@ -7376,25 +7380,25 @@
         <v>1.38</v>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K49" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M49" t="n">
         <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O49" t="n">
         <v>1.33</v>
@@ -7403,49 +7407,49 @@
         <v>3.25</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R49" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S49" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T49" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U49" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V49" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W49" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X49" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA49" t="n">
         <v>9</v>
       </c>
       <c r="AB49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE49" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF49" t="n">
         <v>9</v>
@@ -7454,7 +7458,7 @@
         <v>26</v>
       </c>
       <c r="AH49" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="n">
         <v>101</v>
@@ -7463,16 +7467,16 @@
         <v>15</v>
       </c>
       <c r="AK49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL49" t="n">
         <v>23</v>
       </c>
       <c r="AM49" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO49" t="n">
         <v>67</v>
@@ -7514,22 +7518,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H50" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I50" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J50" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K50" t="n">
         <v>2.38</v>
       </c>
       <c r="L50" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
@@ -7562,22 +7566,22 @@
         <v>3.25</v>
       </c>
       <c r="W50" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z50" t="n">
         <v>9</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA50" t="n">
         <v>8.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC50" t="n">
         <v>13</v>
@@ -7586,13 +7590,13 @@
         <v>21</v>
       </c>
       <c r="AE50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF50" t="n">
         <v>7.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH50" t="n">
         <v>41</v>
@@ -7659,19 +7663,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H51" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J51" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K51" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L51" t="n">
         <v>4.75</v>
@@ -7689,16 +7693,16 @@
         <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U51" t="n">
         <v>1.36</v>
@@ -7722,13 +7726,13 @@
         <v>8.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE51" t="n">
         <v>11</v>
@@ -7800,22 +7804,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H52" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J52" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K52" t="n">
         <v>2.5</v>
       </c>
       <c r="L52" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M52" t="n">
         <v>1.02</v>
@@ -7824,10 +7828,10 @@
         <v>19</v>
       </c>
       <c r="O52" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P52" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q52" t="n">
         <v>1.48</v>
@@ -7863,7 +7867,7 @@
         <v>9</v>
       </c>
       <c r="AB52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC52" t="n">
         <v>13</v>
@@ -7887,7 +7891,7 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK52" t="n">
         <v>23</v>
@@ -7899,7 +7903,7 @@
         <v>41</v>
       </c>
       <c r="AN52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO52" t="n">
         <v>26</v>
@@ -7941,28 +7945,28 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="H53" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I53" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J53" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K53" t="n">
         <v>2.5</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M53" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O53" t="n">
         <v>1.14</v>
@@ -7989,22 +7993,22 @@
         <v>3.75</v>
       </c>
       <c r="W53" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X53" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z53" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB53" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC53" t="n">
         <v>13</v>
@@ -8019,19 +8023,19 @@
         <v>8</v>
       </c>
       <c r="AG53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI53" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="n">
         <v>17</v>
       </c>
       <c r="AK53" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL53" t="n">
         <v>13</v>
@@ -8040,18 +8044,18 @@
         <v>41</v>
       </c>
       <c r="AN53" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AO53" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP53" t="inlineStr"/>
       <c r="AQ53" t="inlineStr"/>
       <c r="AR53" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="54">
@@ -8235,16 +8239,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J55" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K55" t="n">
         <v>2.25</v>
@@ -8295,7 +8299,7 @@
         <v>15</v>
       </c>
       <c r="AA55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB55" t="n">
         <v>29</v>
@@ -8334,7 +8338,7 @@
         <v>23</v>
       </c>
       <c r="AN55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO55" t="n">
         <v>23</v>
@@ -8376,22 +8380,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="H56" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K56" t="n">
         <v>2.25</v>
       </c>
       <c r="L56" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -8418,10 +8422,10 @@
         <v>1.4</v>
       </c>
       <c r="U56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W56" t="n">
         <v>1.62</v>
@@ -8433,25 +8437,25 @@
         <v>9</v>
       </c>
       <c r="Z56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD56" t="n">
         <v>23</v>
       </c>
       <c r="AE56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF56" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG56" t="n">
         <v>12</v>
@@ -8466,19 +8470,19 @@
         <v>13</v>
       </c>
       <c r="AK56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM56" t="n">
         <v>41</v>
       </c>
       <c r="AN56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
@@ -8517,19 +8521,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J57" t="n">
         <v>3.6</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L57" t="n">
         <v>3.2</v>
@@ -8538,7 +8542,7 @@
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.36</v>
@@ -8547,22 +8551,22 @@
         <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R57" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T57" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U57" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V57" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W57" t="n">
         <v>1.91</v>
@@ -8589,7 +8593,7 @@
         <v>34</v>
       </c>
       <c r="AE57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF57" t="n">
         <v>6</v>
@@ -8658,22 +8662,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H58" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I58" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J58" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K58" t="n">
         <v>2.1</v>
       </c>
       <c r="L58" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
@@ -8688,16 +8692,16 @@
         <v>3.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R58" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T58" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U58" t="n">
         <v>1.44</v>
@@ -8718,7 +8722,7 @@
         <v>8.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB58" t="n">
         <v>15</v>
@@ -8730,7 +8734,7 @@
         <v>29</v>
       </c>
       <c r="AE58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF58" t="n">
         <v>6.5</v>
@@ -8754,10 +8758,10 @@
         <v>15</v>
       </c>
       <c r="AM58" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN58" t="n">
         <v>41</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>34</v>
       </c>
       <c r="AO58" t="n">
         <v>41</v>
@@ -9504,34 +9508,34 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H64" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J64" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K64" t="n">
         <v>2.75</v>
       </c>
       <c r="L64" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>1.02</v>
+        <v>13</v>
       </c>
       <c r="O64" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P64" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q64" t="n">
         <v>1.36</v>
@@ -9540,10 +9544,10 @@
         <v>3</v>
       </c>
       <c r="S64" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U64" t="n">
         <v>1.22</v>
@@ -9552,22 +9556,22 @@
         <v>4</v>
       </c>
       <c r="W64" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X64" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z64" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA64" t="n">
         <v>9.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC64" t="n">
         <v>11</v>
@@ -9579,13 +9583,13 @@
         <v>23</v>
       </c>
       <c r="AF64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI64" t="n">
         <v>151</v>
@@ -9600,7 +9604,7 @@
         <v>21</v>
       </c>
       <c r="AM64" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN64" t="n">
         <v>41</v>
@@ -10209,13 +10213,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J69" t="n">
         <v>3</v>
@@ -10230,7 +10234,7 @@
         <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -10299,13 +10303,13 @@
         <v>9</v>
       </c>
       <c r="AK69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL69" t="n">
         <v>13</v>
       </c>
       <c r="AM69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN69" t="n">
         <v>29</v>
@@ -10350,52 +10354,52 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="H70" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I70" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="J70" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K70" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L70" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M70" t="n">
         <v>1.05</v>
       </c>
       <c r="N70" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="O70" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P70" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R70" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S70" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="T70" t="n">
         <v>1.4</v>
       </c>
       <c r="U70" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="V70" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="W70" t="n">
         <v>1.57</v>
@@ -10422,10 +10426,10 @@
         <v>23</v>
       </c>
       <c r="AE70" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AF70" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AG70" t="n">
         <v>11.75</v>
@@ -10437,7 +10441,7 @@
         <v>300</v>
       </c>
       <c r="AJ70" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK70" t="n">
         <v>15.5</v>
@@ -10452,7 +10456,7 @@
         <v>23</v>
       </c>
       <c r="AO70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
@@ -10491,61 +10495,61 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H71" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I71" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J71" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="K71" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L71" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="M71" t="n">
         <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O71" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P71" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q71" t="n">
         <v>1.6</v>
       </c>
       <c r="R71" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S71" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T71" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U71" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="V71" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="W71" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X71" t="n">
         <v>2.32</v>
       </c>
       <c r="Y71" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z71" t="n">
         <v>10.75</v>
@@ -10554,22 +10558,22 @@
         <v>8.25</v>
       </c>
       <c r="AB71" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC71" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD71" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE71" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF71" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AG71" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH71" t="n">
         <v>40</v>
@@ -10578,22 +10582,22 @@
         <v>250</v>
       </c>
       <c r="AJ71" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK71" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL71" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM71" t="n">
         <v>55</v>
       </c>
       <c r="AN71" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO71" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="inlineStr"/>
@@ -10632,34 +10636,34 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="H72" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J72" t="n">
         <v>2.92</v>
       </c>
       <c r="K72" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L72" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O72" t="n">
         <v>1.23</v>
       </c>
       <c r="P72" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q72" t="n">
         <v>1.7</v>
@@ -10668,16 +10672,16 @@
         <v>2.05</v>
       </c>
       <c r="S72" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T72" t="n">
         <v>1.44</v>
       </c>
       <c r="U72" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="V72" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="W72" t="n">
         <v>1.55</v>
@@ -10686,49 +10690,49 @@
         <v>2.3</v>
       </c>
       <c r="Y72" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z72" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA72" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB72" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC72" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD72" t="n">
         <v>23</v>
       </c>
       <c r="AE72" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF72" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AG72" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH72" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI72" t="n">
         <v>250</v>
       </c>
       <c r="AJ72" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK72" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL72" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM72" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN72" t="n">
         <v>21</v>
@@ -10914,7 +10918,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H74" t="n">
         <v>4.5</v>
@@ -10923,19 +10927,19 @@
         <v>6</v>
       </c>
       <c r="J74" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L74" t="n">
         <v>6</v>
       </c>
       <c r="M74" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O74" t="n">
         <v>1.2</v>
@@ -10944,10 +10948,10 @@
         <v>4.33</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R74" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S74" t="n">
         <v>2.63</v>
@@ -10986,10 +10990,10 @@
         <v>23</v>
       </c>
       <c r="AE74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF74" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG74" t="n">
         <v>17</v>
@@ -10998,7 +11002,7 @@
         <v>51</v>
       </c>
       <c r="AI74" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ74" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K3" t="n">
         <v>2.88</v>
@@ -857,10 +857,10 @@
         <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="n">
         <v>1.29</v>
@@ -875,10 +875,10 @@
         <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="V3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="W3" t="n">
         <v>1.44</v>
@@ -893,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="n">
         <v>13</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="H4" t="n">
         <v>11</v>
@@ -989,31 +989,31 @@
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
         <v>1.14</v>
@@ -1022,22 +1022,22 @@
         <v>5.5</v>
       </c>
       <c r="W4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X4" t="n">
         <v>1.95</v>
       </c>
-      <c r="X4" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1052,16 +1052,16 @@
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
         <v>67</v>
       </c>
       <c r="AI4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK4" t="n">
         <v>81</v>
@@ -1073,10 +1073,10 @@
         <v>251</v>
       </c>
       <c r="AN4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -1115,28 +1115,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1151,10 +1151,10 @@
         <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U5" t="n">
         <v>1.44</v>
@@ -1169,28 +1169,28 @@
         <v>1.95</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>29</v>
       </c>
       <c r="AD5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1202,19 +1202,19 @@
         <v>251</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL5" t="n">
         <v>9</v>
       </c>
       <c r="AM5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>29</v>
@@ -1256,40 +1256,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
         <v>3.75</v>
@@ -1304,22 +1304,22 @@
         <v>2.63</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Y6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB6" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.5</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
@@ -1331,34 +1331,34 @@
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI6" t="n">
         <v>501</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1397,40 +1397,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
         <v>5.5</v>
@@ -1451,19 +1451,19 @@
         <v>1.67</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
         <v>41</v>
@@ -1478,34 +1478,34 @@
         <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="n">
         <v>101</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL7" t="n">
         <v>13</v>
       </c>
-      <c r="AL7" t="n">
-        <v>12</v>
-      </c>
       <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
         <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>29</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR7" t="n">
         <v>4.4</v>
@@ -1558,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L8" t="n">
         <v>4.75</v>
@@ -1576,10 +1576,10 @@
         <v>2.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
         <v>6</v>
@@ -1612,13 +1612,13 @@
         <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD8" t="n">
         <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>6.5</v>
@@ -1657,10 +1657,10 @@
         <v>1.78</v>
       </c>
       <c r="AR8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="9">
@@ -1719,10 +1719,10 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" t="n">
         <v>3.1</v>
@@ -1809,7 +1809,7 @@
         <v>5.4</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="10">
@@ -1844,34 +1844,34 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q10" t="n">
         <v>2.7</v>
@@ -1880,10 +1880,10 @@
         <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U10" t="n">
         <v>1.62</v>
@@ -1898,25 +1898,25 @@
         <v>1.62</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD10" t="n">
         <v>41</v>
       </c>
-      <c r="AC10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>51</v>
-      </c>
       <c r="AE10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF10" t="n">
         <v>6</v>
@@ -1931,28 +1931,28 @@
         <v>101</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
         <v>41</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR10" t="n">
         <v>4.6</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
         <v>2.75</v>
@@ -2008,7 +2008,7 @@
         <v>1.8</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.14</v>
@@ -2017,10 +2017,10 @@
         <v>5.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
         <v>3.1</v>
@@ -2029,10 +2029,10 @@
         <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U11" t="n">
         <v>1.67</v>
@@ -2047,13 +2047,13 @@
         <v>1.53</v>
       </c>
       <c r="Y11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z11" t="n">
         <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
@@ -2098,16 +2098,16 @@
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.31</v>
+        <v>2.27</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AR11" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="12">
@@ -2142,19 +2142,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
         <v>2.55</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="L12" t="n">
         <v>3.6</v>
@@ -2190,13 +2190,13 @@
         <v>1.9</v>
       </c>
       <c r="W12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z12" t="n">
         <v>15</v>
@@ -2227,16 +2227,16 @@
       </c>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AK12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL12" t="n">
         <v>13</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN12" t="n">
         <v>34</v>
@@ -2281,22 +2281,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>2.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>1.8</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.17</v>
@@ -2305,16 +2305,16 @@
         <v>4.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
         <v>7</v>
@@ -2329,22 +2329,22 @@
         <v>2.05</v>
       </c>
       <c r="W13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
         <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
         <v>26</v>
@@ -2366,19 +2366,19 @@
       </c>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO13" t="n">
         <v>67</v>
@@ -2438,16 +2438,16 @@
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
         <v>4.2</v>
@@ -2456,16 +2456,16 @@
         <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W14" t="n">
         <v>3</v>
@@ -2849,13 +2849,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
         <v>2.88</v>
@@ -2867,28 +2867,28 @@
         <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.29</v>
       </c>
       <c r="U17" t="n">
         <v>1.4</v>
@@ -2906,7 +2906,7 @@
         <v>8</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
         <v>9</v>
@@ -2915,16 +2915,16 @@
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
@@ -2994,19 +2994,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
         <v>3.75</v>
@@ -3018,37 +3018,37 @@
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V18" t="n">
         <v>3</v>
       </c>
-      <c r="T18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
         <v>11</v>
@@ -3057,19 +3057,19 @@
         <v>9</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -3078,22 +3078,22 @@
         <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
@@ -3135,13 +3135,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>2.75</v>
@@ -3150,7 +3150,7 @@
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3192,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
         <v>9</v>
@@ -3201,7 +3201,7 @@
         <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
         <v>21</v>
@@ -3574,13 +3574,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
         <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J22" t="n">
         <v>2.05</v>
@@ -3592,10 +3592,10 @@
         <v>8</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -3631,10 +3631,10 @@
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
         <v>9</v>
@@ -3646,7 +3646,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
         <v>8</v>
@@ -3667,7 +3667,7 @@
         <v>41</v>
       </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
         <v>101</v>
@@ -3676,19 +3676,19 @@
         <v>67</v>
       </c>
       <c r="AO22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.13</v>
+        <v>2.16</v>
       </c>
       <c r="AR22" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="23">
@@ -4573,22 +4573,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H29" t="n">
         <v>3.7</v>
       </c>
       <c r="I29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L29" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
@@ -4597,16 +4597,16 @@
         <v>11</v>
       </c>
       <c r="O29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R29" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S29" t="n">
         <v>3.25</v>
@@ -4615,22 +4615,22 @@
         <v>1.33</v>
       </c>
       <c r="U29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V29" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W29" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA29" t="n">
         <v>8.5</v>
@@ -4642,7 +4642,7 @@
         <v>13</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -4651,13 +4651,13 @@
         <v>7</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
         <v>51</v>
       </c>
       <c r="AI29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ29" t="n">
         <v>13</v>
@@ -4672,7 +4672,7 @@
         <v>51</v>
       </c>
       <c r="AN29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="n">
         <v>41</v>
@@ -4714,22 +4714,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
@@ -4777,7 +4777,7 @@
         <v>9.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC30" t="n">
         <v>19</v>
@@ -4807,13 +4807,13 @@
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
         <v>34</v>
@@ -4858,19 +4858,19 @@
         <v>2.1</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J31" t="n">
         <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -4879,22 +4879,22 @@
         <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U31" t="n">
         <v>1.44</v>
@@ -4903,16 +4903,16 @@
         <v>2.63</v>
       </c>
       <c r="W31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>9</v>
@@ -4921,13 +4921,13 @@
         <v>19</v>
       </c>
       <c r="AC31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD31" t="n">
         <v>29</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6.5</v>
@@ -4939,16 +4939,16 @@
         <v>51</v>
       </c>
       <c r="AI31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM31" t="n">
         <v>41</v>
@@ -4957,7 +4957,7 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4996,61 +4996,61 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K32" t="n">
         <v>2.05</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.1</v>
       </c>
       <c r="L32" t="n">
         <v>2.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R32" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T32" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U32" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V32" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W32" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z32" t="n">
         <v>19</v>
@@ -5068,25 +5068,25 @@
         <v>41</v>
       </c>
       <c r="AE32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF32" t="n">
         <v>6.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH32" t="n">
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL32" t="n">
         <v>9</v>
@@ -5098,7 +5098,7 @@
         <v>17</v>
       </c>
       <c r="AO32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5281,10 +5281,10 @@
         <v>2.5</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J34" t="n">
         <v>3.1</v>
@@ -5293,37 +5293,37 @@
         <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.29</v>
       </c>
-      <c r="P34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V34" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W34" t="n">
         <v>1.73</v>
@@ -5332,13 +5332,13 @@
         <v>2</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z34" t="n">
         <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB34" t="n">
         <v>23</v>
@@ -5350,7 +5350,7 @@
         <v>29</v>
       </c>
       <c r="AE34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF34" t="n">
         <v>6</v>
@@ -5359,7 +5359,7 @@
         <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="n">
         <v>201</v>
@@ -5380,7 +5380,7 @@
         <v>23</v>
       </c>
       <c r="AO34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5850,22 +5850,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J38" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K38" t="n">
         <v>2.3</v>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -5910,10 +5910,10 @@
         <v>11</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="n">
         <v>15</v>
@@ -5937,7 +5937,7 @@
         <v>126</v>
       </c>
       <c r="AJ38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK38" t="n">
         <v>21</v>
@@ -6406,40 +6406,40 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S42" t="n">
         <v>3.75</v>
@@ -6460,16 +6460,16 @@
         <v>1.95</v>
       </c>
       <c r="Y42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC42" t="n">
         <v>23</v>
@@ -6478,10 +6478,10 @@
         <v>34</v>
       </c>
       <c r="AE42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG42" t="n">
         <v>13</v>
@@ -6493,19 +6493,19 @@
         <v>251</v>
       </c>
       <c r="AJ42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO42" t="n">
         <v>34</v>
@@ -6828,13 +6828,13 @@
         <v>2.5</v>
       </c>
       <c r="L45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O45" t="n">
         <v>1.18</v>
@@ -6843,10 +6843,10 @@
         <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R45" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S45" t="n">
         <v>2.5</v>
@@ -6891,7 +6891,7 @@
         <v>9</v>
       </c>
       <c r="AG45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH45" t="n">
         <v>51</v>
@@ -6920,10 +6920,10 @@
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="46">
@@ -6967,31 +6967,31 @@
         <v>2.63</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q46" t="n">
         <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="n">
         <v>3.5</v>
@@ -7030,7 +7030,7 @@
         <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF46" t="n">
         <v>6.5</v>
@@ -7099,22 +7099,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I47" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="J47" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K47" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -7122,7 +7122,7 @@
         <v>1.22</v>
       </c>
       <c r="P47" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q47" t="n">
         <v>1.65</v>
@@ -7142,43 +7142,43 @@
         <v>1.65</v>
       </c>
       <c r="X47" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Y47" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA47" t="n">
         <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC47" t="n">
         <v>13</v>
       </c>
       <c r="AD47" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE47" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AG47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH47" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI47" t="n">
         <v>400</v>
       </c>
       <c r="AJ47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK47" t="n">
         <v>26</v>
@@ -7190,7 +7190,7 @@
         <v>70</v>
       </c>
       <c r="AN47" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO47" t="n">
         <v>40</v>
@@ -7518,22 +7518,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H50" t="n">
         <v>3.9</v>
       </c>
       <c r="I50" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K50" t="n">
         <v>2.38</v>
       </c>
       <c r="L50" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
@@ -7548,10 +7548,10 @@
         <v>4.33</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R50" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S50" t="n">
         <v>2.63</v>
@@ -7575,7 +7575,7 @@
         <v>8.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA50" t="n">
         <v>8.5</v>
@@ -7590,7 +7590,7 @@
         <v>21</v>
       </c>
       <c r="AE50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF50" t="n">
         <v>7.5</v>
@@ -7620,7 +7620,7 @@
         <v>34</v>
       </c>
       <c r="AO50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
@@ -7945,13 +7945,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I53" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J53" t="n">
         <v>2.5</v>
@@ -7963,10 +7963,10 @@
         <v>3.6</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O53" t="n">
         <v>1.14</v>
@@ -8011,7 +8011,7 @@
         <v>19</v>
       </c>
       <c r="AC53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD53" t="n">
         <v>19</v>
@@ -8020,7 +8020,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG53" t="n">
         <v>11</v>
@@ -8038,7 +8038,7 @@
         <v>21</v>
       </c>
       <c r="AL53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM53" t="n">
         <v>41</v>
@@ -8090,13 +8090,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H54" t="n">
         <v>3.9</v>
       </c>
       <c r="I54" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J54" t="n">
         <v>2.2</v>
@@ -8105,13 +8105,13 @@
         <v>2.1</v>
       </c>
       <c r="L54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O54" t="n">
         <v>1.4</v>
@@ -8120,16 +8120,16 @@
         <v>2.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R54" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S54" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U54" t="n">
         <v>1.5</v>
@@ -8138,34 +8138,34 @@
         <v>2.5</v>
       </c>
       <c r="W54" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X54" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA54" t="n">
         <v>9</v>
       </c>
       <c r="AB54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC54" t="n">
         <v>15</v>
       </c>
       <c r="AD54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE54" t="n">
         <v>8</v>
       </c>
       <c r="AF54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG54" t="n">
         <v>23</v>
@@ -8183,16 +8183,16 @@
         <v>29</v>
       </c>
       <c r="AL54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM54" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN54" t="n">
         <v>51</v>
       </c>
       <c r="AO54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP54" t="n">
         <v>1.7</v>
@@ -8380,28 +8380,28 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="J56" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K56" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O56" t="n">
         <v>1.22</v>
@@ -8428,25 +8428,25 @@
         <v>3.25</v>
       </c>
       <c r="W56" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X56" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA56" t="n">
         <v>8.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD56" t="n">
         <v>23</v>
@@ -8458,7 +8458,7 @@
         <v>6.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH56" t="n">
         <v>41</v>
@@ -8467,19 +8467,19 @@
         <v>151</v>
       </c>
       <c r="AJ56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO56" t="n">
         <v>34</v>
@@ -8521,28 +8521,28 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J57" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K57" t="n">
         <v>2.05</v>
       </c>
       <c r="L57" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M57" t="n">
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O57" t="n">
         <v>1.36</v>
@@ -8575,7 +8575,7 @@
         <v>1.91</v>
       </c>
       <c r="Y57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z57" t="n">
         <v>13</v>
@@ -8587,7 +8587,7 @@
         <v>29</v>
       </c>
       <c r="AC57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD57" t="n">
         <v>34</v>
@@ -8608,16 +8608,16 @@
         <v>301</v>
       </c>
       <c r="AJ57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL57" t="n">
         <v>10</v>
       </c>
       <c r="AM57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN57" t="n">
         <v>21</v>
@@ -10234,7 +10234,7 @@
         <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -11492,16 +11492,16 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="J78" t="n">
         <v>2.15</v>
       </c>
       <c r="K78" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L78" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -11510,40 +11510,40 @@
         <v>9</v>
       </c>
       <c r="O78" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P78" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R78" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S78" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T78" t="n">
         <v>1.5</v>
       </c>
       <c r="U78" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V78" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="W78" t="n">
         <v>1.65</v>
       </c>
       <c r="X78" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y78" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z78" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA78" t="n">
         <v>8.25</v>
@@ -11579,13 +11579,13 @@
         <v>27</v>
       </c>
       <c r="AL78" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM78" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN78" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO78" t="n">
         <v>37</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -1546,22 +1546,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.11</v>
@@ -1603,13 +1603,13 @@
         <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
         <v>10</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
         <v>23</v>
@@ -1633,10 +1633,10 @@
         <v>101</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
@@ -1657,7 +1657,7 @@
         <v>1.78</v>
       </c>
       <c r="AR8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AS8" t="n">
         <v>1.19</v>
@@ -1695,22 +1695,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.14</v>
@@ -1737,16 +1737,16 @@
         <v>1.11</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y9" t="n">
         <v>5</v>
@@ -1755,19 +1755,19 @@
         <v>8.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD9" t="n">
         <v>41</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
@@ -1785,7 +1785,7 @@
         <v>7.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -1806,10 +1806,10 @@
         <v>1.78</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="10">
@@ -1847,10 +1847,10 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1874,10 +1874,10 @@
         <v>2.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
         <v>6</v>
@@ -1892,10 +1892,10 @@
         <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y10" t="n">
         <v>6.5</v>
@@ -1910,7 +1910,7 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD10" t="n">
         <v>41</v>
@@ -1955,10 +1955,10 @@
         <v>1.78</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="11">
@@ -2041,16 +2041,16 @@
         <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y11" t="n">
         <v>6.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2065,16 +2065,16 @@
         <v>51</v>
       </c>
       <c r="AE11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF11" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>6</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
       </c>
       <c r="AH11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="n">
         <v>101</v>
@@ -2281,40 +2281,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
         <v>1.8</v>
       </c>
       <c r="L13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>1.17</v>
       </c>
       <c r="N13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
         <v>7</v>
@@ -2323,10 +2323,10 @@
         <v>1.1</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="W13" t="n">
         <v>2.63</v>
@@ -2335,19 +2335,19 @@
         <v>1.44</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA13" t="n">
         <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
         <v>51</v>
@@ -2359,17 +2359,17 @@
         <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>19</v>
@@ -2444,10 +2444,10 @@
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Q14" t="n">
         <v>4.2</v>
@@ -2456,10 +2456,10 @@
         <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
         <v>1.95</v>
@@ -3425,13 +3425,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H21" t="n">
         <v>2.9</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J21" t="n">
         <v>3.6</v>
@@ -3443,10 +3443,10 @@
         <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
         <v>1.57</v>
@@ -3455,10 +3455,10 @@
         <v>2.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
         <v>6</v>
@@ -3479,16 +3479,16 @@
         <v>1.57</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z21" t="n">
         <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
         <v>29</v>
@@ -3574,28 +3574,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -3622,13 +3622,13 @@
         <v>2.5</v>
       </c>
       <c r="W22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z22" t="n">
         <v>6</v>
@@ -3637,7 +3637,7 @@
         <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
@@ -3652,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH22" t="n">
         <v>101</v>
@@ -3661,34 +3661,34 @@
         <v>101</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
         <v>23</v>
       </c>
       <c r="AM22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO22" t="n">
         <v>67</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="AR22" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="23">
@@ -6834,7 +6834,7 @@
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
         <v>1.18</v>
@@ -6843,10 +6843,10 @@
         <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R45" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S45" t="n">
         <v>2.5</v>
@@ -6920,10 +6920,10 @@
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="46">
@@ -6967,31 +6967,31 @@
         <v>2.63</v>
       </c>
       <c r="J46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q46" t="n">
         <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S46" t="n">
         <v>3.5</v>
@@ -7030,7 +7030,7 @@
         <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF46" t="n">
         <v>6.5</v>
@@ -7099,22 +7099,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I47" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="J47" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="K47" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L47" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -7122,7 +7122,7 @@
         <v>1.22</v>
       </c>
       <c r="P47" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" t="n">
         <v>1.65</v>
@@ -7142,55 +7142,55 @@
         <v>1.65</v>
       </c>
       <c r="X47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Y47" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA47" t="n">
         <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE47" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AG47" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI47" t="n">
         <v>400</v>
       </c>
       <c r="AJ47" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK47" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL47" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM47" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN47" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO47" t="n">
         <v>40</v>
@@ -11345,22 +11345,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="H77" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="I77" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J77" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K77" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="L77" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="M77" t="n">
         <v>1.13</v>
@@ -11369,85 +11369,85 @@
         <v>4.45</v>
       </c>
       <c r="O77" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="P77" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="R77" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="S77" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="T77" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="U77" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V77" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="W77" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="X77" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="Y77" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF77" t="n">
         <v>5.5</v>
       </c>
-      <c r="Z77" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>5.9</v>
-      </c>
       <c r="AG77" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AH77" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI77" t="n">
         <v>101</v>
       </c>
       <c r="AJ77" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AK77" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AL77" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM77" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>37</v>
+      </c>
+      <c r="AO77" t="n">
         <v>50</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>60</v>
       </c>
       <c r="AP77" t="inlineStr"/>
       <c r="AQ77" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-07.xlsx
@@ -1844,13 +1844,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1859,7 +1859,7 @@
         <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
@@ -1898,13 +1898,13 @@
         <v>1.57</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="n">
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -1913,7 +1913,7 @@
         <v>34</v>
       </c>
       <c r="AD10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE10" t="n">
         <v>6</v>
@@ -1934,13 +1934,13 @@
         <v>6</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
         <v>11</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
@@ -1955,7 +1955,7 @@
         <v>1.78</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AS10" t="n">
         <v>1.19</v>
@@ -1996,25 +1996,25 @@
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L11" t="n">
         <v>3.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.62</v>
@@ -2023,10 +2023,10 @@
         <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
         <v>6.5</v>
@@ -2053,7 +2053,7 @@
         <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
@@ -2065,10 +2065,10 @@
         <v>51</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
@@ -2086,28 +2086,28 @@
         <v>11</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN11" t="n">
         <v>29</v>
       </c>
       <c r="AO11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AR11" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="12">
@@ -2444,10 +2444,10 @@
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
         <v>4.2</v>
@@ -2456,10 +2456,10 @@
         <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="U14" t="n">
         <v>1.95</v>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
         <v>7</v>
@@ -3598,22 +3598,22 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T22" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U22" t="n">
         <v>1.5</v>
@@ -3622,13 +3622,13 @@
         <v>2.5</v>
       </c>
       <c r="W22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z22" t="n">
         <v>6</v>
@@ -3637,7 +3637,7 @@
         <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
@@ -3646,13 +3646,13 @@
         <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF22" t="n">
         <v>8</v>
       </c>
       <c r="AG22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH22" t="n">
         <v>101</v>
@@ -3667,7 +3667,7 @@
         <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
         <v>81</v>
@@ -3685,7 +3685,7 @@
         <v>2.12</v>
       </c>
       <c r="AR22" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AS22" t="n">
         <v>1.3</v>
@@ -6813,16 +6813,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H45" t="n">
         <v>4.75</v>
       </c>
       <c r="I45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>2.5</v>
@@ -6837,52 +6837,52 @@
         <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R45" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S45" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U45" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W45" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="X45" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Y45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z45" t="n">
         <v>8</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>7.5</v>
       </c>
       <c r="AA45" t="n">
         <v>8.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC45" t="n">
         <v>11</v>
       </c>
       <c r="AD45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE45" t="n">
         <v>15</v>
@@ -6894,19 +6894,19 @@
         <v>17</v>
       </c>
       <c r="AH45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI45" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK45" t="n">
         <v>34</v>
       </c>
       <c r="AL45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM45" t="n">
         <v>67</v>
@@ -6920,10 +6920,10 @@
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="46">
@@ -6958,13 +6958,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J46" t="n">
         <v>3.25</v>
@@ -6973,7 +6973,7 @@
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
@@ -6982,16 +6982,16 @@
         <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q46" t="n">
         <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="n">
         <v>3.5</v>
@@ -7012,16 +7012,16 @@
         <v>1.95</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA46" t="n">
         <v>10</v>
       </c>
       <c r="AB46" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC46" t="n">
         <v>21</v>
@@ -7054,13 +7054,13 @@
         <v>10</v>
       </c>
       <c r="AM46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN46" t="n">
         <v>21</v>
       </c>
       <c r="AO46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
@@ -7099,42 +7099,42 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>3.7</v>
       </c>
       <c r="I47" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="J47" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="K47" t="n">
         <v>2.22</v>
       </c>
       <c r="L47" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P47" t="n">
         <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R47" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S47" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="T47" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -7142,22 +7142,22 @@
         <v>1.65</v>
       </c>
       <c r="X47" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Y47" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA47" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC47" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>12.5</v>
       </c>
       <c r="AD47" t="n">
         <v>23</v>
@@ -7169,31 +7169,31 @@
         <v>7.3</v>
       </c>
       <c r="AG47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH47" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI47" t="n">
         <v>400</v>
       </c>
       <c r="AJ47" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL47" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM47" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN47" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AO47" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
